--- a/sql/华夏ERP数据库设计汇总.xlsx
+++ b/sql/华夏ERP数据库设计汇总.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470">
   <si>
     <t>返回</t>
   </si>
@@ -810,7 +810,10 @@
     <t>启用</t>
   </si>
   <si>
-    <t>double</t>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>(24, 6)</t>
   </si>
   <si>
     <t>fax</t>
@@ -850,12 +853,6 @@
   </si>
   <si>
     <t>编号</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>(24, 6)</t>
   </si>
   <si>
     <t>Remark</t>
@@ -1472,10 +1469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
   <fonts count="65">
@@ -1602,9 +1599,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1618,43 +1625,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1667,8 +1639,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1684,7 +1671,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1698,6 +1685,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1707,69 +1701,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1784,36 +1716,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1827,14 +1788,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1846,24 +1829,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color indexed="62"/>
@@ -1871,7 +1836,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1884,14 +1888,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1956,19 +1953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,67 +1965,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,31 +2019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,31 +2037,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2136,31 +2121,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2172,7 +2151,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2184,25 +2193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2215,6 +2206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,6 +2240,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2254,6 +2260,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2278,11 +2293,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2303,6 +2324,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2317,21 +2353,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2341,26 +2362,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2382,17 +2427,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -2406,872 +2444,831 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="44" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="44" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3292,33 +3289,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3347,192 +3344,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3550,37 +3547,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3608,805 +3605,801 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -4414,106 +4407,110 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4599,45 +4596,45 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4646,46 +4643,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="284" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 33" xfId="1"/>
-    <cellStyle name="?? 28" xfId="2"/>
+    <cellStyle name="?? 28" xfId="1"/>
+    <cellStyle name="?? 33" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
     <cellStyle name="?? 185 2 2" xfId="4"/>
-    <cellStyle name="常规 44" xfId="5"/>
-    <cellStyle name="常规 39" xfId="6"/>
+    <cellStyle name="常规 39" xfId="5"/>
+    <cellStyle name="常规 44" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 20" xfId="10"/>
-    <cellStyle name="?? 15" xfId="11"/>
+    <cellStyle name="?? 15" xfId="10"/>
+    <cellStyle name="?? 20" xfId="11"/>
     <cellStyle name="千位分隔[0]" xfId="12" builtinId="6"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="13"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="13"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
     <cellStyle name="常规 2 26" xfId="15"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="16" builtinId="39"/>
     <cellStyle name="差" xfId="17" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="18" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="19" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="20"/>
-    <cellStyle name="?? 11" xfId="21"/>
+    <cellStyle name="?? 11" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
     <cellStyle name="超链接" xfId="22" builtinId="8"/>
     <cellStyle name="百分比" xfId="23" builtinId="5"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
@@ -4714,19 +4711,19 @@
     <cellStyle name="输出" xfId="47" builtinId="21"/>
     <cellStyle name="常规 90" xfId="48"/>
     <cellStyle name="常规 85" xfId="49"/>
-    <cellStyle name="计算" xfId="50" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="51"/>
+    <cellStyle name="常规 26" xfId="50"/>
+    <cellStyle name="常规 31" xfId="51"/>
     <cellStyle name="Input" xfId="52"/>
-    <cellStyle name="常规 26" xfId="53"/>
-    <cellStyle name="常规 31" xfId="54"/>
+    <cellStyle name="计算" xfId="53" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="54"/>
     <cellStyle name="检查单元格" xfId="55" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="56" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="57" builtinId="33"/>
     <cellStyle name="链接单元格" xfId="58" builtinId="24"/>
     <cellStyle name="汇总" xfId="59" builtinId="25"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="20% - Accent3 2" xfId="61"/>
-    <cellStyle name="Heading 3" xfId="62"/>
+    <cellStyle name="Heading 3" xfId="61"/>
+    <cellStyle name="20% - Accent3 2" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="65" builtinId="29"/>
@@ -4738,8 +4735,8 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="74"/>
-    <cellStyle name="常规 2 26 2" xfId="75"/>
+    <cellStyle name="常规 2 26 2" xfId="74"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="75"/>
     <cellStyle name="强调文字颜色 3" xfId="76" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="77" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="78" builtinId="42"/>
@@ -4759,25 +4756,25 @@
     <cellStyle name="?? 17" xfId="92"/>
     <cellStyle name="?? 22" xfId="93"/>
     <cellStyle name="?? 13" xfId="94"/>
-    <cellStyle name="?? 14" xfId="95"/>
-    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="96"/>
-    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="97"/>
+    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="95"/>
+    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="96"/>
+    <cellStyle name="?? 14" xfId="97"/>
     <cellStyle name="??" xfId="98"/>
-    <cellStyle name="?? 10 2" xfId="99"/>
-    <cellStyle name="40% - Accent5" xfId="100"/>
-    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="101"/>
-    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="102"/>
-    <cellStyle name="?? 16" xfId="103"/>
-    <cellStyle name="?? 21" xfId="104"/>
-    <cellStyle name="常规 2 2 3 2" xfId="105"/>
+    <cellStyle name="40% - Accent5" xfId="99"/>
+    <cellStyle name="?? 10 2" xfId="100"/>
+    <cellStyle name="常规 2 2 3 2" xfId="101"/>
+    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="102"/>
+    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="103"/>
+    <cellStyle name="?? 16" xfId="104"/>
+    <cellStyle name="?? 21" xfId="105"/>
     <cellStyle name="?? 18" xfId="106"/>
     <cellStyle name="?? 23" xfId="107"/>
-    <cellStyle name="?? 185" xfId="108"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="109"/>
-    <cellStyle name="?? 185 2" xfId="110"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="108"/>
+    <cellStyle name="?? 185" xfId="109"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="110"/>
     <cellStyle name="?? 26" xfId="111"/>
     <cellStyle name="?? 31" xfId="112"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="113"/>
+    <cellStyle name="?? 185 2" xfId="113"/>
     <cellStyle name="?? 19" xfId="114"/>
     <cellStyle name="?? 24" xfId="115"/>
     <cellStyle name="?? 25" xfId="116"/>
@@ -4786,73 +4783,73 @@
     <cellStyle name="?? 32" xfId="119"/>
     <cellStyle name="?? 29" xfId="120"/>
     <cellStyle name="?? 34" xfId="121"/>
-    <cellStyle name="?? 3" xfId="122"/>
-    <cellStyle name="常规 27" xfId="123"/>
-    <cellStyle name="常规 32" xfId="124"/>
+    <cellStyle name="常规 27" xfId="122"/>
+    <cellStyle name="常规 32" xfId="123"/>
+    <cellStyle name="?? 3" xfId="124"/>
     <cellStyle name="?? 35" xfId="125"/>
-    <cellStyle name="?? 36" xfId="126"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="127"/>
-    <cellStyle name="?? 37" xfId="128"/>
-    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="129"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="126"/>
+    <cellStyle name="?? 36" xfId="127"/>
+    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="128"/>
+    <cellStyle name="?? 37" xfId="129"/>
     <cellStyle name="?? 38" xfId="130"/>
-    <cellStyle name="?? 4" xfId="131"/>
-    <cellStyle name="常规 28" xfId="132"/>
-    <cellStyle name="常规 33" xfId="133"/>
-    <cellStyle name="常规 62 2" xfId="134"/>
-    <cellStyle name="常规 57 2" xfId="135"/>
-    <cellStyle name="?? 5" xfId="136"/>
-    <cellStyle name="常规 2 4 3 2" xfId="137"/>
+    <cellStyle name="常规 62 2" xfId="131"/>
+    <cellStyle name="常规 57 2" xfId="132"/>
+    <cellStyle name="常规 28" xfId="133"/>
+    <cellStyle name="常规 33" xfId="134"/>
+    <cellStyle name="?? 4" xfId="135"/>
+    <cellStyle name="常规 62 3" xfId="136"/>
+    <cellStyle name="常规 57 3" xfId="137"/>
     <cellStyle name="常规 29" xfId="138"/>
     <cellStyle name="常规 34" xfId="139"/>
-    <cellStyle name="常规 62 3" xfId="140"/>
-    <cellStyle name="常规 57 3" xfId="141"/>
-    <cellStyle name="?? 6" xfId="142"/>
-    <cellStyle name="常规 35" xfId="143"/>
-    <cellStyle name="常规 40" xfId="144"/>
-    <cellStyle name="?? 7" xfId="145"/>
-    <cellStyle name="常规 36" xfId="146"/>
-    <cellStyle name="常规 41" xfId="147"/>
-    <cellStyle name="?? 8" xfId="148"/>
-    <cellStyle name="常规 2 2 2" xfId="149"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="150"/>
-    <cellStyle name="常规 37" xfId="151"/>
-    <cellStyle name="常规 42" xfId="152"/>
-    <cellStyle name="?? 9" xfId="153"/>
-    <cellStyle name="常规 2 2 3" xfId="154"/>
-    <cellStyle name="常规 38" xfId="155"/>
-    <cellStyle name="常规 43" xfId="156"/>
+    <cellStyle name="常规 2 4 3 2" xfId="140"/>
+    <cellStyle name="?? 5" xfId="141"/>
+    <cellStyle name="常规 35" xfId="142"/>
+    <cellStyle name="常规 40" xfId="143"/>
+    <cellStyle name="?? 6" xfId="144"/>
+    <cellStyle name="常规 36" xfId="145"/>
+    <cellStyle name="常规 41" xfId="146"/>
+    <cellStyle name="?? 7" xfId="147"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="148"/>
+    <cellStyle name="常规 37" xfId="149"/>
+    <cellStyle name="常规 42" xfId="150"/>
+    <cellStyle name="常规 2 2 2" xfId="151"/>
+    <cellStyle name="?? 8" xfId="152"/>
+    <cellStyle name="常规 38" xfId="153"/>
+    <cellStyle name="常规 43" xfId="154"/>
+    <cellStyle name="常规 2 2 3" xfId="155"/>
+    <cellStyle name="?? 9" xfId="156"/>
     <cellStyle name="??_Sheet1" xfId="157"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="158"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="159"/>
-    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="160"/>
-    <cellStyle name="20% - Accent1" xfId="161"/>
-    <cellStyle name="常规 10 2 2 4 2" xfId="162"/>
+    <cellStyle name="常规 10 2 2 4 2" xfId="160"/>
+    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="161"/>
+    <cellStyle name="20% - Accent1" xfId="162"/>
     <cellStyle name="20% - Accent1 2" xfId="163"/>
     <cellStyle name="20% - Accent2" xfId="164"/>
     <cellStyle name="20% - Accent2 2" xfId="165"/>
     <cellStyle name="20% - Accent3" xfId="166"/>
-    <cellStyle name="20% - Accent4" xfId="167"/>
-    <cellStyle name="常规 5 3 2" xfId="168"/>
-    <cellStyle name="20% - Accent4 2" xfId="169"/>
-    <cellStyle name="常规 4" xfId="170"/>
+    <cellStyle name="常规 5 3 2" xfId="167"/>
+    <cellStyle name="20% - Accent4" xfId="168"/>
+    <cellStyle name="常规 4" xfId="169"/>
+    <cellStyle name="20% - Accent4 2" xfId="170"/>
     <cellStyle name="20% - Accent5" xfId="171"/>
     <cellStyle name="20% - Accent5 2" xfId="172"/>
-    <cellStyle name="20% - Accent6" xfId="173"/>
-    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="174"/>
+    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="173"/>
+    <cellStyle name="20% - Accent6" xfId="174"/>
     <cellStyle name="20% - Accent6 2" xfId="175"/>
-    <cellStyle name="40% - Accent1" xfId="176"/>
-    <cellStyle name="常规 63" xfId="177"/>
-    <cellStyle name="常规 58" xfId="178"/>
-    <cellStyle name="常规 83" xfId="179"/>
-    <cellStyle name="常规 78" xfId="180"/>
-    <cellStyle name="40% - Accent1 2" xfId="181"/>
-    <cellStyle name="常规 63 2" xfId="182"/>
-    <cellStyle name="常规 58 2" xfId="183"/>
-    <cellStyle name="40% - Accent2" xfId="184"/>
-    <cellStyle name="常规 64" xfId="185"/>
-    <cellStyle name="常规 59" xfId="186"/>
-    <cellStyle name="40% - Accent2 2" xfId="187"/>
-    <cellStyle name="常规 59 2" xfId="188"/>
+    <cellStyle name="常规 63" xfId="176"/>
+    <cellStyle name="常规 58" xfId="177"/>
+    <cellStyle name="40% - Accent1" xfId="178"/>
+    <cellStyle name="常规 63 2" xfId="179"/>
+    <cellStyle name="常规 58 2" xfId="180"/>
+    <cellStyle name="常规 83" xfId="181"/>
+    <cellStyle name="常规 78" xfId="182"/>
+    <cellStyle name="40% - Accent1 2" xfId="183"/>
+    <cellStyle name="常规 64" xfId="184"/>
+    <cellStyle name="常规 59" xfId="185"/>
+    <cellStyle name="40% - Accent2" xfId="186"/>
+    <cellStyle name="常规 59 2" xfId="187"/>
+    <cellStyle name="40% - Accent2 2" xfId="188"/>
     <cellStyle name="40% - Accent3" xfId="189"/>
     <cellStyle name="40% - Accent3 2" xfId="190"/>
     <cellStyle name="40% - Accent4" xfId="191"/>
@@ -4860,105 +4857,105 @@
     <cellStyle name="40% - Accent5 2" xfId="193"/>
     <cellStyle name="40% - Accent6" xfId="194"/>
     <cellStyle name="40% - Accent6 2" xfId="195"/>
-    <cellStyle name="60% - Accent1" xfId="196"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="197"/>
-    <cellStyle name="60% - Accent2" xfId="198"/>
-    <cellStyle name="常规 2 2" xfId="199"/>
-    <cellStyle name="60% - Accent3" xfId="200"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="196"/>
+    <cellStyle name="60% - Accent1" xfId="197"/>
+    <cellStyle name="常规 2 2" xfId="198"/>
+    <cellStyle name="60% - Accent2" xfId="199"/>
+    <cellStyle name="常规 2 3" xfId="200"/>
     <cellStyle name="常规 10 2 4 2" xfId="201"/>
-    <cellStyle name="常规 2 3" xfId="202"/>
-    <cellStyle name="60% - Accent4" xfId="203"/>
-    <cellStyle name="常规 2 4" xfId="204"/>
-    <cellStyle name="60% - Accent5" xfId="205"/>
-    <cellStyle name="常规 2 5" xfId="206"/>
-    <cellStyle name="60% - Accent6" xfId="207"/>
-    <cellStyle name="常规 2 6" xfId="208"/>
+    <cellStyle name="60% - Accent3" xfId="202"/>
+    <cellStyle name="常规 2 4" xfId="203"/>
+    <cellStyle name="60% - Accent4" xfId="204"/>
+    <cellStyle name="常规 2 5" xfId="205"/>
+    <cellStyle name="60% - Accent5" xfId="206"/>
+    <cellStyle name="常规 2 6" xfId="207"/>
+    <cellStyle name="60% - Accent6" xfId="208"/>
     <cellStyle name="Accent1" xfId="209"/>
     <cellStyle name="Accent2" xfId="210"/>
-    <cellStyle name="Accent3" xfId="211"/>
-    <cellStyle name="常规 102 2" xfId="212"/>
-    <cellStyle name="Accent4" xfId="213"/>
-    <cellStyle name="常规 102 3" xfId="214"/>
-    <cellStyle name="Accent5" xfId="215"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="216"/>
-    <cellStyle name="Accent6" xfId="217"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="218"/>
-    <cellStyle name="Bad" xfId="219"/>
-    <cellStyle name="常规 2 3 2" xfId="220"/>
-    <cellStyle name="Calculation" xfId="221"/>
+    <cellStyle name="常规 102 2" xfId="211"/>
+    <cellStyle name="Accent3" xfId="212"/>
+    <cellStyle name="常规 102 3" xfId="213"/>
+    <cellStyle name="Accent4" xfId="214"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="215"/>
+    <cellStyle name="Accent5" xfId="216"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="217"/>
+    <cellStyle name="Accent6" xfId="218"/>
+    <cellStyle name="常规 2 3 2" xfId="219"/>
+    <cellStyle name="Bad" xfId="220"/>
+    <cellStyle name="常规 36 2" xfId="221"/>
     <cellStyle name="常规 106" xfId="222"/>
     <cellStyle name="常规 111" xfId="223"/>
-    <cellStyle name="常规 36 2" xfId="224"/>
-    <cellStyle name="Check Cell" xfId="225"/>
-    <cellStyle name="常规 15" xfId="226"/>
-    <cellStyle name="常规 20" xfId="227"/>
+    <cellStyle name="Calculation" xfId="224"/>
+    <cellStyle name="常规 15" xfId="225"/>
+    <cellStyle name="常规 20" xfId="226"/>
+    <cellStyle name="Check Cell" xfId="227"/>
     <cellStyle name="Explanatory Text" xfId="228"/>
-    <cellStyle name="Good" xfId="229"/>
-    <cellStyle name="常规 10" xfId="230"/>
-    <cellStyle name="常规 16 2" xfId="231"/>
+    <cellStyle name="常规 16 2" xfId="229"/>
+    <cellStyle name="Good" xfId="230"/>
+    <cellStyle name="常规 10" xfId="231"/>
     <cellStyle name="Heading 1" xfId="232"/>
     <cellStyle name="Heading 2" xfId="233"/>
     <cellStyle name="Heading 4" xfId="234"/>
     <cellStyle name="Linked Cell" xfId="235"/>
     <cellStyle name="Neutral" xfId="236"/>
-    <cellStyle name="Normal 2" xfId="237"/>
-    <cellStyle name="常规 115" xfId="238"/>
-    <cellStyle name="常规 120" xfId="239"/>
-    <cellStyle name="Normal 2 2" xfId="240"/>
-    <cellStyle name="常规 120 2" xfId="241"/>
+    <cellStyle name="常规 115" xfId="237"/>
+    <cellStyle name="常规 120" xfId="238"/>
+    <cellStyle name="Normal 2" xfId="239"/>
+    <cellStyle name="常规 120 2" xfId="240"/>
+    <cellStyle name="Normal 2 2" xfId="241"/>
     <cellStyle name="Normal 2 3" xfId="242"/>
-    <cellStyle name="常规 116" xfId="243"/>
-    <cellStyle name="常规 121" xfId="244"/>
-    <cellStyle name="Normal 3" xfId="245"/>
-    <cellStyle name="常规 3 7 2" xfId="246"/>
+    <cellStyle name="Normal 3" xfId="243"/>
+    <cellStyle name="常规 3 7 2" xfId="244"/>
+    <cellStyle name="常规 116" xfId="245"/>
+    <cellStyle name="常规 121" xfId="246"/>
     <cellStyle name="Normal 3 2" xfId="247"/>
     <cellStyle name="Normal_CEB EDW_任务跟踪管理" xfId="248"/>
-    <cellStyle name="Note" xfId="249"/>
-    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="250"/>
+    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="249"/>
+    <cellStyle name="Note" xfId="250"/>
     <cellStyle name="Note 2" xfId="251"/>
     <cellStyle name="Output" xfId="252"/>
     <cellStyle name="常规 4 2 3 4" xfId="253"/>
-    <cellStyle name="Title" xfId="254"/>
-    <cellStyle name="常规 2" xfId="255"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="256"/>
-    <cellStyle name="Total" xfId="257"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="258"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="259"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="260"/>
+    <cellStyle name="常规 2" xfId="254"/>
+    <cellStyle name="Title" xfId="255"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="256"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="257"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="258"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="259"/>
+    <cellStyle name="Total" xfId="260"/>
     <cellStyle name="Warning Text" xfId="261"/>
-    <cellStyle name="百分比 2" xfId="262"/>
-    <cellStyle name="常规 10 2 2 3 2" xfId="263"/>
+    <cellStyle name="常规 10 2 2 3 2" xfId="262"/>
+    <cellStyle name="百分比 2" xfId="263"/>
     <cellStyle name="差_RDM_RWA_P-F_数据映射_V0.0" xfId="264"/>
     <cellStyle name="差_RDM_零售_P-F_数据映射_V1.0" xfId="265"/>
     <cellStyle name="差_Sheet1" xfId="266"/>
     <cellStyle name="差_Sheet1 2" xfId="267"/>
     <cellStyle name="差_Sheet2" xfId="268"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="269"/>
-    <cellStyle name="差_Sheet3" xfId="270"/>
-    <cellStyle name="常规 3 2" xfId="271"/>
+    <cellStyle name="差_Sheet3" xfId="269"/>
+    <cellStyle name="常规 3 2" xfId="270"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="271"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="272"/>
     <cellStyle name="常规 96" xfId="273"/>
     <cellStyle name="差_保函明细" xfId="274"/>
     <cellStyle name="差_对公资产监管经济资本表" xfId="275"/>
-    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="276"/>
-    <cellStyle name="常规 45 2 2" xfId="277"/>
-    <cellStyle name="常规 50 2 2" xfId="278"/>
+    <cellStyle name="常规 45 2 2" xfId="276"/>
+    <cellStyle name="常规 50 2 2" xfId="277"/>
+    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="278"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="279"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="280"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="281"/>
-    <cellStyle name="常规 51 2" xfId="282"/>
+    <cellStyle name="常规 51 2" xfId="281"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="282"/>
     <cellStyle name="常规 10 2" xfId="283"/>
-    <cellStyle name="常规 10 2 2" xfId="284"/>
-    <cellStyle name="常规 2 7" xfId="285"/>
+    <cellStyle name="常规 2 7" xfId="284"/>
+    <cellStyle name="常规 10 2 2" xfId="285"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="286"/>
     <cellStyle name="常规 10 2 2 2" xfId="287"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="288"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="289"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="290"/>
-    <cellStyle name="常规 10 2 2 2 3 3" xfId="291"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="292"/>
-    <cellStyle name="常规 47" xfId="293"/>
-    <cellStyle name="常规 52" xfId="294"/>
+    <cellStyle name="常规 10 2 2 2 3 3" xfId="290"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="291"/>
+    <cellStyle name="常规 47" xfId="292"/>
+    <cellStyle name="常规 52" xfId="293"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="294"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="295"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="296"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="297"/>
@@ -4979,8 +4976,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="312"/>
     <cellStyle name="常规 10 2 2 6" xfId="313"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="314"/>
-    <cellStyle name="常规 10 2 3" xfId="315"/>
-    <cellStyle name="常规 2 8" xfId="316"/>
+    <cellStyle name="常规 2 8" xfId="315"/>
+    <cellStyle name="常规 10 2 3" xfId="316"/>
     <cellStyle name="常规 10 2 3 2" xfId="317"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="318"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="319"/>
@@ -4993,14 +4990,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="326"/>
     <cellStyle name="常规 10 2 3 4" xfId="327"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="328"/>
-    <cellStyle name="常规 10 2 3 5" xfId="329"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="329"/>
     <cellStyle name="常规 2 10" xfId="330"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="331"/>
-    <cellStyle name="常规 10 2 4" xfId="332"/>
-    <cellStyle name="常规 2 9" xfId="333"/>
+    <cellStyle name="常规 10 2 3 5" xfId="331"/>
+    <cellStyle name="常规 2 9" xfId="332"/>
+    <cellStyle name="常规 10 2 4" xfId="333"/>
     <cellStyle name="常规 10 2 5" xfId="334"/>
-    <cellStyle name="常规 10 2 5 2" xfId="335"/>
-    <cellStyle name="常规 3 3" xfId="336"/>
+    <cellStyle name="常规 3 3" xfId="335"/>
+    <cellStyle name="常规 10 2 5 2" xfId="336"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="337"/>
     <cellStyle name="常规 100" xfId="338"/>
     <cellStyle name="常规 4 2 3" xfId="339"/>
@@ -5019,8 +5016,8 @@
     <cellStyle name="常规 101 2" xfId="352"/>
     <cellStyle name="常规 4 6 2" xfId="353"/>
     <cellStyle name="常规 101 2 2" xfId="354"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="355"/>
-    <cellStyle name="常规 101 3" xfId="356"/>
+    <cellStyle name="常规 101 3" xfId="355"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="356"/>
     <cellStyle name="常规 102" xfId="357"/>
     <cellStyle name="常规 4 2 5" xfId="358"/>
     <cellStyle name="常规 4 7" xfId="359"/>
@@ -5055,23 +5052,23 @@
     <cellStyle name="常规 21" xfId="388"/>
     <cellStyle name="常规 17" xfId="389"/>
     <cellStyle name="常规 22" xfId="390"/>
-    <cellStyle name="常规 17 2" xfId="391"/>
-    <cellStyle name="常规 55" xfId="392"/>
-    <cellStyle name="常规 60" xfId="393"/>
+    <cellStyle name="常规 55" xfId="391"/>
+    <cellStyle name="常规 60" xfId="392"/>
+    <cellStyle name="常规 17 2" xfId="393"/>
     <cellStyle name="常规 18" xfId="394"/>
     <cellStyle name="常规 23" xfId="395"/>
     <cellStyle name="常规 18 2" xfId="396"/>
-    <cellStyle name="常规 19" xfId="397"/>
-    <cellStyle name="常规 24" xfId="398"/>
-    <cellStyle name="常规 51 2 2" xfId="399"/>
+    <cellStyle name="常规 51 2 2" xfId="397"/>
+    <cellStyle name="常规 19" xfId="398"/>
+    <cellStyle name="常规 24" xfId="399"/>
     <cellStyle name="常规 2 11" xfId="400"/>
     <cellStyle name="常规 2 12" xfId="401"/>
     <cellStyle name="常规 2 13" xfId="402"/>
     <cellStyle name="常规 2 14" xfId="403"/>
-    <cellStyle name="常规 2 15" xfId="404"/>
-    <cellStyle name="常规 2 20" xfId="405"/>
-    <cellStyle name="常规 62 2 2" xfId="406"/>
-    <cellStyle name="常规 57 2 2" xfId="407"/>
+    <cellStyle name="常规 62 2 2" xfId="404"/>
+    <cellStyle name="常规 57 2 2" xfId="405"/>
+    <cellStyle name="常规 2 15" xfId="406"/>
+    <cellStyle name="常规 2 20" xfId="407"/>
     <cellStyle name="常规 2 16" xfId="408"/>
     <cellStyle name="常规 2 21" xfId="409"/>
     <cellStyle name="常规 2 16 2" xfId="410"/>
@@ -5087,12 +5084,12 @@
     <cellStyle name="常规 2 25" xfId="420"/>
     <cellStyle name="常规 2 3 3" xfId="421"/>
     <cellStyle name="常规 2 3 4" xfId="422"/>
-    <cellStyle name="常规 2 3 4 2" xfId="423"/>
-    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="424"/>
+    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="423"/>
+    <cellStyle name="常规 2 3 4 2" xfId="424"/>
     <cellStyle name="常规 2 4 2" xfId="425"/>
-    <cellStyle name="常规 2 4 2 2" xfId="426"/>
-    <cellStyle name="常规 56 3" xfId="427"/>
-    <cellStyle name="常规 61 3" xfId="428"/>
+    <cellStyle name="常规 56 3" xfId="426"/>
+    <cellStyle name="常规 61 3" xfId="427"/>
+    <cellStyle name="常规 2 4 2 2" xfId="428"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="429"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="430"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="431"/>
@@ -5104,22 +5101,22 @@
     <cellStyle name="常规 2 4 3" xfId="437"/>
     <cellStyle name="常规 2 4 4" xfId="438"/>
     <cellStyle name="常规 2 4 5" xfId="439"/>
-    <cellStyle name="常规 2 4 5 2" xfId="440"/>
+    <cellStyle name="常规 59 3" xfId="440"/>
     <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="441"/>
-    <cellStyle name="常规 59 3" xfId="442"/>
+    <cellStyle name="常规 2 4 5 2" xfId="442"/>
     <cellStyle name="常规 25" xfId="443"/>
     <cellStyle name="常规 30" xfId="444"/>
-    <cellStyle name="常规 3" xfId="445"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="446"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="445"/>
+    <cellStyle name="常规 3" xfId="446"/>
     <cellStyle name="常规 3 2 2" xfId="447"/>
     <cellStyle name="常规 3 4" xfId="448"/>
     <cellStyle name="常规 3 5" xfId="449"/>
-    <cellStyle name="常规 3 6" xfId="450"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="451"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="452"/>
-    <cellStyle name="常规 3 7" xfId="453"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="454"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="455"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="450"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="451"/>
+    <cellStyle name="常规 3 6" xfId="452"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="453"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="454"/>
+    <cellStyle name="常规 3 7" xfId="455"/>
     <cellStyle name="常规 3 8" xfId="456"/>
     <cellStyle name="常规 35 2" xfId="457"/>
     <cellStyle name="常规 4 2" xfId="458"/>
@@ -5161,10 +5158,10 @@
     <cellStyle name="常规 53" xfId="494"/>
     <cellStyle name="常规 48 2 2" xfId="495"/>
     <cellStyle name="常规 53 2 2" xfId="496"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="497"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="498"/>
-    <cellStyle name="常规 49" xfId="499"/>
-    <cellStyle name="常规 54" xfId="500"/>
+    <cellStyle name="常规 49" xfId="497"/>
+    <cellStyle name="常规 54" xfId="498"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="499"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="500"/>
     <cellStyle name="常规 49 2 2" xfId="501"/>
     <cellStyle name="常规 54 2 2" xfId="502"/>
     <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="503"/>
@@ -5175,220 +5172,220 @@
     <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="508"/>
     <cellStyle name="常规 5 3" xfId="509"/>
     <cellStyle name="常规 5 4" xfId="510"/>
-    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="511"/>
-    <cellStyle name="常规 51 3" xfId="512"/>
+    <cellStyle name="常规 51 3" xfId="511"/>
+    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="512"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="513"/>
-    <cellStyle name="常规 60 2" xfId="514"/>
-    <cellStyle name="常规 55 2" xfId="515"/>
-    <cellStyle name="常规 60 2 2" xfId="516"/>
-    <cellStyle name="常规 55 2 2" xfId="517"/>
-    <cellStyle name="常规 60 3" xfId="518"/>
-    <cellStyle name="常规 55 3" xfId="519"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="520"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="521"/>
-    <cellStyle name="常规 61" xfId="522"/>
-    <cellStyle name="常规 56" xfId="523"/>
-    <cellStyle name="常规 61 2" xfId="524"/>
-    <cellStyle name="常规 56 2" xfId="525"/>
-    <cellStyle name="常规 61 2 2" xfId="526"/>
-    <cellStyle name="常规 56 2 2" xfId="527"/>
-    <cellStyle name="常规 57" xfId="528"/>
-    <cellStyle name="常规 62" xfId="529"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="531"/>
-    <cellStyle name="常规 58 2 2" xfId="532"/>
-    <cellStyle name="常规 63 2 2" xfId="533"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="534"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="535"/>
-    <cellStyle name="常规 58 3" xfId="536"/>
-    <cellStyle name="常规 63 3" xfId="537"/>
+    <cellStyle name="常规 55 2" xfId="514"/>
+    <cellStyle name="常规 60 2" xfId="515"/>
+    <cellStyle name="常规 55 2 2" xfId="516"/>
+    <cellStyle name="常规 60 2 2" xfId="517"/>
+    <cellStyle name="常规 55 3" xfId="518"/>
+    <cellStyle name="常规 60 3" xfId="519"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="520"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="521"/>
+    <cellStyle name="常规 56" xfId="522"/>
+    <cellStyle name="常规 61" xfId="523"/>
+    <cellStyle name="常规 56 2" xfId="524"/>
+    <cellStyle name="常规 61 2" xfId="525"/>
+    <cellStyle name="常规 56 2 2" xfId="526"/>
+    <cellStyle name="常规 61 2 2" xfId="527"/>
+    <cellStyle name="常规 62" xfId="528"/>
+    <cellStyle name="常规 57" xfId="529"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="531"/>
+    <cellStyle name="常规 63 2 2" xfId="532"/>
+    <cellStyle name="常规 58 2 2" xfId="533"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="534"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="535"/>
+    <cellStyle name="常规 63 3" xfId="536"/>
+    <cellStyle name="常规 58 3" xfId="537"/>
     <cellStyle name="常规 6 2" xfId="538"/>
-    <cellStyle name="常规 6 3" xfId="539"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="539"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="540"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="541"/>
+    <cellStyle name="常规 6 3" xfId="541"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="542"/>
-    <cellStyle name="常规 65" xfId="543"/>
-    <cellStyle name="常规 70" xfId="544"/>
-    <cellStyle name="常规 65 2" xfId="545"/>
-    <cellStyle name="常规 70 2" xfId="546"/>
-    <cellStyle name="常规 65 2 2" xfId="547"/>
+    <cellStyle name="常规 70" xfId="543"/>
+    <cellStyle name="常规 65" xfId="544"/>
+    <cellStyle name="常规 70 2" xfId="545"/>
+    <cellStyle name="常规 65 2" xfId="546"/>
+    <cellStyle name="常规 97 3" xfId="547"/>
     <cellStyle name="常规 70 2 2" xfId="548"/>
-    <cellStyle name="常规 97 3" xfId="549"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="550"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="551"/>
-    <cellStyle name="常规 65 3" xfId="552"/>
-    <cellStyle name="常规 70 3" xfId="553"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 66" xfId="556"/>
-    <cellStyle name="常规 71" xfId="557"/>
-    <cellStyle name="常规 66 2" xfId="558"/>
-    <cellStyle name="常规 71 2" xfId="559"/>
-    <cellStyle name="常规 66 2 2" xfId="560"/>
-    <cellStyle name="常规 71 2 2" xfId="561"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="563"/>
-    <cellStyle name="常规 66 3" xfId="564"/>
+    <cellStyle name="常规 65 2 2" xfId="549"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="550"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="551"/>
+    <cellStyle name="常规 70 3" xfId="552"/>
+    <cellStyle name="常规 65 3" xfId="553"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 71" xfId="556"/>
+    <cellStyle name="常规 66" xfId="557"/>
+    <cellStyle name="常规 71 2" xfId="558"/>
+    <cellStyle name="常规 66 2" xfId="559"/>
+    <cellStyle name="常规 71 2 2" xfId="560"/>
+    <cellStyle name="常规 66 2 2" xfId="561"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="样式 1" xfId="564"/>
     <cellStyle name="常规 71 3" xfId="565"/>
-    <cellStyle name="样式 1" xfId="566"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="567"/>
-    <cellStyle name="常规 67" xfId="568"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="569"/>
-    <cellStyle name="常规 72" xfId="570"/>
-    <cellStyle name="常规 67 2" xfId="571"/>
-    <cellStyle name="常规 72 2" xfId="572"/>
-    <cellStyle name="常规 67 2 2" xfId="573"/>
-    <cellStyle name="常规 72 2 2" xfId="574"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 67 3" xfId="577"/>
-    <cellStyle name="常规 72 3" xfId="578"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="579"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="580"/>
-    <cellStyle name="常规 68" xfId="581"/>
-    <cellStyle name="常规 73" xfId="582"/>
-    <cellStyle name="常规 68 2" xfId="583"/>
-    <cellStyle name="常规 73 2" xfId="584"/>
-    <cellStyle name="常规 68 2 2" xfId="585"/>
-    <cellStyle name="常规 73 2 2" xfId="586"/>
-    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="587"/>
-    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="588"/>
-    <cellStyle name="常规 68 3" xfId="589"/>
-    <cellStyle name="常规 73 3" xfId="590"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 69" xfId="593"/>
-    <cellStyle name="常规 74" xfId="594"/>
-    <cellStyle name="常规 69 2" xfId="595"/>
-    <cellStyle name="常规 74 2" xfId="596"/>
-    <cellStyle name="常规 69 2 2" xfId="597"/>
-    <cellStyle name="常规 74 2 2" xfId="598"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="599"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="600"/>
-    <cellStyle name="常规 69 3" xfId="601"/>
-    <cellStyle name="常规 74 3" xfId="602"/>
-    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="603"/>
-    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="604"/>
+    <cellStyle name="常规 66 3" xfId="566"/>
+    <cellStyle name="常规 72" xfId="567"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="568"/>
+    <cellStyle name="常规 67" xfId="569"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="570"/>
+    <cellStyle name="常规 72 2" xfId="571"/>
+    <cellStyle name="常规 67 2" xfId="572"/>
+    <cellStyle name="常规 72 2 2" xfId="573"/>
+    <cellStyle name="常规 67 2 2" xfId="574"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 72 3" xfId="577"/>
+    <cellStyle name="常规 67 3" xfId="578"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="579"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="580"/>
+    <cellStyle name="常规 73" xfId="581"/>
+    <cellStyle name="常规 68" xfId="582"/>
+    <cellStyle name="常规 73 2" xfId="583"/>
+    <cellStyle name="常规 68 2" xfId="584"/>
+    <cellStyle name="常规 73 2 2" xfId="585"/>
+    <cellStyle name="常规 68 2 2" xfId="586"/>
+    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="587"/>
+    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="588"/>
+    <cellStyle name="常规 73 3" xfId="589"/>
+    <cellStyle name="常规 68 3" xfId="590"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 74" xfId="593"/>
+    <cellStyle name="常规 69" xfId="594"/>
+    <cellStyle name="常规 74 2" xfId="595"/>
+    <cellStyle name="常规 69 2" xfId="596"/>
+    <cellStyle name="常规 74 2 2" xfId="597"/>
+    <cellStyle name="常规 69 2 2" xfId="598"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="599"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="600"/>
+    <cellStyle name="常规 74 3" xfId="601"/>
+    <cellStyle name="常规 69 3" xfId="602"/>
+    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="603"/>
+    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="604"/>
     <cellStyle name="常规 7" xfId="605"/>
     <cellStyle name="常规 7 2" xfId="606"/>
     <cellStyle name="常规 7 3" xfId="607"/>
     <cellStyle name="常规 7_ITDM3.2期数据库设计汇总" xfId="608"/>
-    <cellStyle name="常规 75" xfId="609"/>
-    <cellStyle name="常规 80" xfId="610"/>
-    <cellStyle name="常规 75 2" xfId="611"/>
-    <cellStyle name="常规 80 2" xfId="612"/>
-    <cellStyle name="常规 75 2 2" xfId="613"/>
-    <cellStyle name="常规 80 2 2" xfId="614"/>
-    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="615"/>
-    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="616"/>
-    <cellStyle name="常规 75 3" xfId="617"/>
-    <cellStyle name="常规 80 3" xfId="618"/>
-    <cellStyle name="常规 76" xfId="619"/>
-    <cellStyle name="常规 81" xfId="620"/>
-    <cellStyle name="常规 76 2" xfId="621"/>
-    <cellStyle name="常规 81 2" xfId="622"/>
-    <cellStyle name="常规 76 2 2" xfId="623"/>
-    <cellStyle name="常规 81 2 2" xfId="624"/>
-    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="625"/>
-    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="626"/>
-    <cellStyle name="常规 76 3" xfId="627"/>
-    <cellStyle name="常规 81 3" xfId="628"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="630"/>
-    <cellStyle name="常规 77" xfId="631"/>
-    <cellStyle name="常规 82" xfId="632"/>
-    <cellStyle name="常规 77 2" xfId="633"/>
-    <cellStyle name="常规 82 2" xfId="634"/>
-    <cellStyle name="常规 77 2 2" xfId="635"/>
-    <cellStyle name="常规 82 2 2" xfId="636"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="637"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="638"/>
-    <cellStyle name="常规 77 3" xfId="639"/>
-    <cellStyle name="常规 82 3" xfId="640"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="641"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="642"/>
-    <cellStyle name="常规 78 2" xfId="643"/>
-    <cellStyle name="常规 83 2" xfId="644"/>
-    <cellStyle name="常规 78 2 2" xfId="645"/>
-    <cellStyle name="常规 83 2 2" xfId="646"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="647"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="648"/>
-    <cellStyle name="常规 78 3" xfId="649"/>
-    <cellStyle name="常规 83 3" xfId="650"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="651"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="652"/>
-    <cellStyle name="常规 79" xfId="653"/>
-    <cellStyle name="常规 84" xfId="654"/>
-    <cellStyle name="常规 79 2" xfId="655"/>
-    <cellStyle name="常规 84 2" xfId="656"/>
-    <cellStyle name="常规 79 2 2" xfId="657"/>
-    <cellStyle name="常规 84 2 2" xfId="658"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="659"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="660"/>
-    <cellStyle name="常规 79 3" xfId="661"/>
-    <cellStyle name="常规 84 3" xfId="662"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 80" xfId="609"/>
+    <cellStyle name="常规 75" xfId="610"/>
+    <cellStyle name="常规 80 2" xfId="611"/>
+    <cellStyle name="常规 75 2" xfId="612"/>
+    <cellStyle name="常规 80 2 2" xfId="613"/>
+    <cellStyle name="常规 75 2 2" xfId="614"/>
+    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="615"/>
+    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="616"/>
+    <cellStyle name="常规 80 3" xfId="617"/>
+    <cellStyle name="常规 75 3" xfId="618"/>
+    <cellStyle name="常规 81" xfId="619"/>
+    <cellStyle name="常规 76" xfId="620"/>
+    <cellStyle name="常规 81 2" xfId="621"/>
+    <cellStyle name="常规 76 2" xfId="622"/>
+    <cellStyle name="常规 81 2 2" xfId="623"/>
+    <cellStyle name="常规 76 2 2" xfId="624"/>
+    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="625"/>
+    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="626"/>
+    <cellStyle name="常规 81 3" xfId="627"/>
+    <cellStyle name="常规 76 3" xfId="628"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="630"/>
+    <cellStyle name="常规 82" xfId="631"/>
+    <cellStyle name="常规 77" xfId="632"/>
+    <cellStyle name="常规 82 2" xfId="633"/>
+    <cellStyle name="常规 77 2" xfId="634"/>
+    <cellStyle name="常规 82 2 2" xfId="635"/>
+    <cellStyle name="常规 77 2 2" xfId="636"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="637"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="638"/>
+    <cellStyle name="常规 82 3" xfId="639"/>
+    <cellStyle name="常规 77 3" xfId="640"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="641"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="642"/>
+    <cellStyle name="常规 83 2" xfId="643"/>
+    <cellStyle name="常规 78 2" xfId="644"/>
+    <cellStyle name="常规 83 2 2" xfId="645"/>
+    <cellStyle name="常规 78 2 2" xfId="646"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="647"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="648"/>
+    <cellStyle name="常规 83 3" xfId="649"/>
+    <cellStyle name="常规 78 3" xfId="650"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="651"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="652"/>
+    <cellStyle name="常规 84" xfId="653"/>
+    <cellStyle name="常规 79" xfId="654"/>
+    <cellStyle name="常规 84 2" xfId="655"/>
+    <cellStyle name="常规 79 2" xfId="656"/>
+    <cellStyle name="常规 84 2 2" xfId="657"/>
+    <cellStyle name="常规 79 2 2" xfId="658"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="659"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="660"/>
+    <cellStyle name="常规 84 3" xfId="661"/>
+    <cellStyle name="常规 79 3" xfId="662"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="664"/>
     <cellStyle name="常规 8" xfId="665"/>
     <cellStyle name="常规 8 2" xfId="666"/>
-    <cellStyle name="常规 85 2" xfId="667"/>
-    <cellStyle name="常规 90 2" xfId="668"/>
-    <cellStyle name="常规 85 2 2" xfId="669"/>
-    <cellStyle name="常规 90 2 2" xfId="670"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 85 3" xfId="673"/>
-    <cellStyle name="常规 90 3" xfId="674"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="675"/>
+    <cellStyle name="常规 90 2" xfId="667"/>
+    <cellStyle name="常规 85 2" xfId="668"/>
+    <cellStyle name="常规 90 2 2" xfId="669"/>
+    <cellStyle name="常规 85 2 2" xfId="670"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 90 3" xfId="673"/>
+    <cellStyle name="常规 85 3" xfId="674"/>
+    <cellStyle name="常规 96 3" xfId="675"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="676"/>
-    <cellStyle name="常规 96 3" xfId="677"/>
-    <cellStyle name="常规 86" xfId="678"/>
-    <cellStyle name="常规 91" xfId="679"/>
-    <cellStyle name="常规 86 2" xfId="680"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="681"/>
-    <cellStyle name="常规 91 2" xfId="682"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="683"/>
-    <cellStyle name="常规 86 2 2" xfId="684"/>
-    <cellStyle name="常规 91 2 2" xfId="685"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="686"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="687"/>
-    <cellStyle name="常规 86 3" xfId="688"/>
-    <cellStyle name="常规 91 3" xfId="689"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="690"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="691"/>
-    <cellStyle name="常规 87" xfId="692"/>
-    <cellStyle name="常规 92" xfId="693"/>
-    <cellStyle name="常规 87 2" xfId="694"/>
-    <cellStyle name="常规 92 2" xfId="695"/>
-    <cellStyle name="常规 87 2 2" xfId="696"/>
-    <cellStyle name="常规 92 2 2" xfId="697"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="698"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="699"/>
-    <cellStyle name="常规 87 3" xfId="700"/>
-    <cellStyle name="常规 92 3" xfId="701"/>
-    <cellStyle name="常规 88" xfId="702"/>
-    <cellStyle name="常规 93" xfId="703"/>
-    <cellStyle name="常规 88 2" xfId="704"/>
-    <cellStyle name="常规 93 2" xfId="705"/>
-    <cellStyle name="常规 88 2 2" xfId="706"/>
-    <cellStyle name="常规 93 2 2" xfId="707"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="708"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="709"/>
-    <cellStyle name="常规 88 3" xfId="710"/>
-    <cellStyle name="常规 93 3" xfId="711"/>
-    <cellStyle name="常规 89" xfId="712"/>
-    <cellStyle name="常规 94" xfId="713"/>
-    <cellStyle name="常规 89 2" xfId="714"/>
-    <cellStyle name="常规 94 2" xfId="715"/>
-    <cellStyle name="常规 89 2 2" xfId="716"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="677"/>
+    <cellStyle name="常规 91" xfId="678"/>
+    <cellStyle name="常规 86" xfId="679"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="680"/>
+    <cellStyle name="常规 91 2" xfId="681"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="682"/>
+    <cellStyle name="常规 86 2" xfId="683"/>
+    <cellStyle name="常规 91 2 2" xfId="684"/>
+    <cellStyle name="常规 86 2 2" xfId="685"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="686"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="687"/>
+    <cellStyle name="常规 91 3" xfId="688"/>
+    <cellStyle name="常规 86 3" xfId="689"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="690"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="691"/>
+    <cellStyle name="常规 92" xfId="692"/>
+    <cellStyle name="常规 87" xfId="693"/>
+    <cellStyle name="常规 92 2" xfId="694"/>
+    <cellStyle name="常规 87 2" xfId="695"/>
+    <cellStyle name="常规 92 2 2" xfId="696"/>
+    <cellStyle name="常规 87 2 2" xfId="697"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="698"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="699"/>
+    <cellStyle name="常规 92 3" xfId="700"/>
+    <cellStyle name="常规 87 3" xfId="701"/>
+    <cellStyle name="常规 93" xfId="702"/>
+    <cellStyle name="常规 88" xfId="703"/>
+    <cellStyle name="常规 93 2" xfId="704"/>
+    <cellStyle name="常规 88 2" xfId="705"/>
+    <cellStyle name="常规 93 2 2" xfId="706"/>
+    <cellStyle name="常规 88 2 2" xfId="707"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="708"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="709"/>
+    <cellStyle name="常规 93 3" xfId="710"/>
+    <cellStyle name="常规 88 3" xfId="711"/>
+    <cellStyle name="常规 94" xfId="712"/>
+    <cellStyle name="常规 89" xfId="713"/>
+    <cellStyle name="常规 94 2" xfId="714"/>
+    <cellStyle name="常规 89 2" xfId="715"/>
+    <cellStyle name="常规 98" xfId="716"/>
     <cellStyle name="常规 94 2 2" xfId="717"/>
-    <cellStyle name="常规 98" xfId="718"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="719"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="720"/>
-    <cellStyle name="常规 89 3" xfId="721"/>
-    <cellStyle name="常规 94 3" xfId="722"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="724"/>
+    <cellStyle name="常规 89 2 2" xfId="718"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="719"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="720"/>
+    <cellStyle name="常规 94 3" xfId="721"/>
+    <cellStyle name="常规 89 3" xfId="722"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="724"/>
     <cellStyle name="常规 9" xfId="725"/>
     <cellStyle name="常规 9 2" xfId="726"/>
     <cellStyle name="常规 95" xfId="727"/>
@@ -5419,12 +5416,12 @@
     <cellStyle name="超链接 12" xfId="752"/>
     <cellStyle name="超链接 13" xfId="753"/>
     <cellStyle name="超链接 14" xfId="754"/>
-    <cellStyle name="超链接 15" xfId="755"/>
-    <cellStyle name="超链接 20" xfId="756"/>
-    <cellStyle name="超链接 16" xfId="757"/>
-    <cellStyle name="超链接 21" xfId="758"/>
-    <cellStyle name="超链接 17" xfId="759"/>
-    <cellStyle name="超链接 22" xfId="760"/>
+    <cellStyle name="超链接 20" xfId="755"/>
+    <cellStyle name="超链接 15" xfId="756"/>
+    <cellStyle name="超链接 21" xfId="757"/>
+    <cellStyle name="超链接 16" xfId="758"/>
+    <cellStyle name="超链接 22" xfId="759"/>
+    <cellStyle name="超链接 17" xfId="760"/>
     <cellStyle name="超链接 18" xfId="761"/>
     <cellStyle name="超链接 19" xfId="762"/>
     <cellStyle name="超链接 2" xfId="763"/>
@@ -7009,7 +7006,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7085,13 +7082,13 @@
         <v>203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>195</v>
@@ -7103,13 +7100,13 @@
         <v>203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>195</v>
@@ -7121,7 +7118,7 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -7132,7 +7129,9 @@
       <c r="B7" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>203</v>
       </c>
@@ -7148,7 +7147,9 @@
       <c r="B8" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>203</v>
       </c>
@@ -7159,7 +7160,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>195</v>
@@ -7171,13 +7172,13 @@
         <v>203</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>199</v>
@@ -7189,29 +7190,29 @@
         <v>203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>199</v>
@@ -7242,7 +7243,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -7306,7 +7307,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>195</v>
@@ -7318,13 +7319,13 @@
         <v>196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>195</v>
@@ -7336,13 +7337,13 @@
         <v>203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>195</v>
@@ -7354,7 +7355,7 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -7365,7 +7366,9 @@
       <c r="B7" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>203</v>
       </c>
@@ -7376,7 +7379,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>199</v>
@@ -7388,7 +7391,7 @@
         <v>203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -7407,7 +7410,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7471,7 +7474,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>195</v>
@@ -7483,13 +7486,13 @@
         <v>196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>199</v>
@@ -7501,13 +7504,13 @@
         <v>203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>199</v>
@@ -7519,7 +7522,7 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -7528,7 +7531,7 @@
         <v>223</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -7537,13 +7540,13 @@
         <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>195</v>
@@ -7555,7 +7558,7 @@
         <v>203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -7566,7 +7569,9 @@
       <c r="B9" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>203</v>
       </c>
@@ -7577,55 +7582,55 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>199</v>
@@ -7637,13 +7642,13 @@
         <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>199</v>
@@ -7655,7 +7660,7 @@
         <v>203</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -7673,7 +7678,7 @@
         <v>196</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -7682,52 +7687,52 @@
         <v>225</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" ht="27" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>195</v>
@@ -7739,29 +7744,29 @@
         <v>203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>195</v>
@@ -7773,7 +7778,7 @@
         <v>203</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -7856,7 +7861,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>199</v>
@@ -7868,7 +7873,7 @@
         <v>196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -7904,7 +7909,7 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -7987,7 +7992,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>199</v>
@@ -7999,13 +8004,13 @@
         <v>196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>195</v>
@@ -8017,7 +8022,7 @@
         <v>196</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -8026,7 +8031,7 @@
         <v>220</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" s="5">
         <v>6</v>
@@ -8044,23 +8049,23 @@
         <v>225</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" s="5">
         <v>6</v>
@@ -8069,7 +8074,7 @@
         <v>203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -8088,7 +8093,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8152,7 +8157,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>199</v>
@@ -8164,13 +8169,13 @@
         <v>203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>199</v>
@@ -8182,7 +8187,7 @@
         <v>203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -8193,7 +8198,9 @@
       <c r="B6" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>203</v>
       </c>
@@ -8209,7 +8216,9 @@
       <c r="B7" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>203</v>
       </c>
@@ -8223,7 +8232,7 @@
         <v>230</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="5">
         <v>10</v>
@@ -8238,7 +8247,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>199</v>
@@ -8250,10 +8259,10 @@
         <v>203</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8289,7 +8298,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8365,13 +8374,13 @@
         <v>203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>199</v>
@@ -8383,13 +8392,13 @@
         <v>203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>195</v>
@@ -8401,13 +8410,13 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>199</v>
@@ -8419,13 +8428,13 @@
         <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>199</v>
@@ -8437,13 +8446,13 @@
         <v>203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>199</v>
@@ -8455,45 +8464,45 @@
         <v>203</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>195</v>
@@ -8505,13 +8514,13 @@
         <v>203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>195</v>
@@ -8523,13 +8532,13 @@
         <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>195</v>
@@ -8541,7 +8550,7 @@
         <v>203</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -8552,7 +8561,9 @@
       <c r="B15" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>203</v>
       </c>
@@ -8563,7 +8574,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>195</v>
@@ -8575,7 +8586,7 @@
         <v>203</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -8586,7 +8597,9 @@
       <c r="B17" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>203</v>
       </c>
@@ -8597,7 +8610,7 @@
     </row>
     <row r="18" ht="27" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>199</v>
@@ -8609,13 +8622,13 @@
         <v>203</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>199</v>
@@ -8633,7 +8646,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>199</v>
@@ -8645,13 +8658,13 @@
         <v>203</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>199</v>
@@ -8663,13 +8676,13 @@
         <v>203</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>199</v>
@@ -8681,7 +8694,7 @@
         <v>203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -8692,7 +8705,9 @@
       <c r="B23" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>203</v>
       </c>
@@ -8708,7 +8723,9 @@
       <c r="B24" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>203</v>
       </c>
@@ -8724,7 +8741,9 @@
       <c r="B25" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>203</v>
       </c>
@@ -8740,7 +8759,9 @@
       <c r="B26" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>203</v>
       </c>
@@ -8751,7 +8772,7 @@
     </row>
     <row r="27" ht="40.5" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>199</v>
@@ -8763,13 +8784,13 @@
         <v>203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" ht="40.5" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>199</v>
@@ -8781,16 +8802,16 @@
         <v>203</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C29" s="5">
         <v>10</v>
@@ -8799,13 +8820,13 @@
         <v>203</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" ht="27" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>250</v>
@@ -8817,7 +8838,7 @@
         <v>203</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -8836,7 +8857,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8900,7 +8921,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>195</v>
@@ -8912,13 +8933,13 @@
         <v>196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>195</v>
@@ -8930,13 +8951,13 @@
         <v>196</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>199</v>
@@ -8948,7 +8969,7 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -8959,7 +8980,9 @@
       <c r="B7" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>203</v>
       </c>
@@ -8975,7 +8998,9 @@
       <c r="B8" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>203</v>
       </c>
@@ -8991,7 +9016,9 @@
       <c r="B9" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>203</v>
       </c>
@@ -9007,7 +9034,9 @@
       <c r="B10" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>203</v>
       </c>
@@ -9023,7 +9052,9 @@
       <c r="B11" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>203</v>
       </c>
@@ -9034,7 +9065,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>199</v>
@@ -9052,7 +9083,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>199</v>
@@ -9064,7 +9095,7 @@
         <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -9075,7 +9106,9 @@
       <c r="B14" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>203</v>
       </c>
@@ -9086,7 +9119,7 @@
     </row>
     <row r="15" ht="27" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>195</v>
@@ -9098,13 +9131,13 @@
         <v>203</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>195</v>
@@ -9116,7 +9149,7 @@
         <v>203</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -9127,7 +9160,9 @@
       <c r="B17" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>203</v>
       </c>
@@ -9143,7 +9178,9 @@
       <c r="B18" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>203</v>
       </c>
@@ -9159,7 +9196,9 @@
       <c r="B19" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>203</v>
       </c>
@@ -9170,7 +9209,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>199</v>
@@ -9182,13 +9221,13 @@
         <v>203</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>199</v>
@@ -9200,13 +9239,13 @@
         <v>203</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>199</v>
@@ -9218,13 +9257,13 @@
         <v>203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -9236,13 +9275,13 @@
         <v>203</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>199</v>
@@ -9254,13 +9293,13 @@
         <v>203</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>199</v>
@@ -9272,7 +9311,7 @@
         <v>203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -9391,7 +9430,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>199</v>
@@ -9422,7 +9461,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9486,7 +9525,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>195</v>
@@ -9498,7 +9537,7 @@
         <v>203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -9522,7 +9561,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>199</v>
@@ -9534,7 +9573,7 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -9545,7 +9584,9 @@
       <c r="B7" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>203</v>
       </c>
@@ -9561,7 +9602,9 @@
       <c r="B8" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>203</v>
       </c>
@@ -9572,7 +9615,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>199</v>
@@ -9584,13 +9627,13 @@
         <v>203</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>199</v>
@@ -9602,13 +9645,13 @@
         <v>203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>199</v>
@@ -9620,13 +9663,13 @@
         <v>203</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>199</v>
@@ -9638,13 +9681,13 @@
         <v>203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>199</v>
@@ -9667,7 +9710,9 @@
       <c r="B14" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>203</v>
       </c>
@@ -9683,7 +9728,9 @@
       <c r="B15" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>203</v>
       </c>
@@ -9699,7 +9746,9 @@
       <c r="B16" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>203</v>
       </c>
@@ -9715,7 +9764,9 @@
       <c r="B17" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>203</v>
       </c>
@@ -9726,7 +9777,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>195</v>
@@ -9738,13 +9789,13 @@
         <v>203</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>199</v>
@@ -9756,13 +9807,13 @@
         <v>203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>199</v>
@@ -9774,13 +9825,13 @@
         <v>203</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>199</v>
@@ -9792,13 +9843,13 @@
         <v>203</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>250</v>
@@ -9810,13 +9861,13 @@
         <v>203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -9828,13 +9879,13 @@
         <v>203</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>199</v>
@@ -9846,13 +9897,13 @@
         <v>203</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>199</v>
@@ -9864,7 +9915,7 @@
         <v>203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -11356,10 +11407,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -11368,13 +11419,13 @@
         <v>203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>195</v>
@@ -11386,7 +11437,7 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -11469,7 +11520,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>199</v>
@@ -11481,7 +11532,7 @@
         <v>203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -11499,13 +11550,13 @@
         <v>203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>199</v>
@@ -11517,13 +11568,13 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>199</v>
@@ -11535,7 +11586,7 @@
         <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -11618,7 +11669,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>199</v>
@@ -11630,7 +11681,7 @@
         <v>203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -11672,7 +11723,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>199</v>
@@ -11684,13 +11735,13 @@
         <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>199</v>
@@ -11702,13 +11753,13 @@
         <v>203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>199</v>
@@ -11720,13 +11771,13 @@
         <v>203</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>199</v>
@@ -11738,13 +11789,13 @@
         <v>203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>250</v>
@@ -11756,13 +11807,13 @@
         <v>203</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>250</v>
@@ -11774,13 +11825,13 @@
         <v>203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>250</v>
@@ -11792,13 +11843,13 @@
         <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>199</v>
@@ -11816,7 +11867,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>199</v>
@@ -11828,13 +11879,13 @@
         <v>203</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>199</v>
@@ -11852,7 +11903,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>250</v>
@@ -11864,7 +11915,7 @@
         <v>203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -11947,7 +11998,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>199</v>
@@ -11959,7 +12010,7 @@
         <v>203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -11983,7 +12034,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>199</v>
@@ -11995,13 +12046,13 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>199</v>
@@ -12013,13 +12064,13 @@
         <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>250</v>
@@ -12031,13 +12082,13 @@
         <v>203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>199</v>
@@ -12049,13 +12100,13 @@
         <v>203</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>250</v>
@@ -12091,7 +12142,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>199</v>
@@ -12103,7 +12154,7 @@
         <v>203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -12186,7 +12237,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>199</v>
@@ -12198,7 +12249,7 @@
         <v>196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -12299,7 +12350,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>199</v>
@@ -12430,7 +12481,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>195</v>
@@ -12442,13 +12493,13 @@
         <v>203</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>199</v>
@@ -12460,13 +12511,13 @@
         <v>203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>199</v>
@@ -12478,23 +12529,23 @@
         <v>203</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -12512,13 +12563,13 @@
         <v>203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>199</v>
@@ -12530,7 +12581,7 @@
         <v>203</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -12548,7 +12599,7 @@
         <v>203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -12631,7 +12682,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>199</v>
@@ -12647,7 +12698,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>199</v>
@@ -12663,10 +12714,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -12677,10 +12728,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
@@ -12693,7 +12744,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>199</v>
@@ -12709,7 +12760,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>199</v>
@@ -12741,7 +12792,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>199</v>
@@ -12757,7 +12808,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>199</v>
@@ -12773,7 +12824,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>199</v>
@@ -12855,7 +12906,7 @@
         <v>194</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
@@ -12870,7 +12921,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>250</v>
@@ -12886,10 +12937,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -12900,7 +12951,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>199</v>
@@ -12930,10 +12981,10 @@
   </sheetPr>
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L70" sqref="L70"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15055,7 +15106,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -15268,7 +15319,9 @@
       <c r="B12" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>203</v>
       </c>
@@ -15286,7 +15339,9 @@
       <c r="B13" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>203</v>
       </c>
@@ -15302,7 +15357,9 @@
       <c r="B14" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>203</v>
       </c>
@@ -15318,7 +15375,9 @@
       <c r="B15" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>203</v>
       </c>
@@ -15334,7 +15393,9 @@
       <c r="B16" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>203</v>
       </c>
@@ -15345,7 +15406,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>199</v>
@@ -15357,13 +15418,13 @@
         <v>203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>199</v>
@@ -15381,7 +15442,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>199</v>
@@ -15393,13 +15454,13 @@
         <v>203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>199</v>
@@ -15411,13 +15472,13 @@
         <v>203</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>199</v>
@@ -15429,13 +15490,13 @@
         <v>203</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>199</v>
@@ -15447,7 +15508,7 @@
         <v>203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -15458,7 +15519,9 @@
       <c r="B23" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>203</v>
       </c>
@@ -15482,7 +15545,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -15564,7 +15627,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>199</v>
@@ -15576,7 +15639,7 @@
         <v>203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -15585,10 +15648,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>203</v>
@@ -15603,10 +15666,10 @@
         <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>203</v>
@@ -15618,7 +15681,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>199</v>
@@ -15636,7 +15699,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>250</v>
@@ -15648,7 +15711,7 @@
         <v>203</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9" s="5"/>
     </row>

--- a/sql/华夏ERP数据库设计汇总.xlsx
+++ b/sql/华夏ERP数据库设计汇总.xlsx
@@ -749,25 +749,25 @@
   </si>
   <si>
     <t>DELIMITER //
-create function _nextval(name varchar(50)) 
-returns long   
-begin  
+create function _nextval(name varchar(50))
+returns long
+begin
 declare _cur bigint;
 declare _maxvalue bigint;  -- 接收最大值
 declare _increment int; -- 接收增长步数
 set _increment = (select increment_val from tbl_sequence where seq_name = name);
 set _maxvalue = (select maxvalue from tbl_sequence where seq_name = name);
-set _cur = (select current_val from tbl_sequence where seq_name = name);  
+set _cur = (select current_val from tbl_sequence where seq_name = name for update);
 update tbl_sequence                      -- 更新当前值
- set current_val = _cur + increment_val  
- where seq_name = name ;  
+ set current_val = _cur + increment_val
+ where seq_name = name ;
 if(_cur + _increment &gt;= _maxvalue) then  -- 判断是都达到最大值
-      update tbl_sequence  
-        set current_val = minvalue  
+      update tbl_sequence
+        set current_val = minvalue
         where seq_name = name ;
 end if;
-return _cur;  
-end;  
+return _cur;
+end;
 //
 DELIMITER ;</t>
   </si>
@@ -1686,11 +1686,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -1816,9 +1816,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1829,32 +1840,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1872,6 +1907,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1880,40 +1928,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1930,10 +1987,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1944,93 +2000,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2042,13 +2027,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2059,34 +2052,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2103,9 +2071,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2116,11 +2116,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2130,11 +2130,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="50">
@@ -2164,7 +2164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,7 +2176,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2188,61 +2272,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2254,31 +2308,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor indexed="54"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2290,25 +2332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2320,7 +2344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2338,31 +2368,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2374,43 +2416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2422,13 +2428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2458,16 +2458,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2498,11 +2498,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2531,15 +2564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2555,50 +2579,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2623,6 +2608,30 @@
       </top>
       <bottom style="double">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2652,840 +2661,831 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="45" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3506,33 +3506,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3561,192 +3561,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3764,37 +3764,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3822,912 +3822,912 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4816,45 +4816,45 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4863,46 +4863,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="284" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 33" xfId="1"/>
-    <cellStyle name="?? 28" xfId="2"/>
+    <cellStyle name="?? 28" xfId="1"/>
+    <cellStyle name="?? 33" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
     <cellStyle name="?? 185 2 2" xfId="4"/>
-    <cellStyle name="常规 44" xfId="5"/>
-    <cellStyle name="常规 39" xfId="6"/>
+    <cellStyle name="常规 39" xfId="5"/>
+    <cellStyle name="常规 44" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 20" xfId="10"/>
-    <cellStyle name="?? 15" xfId="11"/>
+    <cellStyle name="?? 15" xfId="10"/>
+    <cellStyle name="?? 20" xfId="11"/>
     <cellStyle name="千位分隔[0]" xfId="12" builtinId="6"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="13"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="13"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
     <cellStyle name="常规 2 26" xfId="15"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="16" builtinId="39"/>
     <cellStyle name="差" xfId="17" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="18" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="19" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="20"/>
-    <cellStyle name="?? 11" xfId="21"/>
+    <cellStyle name="?? 11" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
     <cellStyle name="超链接" xfId="22" builtinId="8"/>
     <cellStyle name="百分比" xfId="23" builtinId="5"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
@@ -4931,19 +4931,19 @@
     <cellStyle name="输出" xfId="47" builtinId="21"/>
     <cellStyle name="常规 90" xfId="48"/>
     <cellStyle name="常规 85" xfId="49"/>
-    <cellStyle name="计算" xfId="50" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="51"/>
+    <cellStyle name="常规 26" xfId="50"/>
+    <cellStyle name="常规 31" xfId="51"/>
     <cellStyle name="Input" xfId="52"/>
-    <cellStyle name="常规 26" xfId="53"/>
-    <cellStyle name="常规 31" xfId="54"/>
+    <cellStyle name="计算" xfId="53" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="54"/>
     <cellStyle name="检查单元格" xfId="55" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="56" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="57" builtinId="33"/>
     <cellStyle name="链接单元格" xfId="58" builtinId="24"/>
     <cellStyle name="汇总" xfId="59" builtinId="25"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="20% - Accent3 2" xfId="61"/>
-    <cellStyle name="Heading 3" xfId="62"/>
+    <cellStyle name="Heading 3" xfId="61"/>
+    <cellStyle name="20% - Accent3 2" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="65" builtinId="29"/>
@@ -4955,8 +4955,8 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="74"/>
-    <cellStyle name="常规 2 26 2" xfId="75"/>
+    <cellStyle name="常规 2 26 2" xfId="74"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="75"/>
     <cellStyle name="强调文字颜色 3" xfId="76" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="77" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="78" builtinId="42"/>
@@ -4976,25 +4976,25 @@
     <cellStyle name="?? 17" xfId="92"/>
     <cellStyle name="?? 22" xfId="93"/>
     <cellStyle name="?? 13" xfId="94"/>
-    <cellStyle name="?? 14" xfId="95"/>
-    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="96"/>
-    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="97"/>
+    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="95"/>
+    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="96"/>
+    <cellStyle name="?? 14" xfId="97"/>
     <cellStyle name="??" xfId="98"/>
-    <cellStyle name="?? 10 2" xfId="99"/>
-    <cellStyle name="40% - Accent5" xfId="100"/>
-    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="101"/>
-    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="102"/>
-    <cellStyle name="?? 16" xfId="103"/>
-    <cellStyle name="?? 21" xfId="104"/>
-    <cellStyle name="常规 2 2 3 2" xfId="105"/>
+    <cellStyle name="40% - Accent5" xfId="99"/>
+    <cellStyle name="?? 10 2" xfId="100"/>
+    <cellStyle name="常规 2 2 3 2" xfId="101"/>
+    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="102"/>
+    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="103"/>
+    <cellStyle name="?? 16" xfId="104"/>
+    <cellStyle name="?? 21" xfId="105"/>
     <cellStyle name="?? 18" xfId="106"/>
     <cellStyle name="?? 23" xfId="107"/>
-    <cellStyle name="?? 185" xfId="108"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="109"/>
-    <cellStyle name="?? 185 2" xfId="110"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="108"/>
+    <cellStyle name="?? 185" xfId="109"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="110"/>
     <cellStyle name="?? 26" xfId="111"/>
     <cellStyle name="?? 31" xfId="112"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="113"/>
+    <cellStyle name="?? 185 2" xfId="113"/>
     <cellStyle name="?? 19" xfId="114"/>
     <cellStyle name="?? 24" xfId="115"/>
     <cellStyle name="?? 25" xfId="116"/>
@@ -5003,73 +5003,73 @@
     <cellStyle name="?? 32" xfId="119"/>
     <cellStyle name="?? 29" xfId="120"/>
     <cellStyle name="?? 34" xfId="121"/>
-    <cellStyle name="?? 3" xfId="122"/>
-    <cellStyle name="常规 27" xfId="123"/>
-    <cellStyle name="常规 32" xfId="124"/>
+    <cellStyle name="常规 27" xfId="122"/>
+    <cellStyle name="常规 32" xfId="123"/>
+    <cellStyle name="?? 3" xfId="124"/>
     <cellStyle name="?? 35" xfId="125"/>
-    <cellStyle name="?? 36" xfId="126"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="127"/>
-    <cellStyle name="?? 37" xfId="128"/>
-    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="129"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="126"/>
+    <cellStyle name="?? 36" xfId="127"/>
+    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="128"/>
+    <cellStyle name="?? 37" xfId="129"/>
     <cellStyle name="?? 38" xfId="130"/>
-    <cellStyle name="?? 4" xfId="131"/>
-    <cellStyle name="常规 28" xfId="132"/>
-    <cellStyle name="常规 33" xfId="133"/>
-    <cellStyle name="常规 62 2" xfId="134"/>
-    <cellStyle name="常规 57 2" xfId="135"/>
-    <cellStyle name="?? 5" xfId="136"/>
-    <cellStyle name="常规 2 4 3 2" xfId="137"/>
+    <cellStyle name="常规 62 2" xfId="131"/>
+    <cellStyle name="常规 57 2" xfId="132"/>
+    <cellStyle name="常规 28" xfId="133"/>
+    <cellStyle name="常规 33" xfId="134"/>
+    <cellStyle name="?? 4" xfId="135"/>
+    <cellStyle name="常规 62 3" xfId="136"/>
+    <cellStyle name="常规 57 3" xfId="137"/>
     <cellStyle name="常规 29" xfId="138"/>
     <cellStyle name="常规 34" xfId="139"/>
-    <cellStyle name="常规 62 3" xfId="140"/>
-    <cellStyle name="常规 57 3" xfId="141"/>
-    <cellStyle name="?? 6" xfId="142"/>
-    <cellStyle name="常规 35" xfId="143"/>
-    <cellStyle name="常规 40" xfId="144"/>
-    <cellStyle name="?? 7" xfId="145"/>
-    <cellStyle name="常规 36" xfId="146"/>
-    <cellStyle name="常规 41" xfId="147"/>
-    <cellStyle name="?? 8" xfId="148"/>
-    <cellStyle name="常规 2 2 2" xfId="149"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="150"/>
-    <cellStyle name="常规 37" xfId="151"/>
-    <cellStyle name="常规 42" xfId="152"/>
-    <cellStyle name="?? 9" xfId="153"/>
-    <cellStyle name="常规 2 2 3" xfId="154"/>
-    <cellStyle name="常规 38" xfId="155"/>
-    <cellStyle name="常规 43" xfId="156"/>
+    <cellStyle name="常规 2 4 3 2" xfId="140"/>
+    <cellStyle name="?? 5" xfId="141"/>
+    <cellStyle name="常规 35" xfId="142"/>
+    <cellStyle name="常规 40" xfId="143"/>
+    <cellStyle name="?? 6" xfId="144"/>
+    <cellStyle name="常规 36" xfId="145"/>
+    <cellStyle name="常规 41" xfId="146"/>
+    <cellStyle name="?? 7" xfId="147"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="148"/>
+    <cellStyle name="常规 37" xfId="149"/>
+    <cellStyle name="常规 42" xfId="150"/>
+    <cellStyle name="常规 2 2 2" xfId="151"/>
+    <cellStyle name="?? 8" xfId="152"/>
+    <cellStyle name="常规 38" xfId="153"/>
+    <cellStyle name="常规 43" xfId="154"/>
+    <cellStyle name="常规 2 2 3" xfId="155"/>
+    <cellStyle name="?? 9" xfId="156"/>
     <cellStyle name="??_Sheet1" xfId="157"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="158"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="159"/>
-    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="160"/>
-    <cellStyle name="20% - Accent1" xfId="161"/>
-    <cellStyle name="常规 10 2 2 4 2" xfId="162"/>
+    <cellStyle name="常规 10 2 2 4 2" xfId="160"/>
+    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="161"/>
+    <cellStyle name="20% - Accent1" xfId="162"/>
     <cellStyle name="20% - Accent1 2" xfId="163"/>
     <cellStyle name="20% - Accent2" xfId="164"/>
     <cellStyle name="20% - Accent2 2" xfId="165"/>
     <cellStyle name="20% - Accent3" xfId="166"/>
-    <cellStyle name="20% - Accent4" xfId="167"/>
-    <cellStyle name="常规 5 3 2" xfId="168"/>
-    <cellStyle name="20% - Accent4 2" xfId="169"/>
-    <cellStyle name="常规 4" xfId="170"/>
+    <cellStyle name="常规 5 3 2" xfId="167"/>
+    <cellStyle name="20% - Accent4" xfId="168"/>
+    <cellStyle name="常规 4" xfId="169"/>
+    <cellStyle name="20% - Accent4 2" xfId="170"/>
     <cellStyle name="20% - Accent5" xfId="171"/>
     <cellStyle name="20% - Accent5 2" xfId="172"/>
-    <cellStyle name="20% - Accent6" xfId="173"/>
-    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="174"/>
+    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="173"/>
+    <cellStyle name="20% - Accent6" xfId="174"/>
     <cellStyle name="20% - Accent6 2" xfId="175"/>
-    <cellStyle name="40% - Accent1" xfId="176"/>
-    <cellStyle name="常规 63" xfId="177"/>
-    <cellStyle name="常规 58" xfId="178"/>
-    <cellStyle name="常规 83" xfId="179"/>
-    <cellStyle name="常规 78" xfId="180"/>
-    <cellStyle name="40% - Accent1 2" xfId="181"/>
-    <cellStyle name="常规 63 2" xfId="182"/>
-    <cellStyle name="常规 58 2" xfId="183"/>
-    <cellStyle name="40% - Accent2" xfId="184"/>
-    <cellStyle name="常规 64" xfId="185"/>
-    <cellStyle name="常规 59" xfId="186"/>
-    <cellStyle name="40% - Accent2 2" xfId="187"/>
-    <cellStyle name="常规 59 2" xfId="188"/>
+    <cellStyle name="常规 63" xfId="176"/>
+    <cellStyle name="常规 58" xfId="177"/>
+    <cellStyle name="40% - Accent1" xfId="178"/>
+    <cellStyle name="常规 63 2" xfId="179"/>
+    <cellStyle name="常规 58 2" xfId="180"/>
+    <cellStyle name="常规 83" xfId="181"/>
+    <cellStyle name="常规 78" xfId="182"/>
+    <cellStyle name="40% - Accent1 2" xfId="183"/>
+    <cellStyle name="常规 64" xfId="184"/>
+    <cellStyle name="常规 59" xfId="185"/>
+    <cellStyle name="40% - Accent2" xfId="186"/>
+    <cellStyle name="常规 59 2" xfId="187"/>
+    <cellStyle name="40% - Accent2 2" xfId="188"/>
     <cellStyle name="40% - Accent3" xfId="189"/>
     <cellStyle name="40% - Accent3 2" xfId="190"/>
     <cellStyle name="40% - Accent4" xfId="191"/>
@@ -5077,105 +5077,105 @@
     <cellStyle name="40% - Accent5 2" xfId="193"/>
     <cellStyle name="40% - Accent6" xfId="194"/>
     <cellStyle name="40% - Accent6 2" xfId="195"/>
-    <cellStyle name="60% - Accent1" xfId="196"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="197"/>
-    <cellStyle name="60% - Accent2" xfId="198"/>
-    <cellStyle name="常规 2 2" xfId="199"/>
-    <cellStyle name="60% - Accent3" xfId="200"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="196"/>
+    <cellStyle name="60% - Accent1" xfId="197"/>
+    <cellStyle name="常规 2 2" xfId="198"/>
+    <cellStyle name="60% - Accent2" xfId="199"/>
+    <cellStyle name="常规 2 3" xfId="200"/>
     <cellStyle name="常规 10 2 4 2" xfId="201"/>
-    <cellStyle name="常规 2 3" xfId="202"/>
-    <cellStyle name="60% - Accent4" xfId="203"/>
-    <cellStyle name="常规 2 4" xfId="204"/>
-    <cellStyle name="60% - Accent5" xfId="205"/>
-    <cellStyle name="常规 2 5" xfId="206"/>
-    <cellStyle name="60% - Accent6" xfId="207"/>
-    <cellStyle name="常规 2 6" xfId="208"/>
+    <cellStyle name="60% - Accent3" xfId="202"/>
+    <cellStyle name="常规 2 4" xfId="203"/>
+    <cellStyle name="60% - Accent4" xfId="204"/>
+    <cellStyle name="常规 2 5" xfId="205"/>
+    <cellStyle name="60% - Accent5" xfId="206"/>
+    <cellStyle name="常规 2 6" xfId="207"/>
+    <cellStyle name="60% - Accent6" xfId="208"/>
     <cellStyle name="Accent1" xfId="209"/>
     <cellStyle name="Accent2" xfId="210"/>
-    <cellStyle name="Accent3" xfId="211"/>
-    <cellStyle name="常规 102 2" xfId="212"/>
-    <cellStyle name="Accent4" xfId="213"/>
-    <cellStyle name="常规 102 3" xfId="214"/>
-    <cellStyle name="Accent5" xfId="215"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="216"/>
-    <cellStyle name="Accent6" xfId="217"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="218"/>
-    <cellStyle name="Bad" xfId="219"/>
-    <cellStyle name="常规 2 3 2" xfId="220"/>
-    <cellStyle name="Calculation" xfId="221"/>
+    <cellStyle name="常规 102 2" xfId="211"/>
+    <cellStyle name="Accent3" xfId="212"/>
+    <cellStyle name="常规 102 3" xfId="213"/>
+    <cellStyle name="Accent4" xfId="214"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="215"/>
+    <cellStyle name="Accent5" xfId="216"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="217"/>
+    <cellStyle name="Accent6" xfId="218"/>
+    <cellStyle name="常规 2 3 2" xfId="219"/>
+    <cellStyle name="Bad" xfId="220"/>
+    <cellStyle name="常规 36 2" xfId="221"/>
     <cellStyle name="常规 106" xfId="222"/>
     <cellStyle name="常规 111" xfId="223"/>
-    <cellStyle name="常规 36 2" xfId="224"/>
-    <cellStyle name="Check Cell" xfId="225"/>
-    <cellStyle name="常规 15" xfId="226"/>
-    <cellStyle name="常规 20" xfId="227"/>
+    <cellStyle name="Calculation" xfId="224"/>
+    <cellStyle name="常规 15" xfId="225"/>
+    <cellStyle name="常规 20" xfId="226"/>
+    <cellStyle name="Check Cell" xfId="227"/>
     <cellStyle name="Explanatory Text" xfId="228"/>
-    <cellStyle name="Good" xfId="229"/>
-    <cellStyle name="常规 10" xfId="230"/>
-    <cellStyle name="常规 16 2" xfId="231"/>
+    <cellStyle name="常规 16 2" xfId="229"/>
+    <cellStyle name="Good" xfId="230"/>
+    <cellStyle name="常规 10" xfId="231"/>
     <cellStyle name="Heading 1" xfId="232"/>
     <cellStyle name="Heading 2" xfId="233"/>
     <cellStyle name="Heading 4" xfId="234"/>
     <cellStyle name="Linked Cell" xfId="235"/>
     <cellStyle name="Neutral" xfId="236"/>
-    <cellStyle name="Normal 2" xfId="237"/>
-    <cellStyle name="常规 115" xfId="238"/>
-    <cellStyle name="常规 120" xfId="239"/>
-    <cellStyle name="Normal 2 2" xfId="240"/>
-    <cellStyle name="常规 120 2" xfId="241"/>
+    <cellStyle name="常规 115" xfId="237"/>
+    <cellStyle name="常规 120" xfId="238"/>
+    <cellStyle name="Normal 2" xfId="239"/>
+    <cellStyle name="常规 120 2" xfId="240"/>
+    <cellStyle name="Normal 2 2" xfId="241"/>
     <cellStyle name="Normal 2 3" xfId="242"/>
-    <cellStyle name="常规 116" xfId="243"/>
-    <cellStyle name="常规 121" xfId="244"/>
-    <cellStyle name="Normal 3" xfId="245"/>
-    <cellStyle name="常规 3 7 2" xfId="246"/>
+    <cellStyle name="Normal 3" xfId="243"/>
+    <cellStyle name="常规 3 7 2" xfId="244"/>
+    <cellStyle name="常规 116" xfId="245"/>
+    <cellStyle name="常规 121" xfId="246"/>
     <cellStyle name="Normal 3 2" xfId="247"/>
     <cellStyle name="Normal_CEB EDW_任务跟踪管理" xfId="248"/>
-    <cellStyle name="Note" xfId="249"/>
-    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="250"/>
+    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="249"/>
+    <cellStyle name="Note" xfId="250"/>
     <cellStyle name="Note 2" xfId="251"/>
     <cellStyle name="Output" xfId="252"/>
     <cellStyle name="常规 4 2 3 4" xfId="253"/>
-    <cellStyle name="Title" xfId="254"/>
-    <cellStyle name="常规 2" xfId="255"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="256"/>
-    <cellStyle name="Total" xfId="257"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="258"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="259"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="260"/>
+    <cellStyle name="常规 2" xfId="254"/>
+    <cellStyle name="Title" xfId="255"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="256"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="257"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="258"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="259"/>
+    <cellStyle name="Total" xfId="260"/>
     <cellStyle name="Warning Text" xfId="261"/>
-    <cellStyle name="百分比 2" xfId="262"/>
-    <cellStyle name="常规 10 2 2 3 2" xfId="263"/>
+    <cellStyle name="常规 10 2 2 3 2" xfId="262"/>
+    <cellStyle name="百分比 2" xfId="263"/>
     <cellStyle name="差_RDM_RWA_P-F_数据映射_V0.0" xfId="264"/>
     <cellStyle name="差_RDM_零售_P-F_数据映射_V1.0" xfId="265"/>
     <cellStyle name="差_Sheet1" xfId="266"/>
     <cellStyle name="差_Sheet1 2" xfId="267"/>
     <cellStyle name="差_Sheet2" xfId="268"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="269"/>
-    <cellStyle name="差_Sheet3" xfId="270"/>
-    <cellStyle name="常规 3 2" xfId="271"/>
+    <cellStyle name="差_Sheet3" xfId="269"/>
+    <cellStyle name="常规 3 2" xfId="270"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="271"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="272"/>
     <cellStyle name="常规 96" xfId="273"/>
     <cellStyle name="差_保函明细" xfId="274"/>
     <cellStyle name="差_对公资产监管经济资本表" xfId="275"/>
-    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="276"/>
-    <cellStyle name="常规 45 2 2" xfId="277"/>
-    <cellStyle name="常规 50 2 2" xfId="278"/>
+    <cellStyle name="常规 45 2 2" xfId="276"/>
+    <cellStyle name="常规 50 2 2" xfId="277"/>
+    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="278"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="279"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="280"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="281"/>
-    <cellStyle name="常规 51 2" xfId="282"/>
+    <cellStyle name="常规 51 2" xfId="281"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="282"/>
     <cellStyle name="常规 10 2" xfId="283"/>
-    <cellStyle name="常规 10 2 2" xfId="284"/>
-    <cellStyle name="常规 2 7" xfId="285"/>
+    <cellStyle name="常规 2 7" xfId="284"/>
+    <cellStyle name="常规 10 2 2" xfId="285"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="286"/>
     <cellStyle name="常规 10 2 2 2" xfId="287"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="288"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="289"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="290"/>
-    <cellStyle name="常规 10 2 2 2 3 3" xfId="291"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="292"/>
-    <cellStyle name="常规 47" xfId="293"/>
-    <cellStyle name="常规 52" xfId="294"/>
+    <cellStyle name="常规 10 2 2 2 3 3" xfId="290"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="291"/>
+    <cellStyle name="常规 47" xfId="292"/>
+    <cellStyle name="常规 52" xfId="293"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="294"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="295"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="296"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="297"/>
@@ -5196,8 +5196,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="312"/>
     <cellStyle name="常规 10 2 2 6" xfId="313"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="314"/>
-    <cellStyle name="常规 10 2 3" xfId="315"/>
-    <cellStyle name="常规 2 8" xfId="316"/>
+    <cellStyle name="常规 2 8" xfId="315"/>
+    <cellStyle name="常规 10 2 3" xfId="316"/>
     <cellStyle name="常规 10 2 3 2" xfId="317"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="318"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="319"/>
@@ -5210,14 +5210,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="326"/>
     <cellStyle name="常规 10 2 3 4" xfId="327"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="328"/>
-    <cellStyle name="常规 10 2 3 5" xfId="329"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="329"/>
     <cellStyle name="常规 2 10" xfId="330"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="331"/>
-    <cellStyle name="常规 10 2 4" xfId="332"/>
-    <cellStyle name="常规 2 9" xfId="333"/>
+    <cellStyle name="常规 10 2 3 5" xfId="331"/>
+    <cellStyle name="常规 2 9" xfId="332"/>
+    <cellStyle name="常规 10 2 4" xfId="333"/>
     <cellStyle name="常规 10 2 5" xfId="334"/>
-    <cellStyle name="常规 10 2 5 2" xfId="335"/>
-    <cellStyle name="常规 3 3" xfId="336"/>
+    <cellStyle name="常规 3 3" xfId="335"/>
+    <cellStyle name="常规 10 2 5 2" xfId="336"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="337"/>
     <cellStyle name="常规 100" xfId="338"/>
     <cellStyle name="常规 4 2 3" xfId="339"/>
@@ -5236,8 +5236,8 @@
     <cellStyle name="常规 101 2" xfId="352"/>
     <cellStyle name="常规 4 6 2" xfId="353"/>
     <cellStyle name="常规 101 2 2" xfId="354"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="355"/>
-    <cellStyle name="常规 101 3" xfId="356"/>
+    <cellStyle name="常规 101 3" xfId="355"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="356"/>
     <cellStyle name="常规 102" xfId="357"/>
     <cellStyle name="常规 4 2 5" xfId="358"/>
     <cellStyle name="常规 4 7" xfId="359"/>
@@ -5272,23 +5272,23 @@
     <cellStyle name="常规 21" xfId="388"/>
     <cellStyle name="常规 17" xfId="389"/>
     <cellStyle name="常规 22" xfId="390"/>
-    <cellStyle name="常规 17 2" xfId="391"/>
-    <cellStyle name="常规 55" xfId="392"/>
-    <cellStyle name="常规 60" xfId="393"/>
+    <cellStyle name="常规 55" xfId="391"/>
+    <cellStyle name="常规 60" xfId="392"/>
+    <cellStyle name="常规 17 2" xfId="393"/>
     <cellStyle name="常规 18" xfId="394"/>
     <cellStyle name="常规 23" xfId="395"/>
     <cellStyle name="常规 18 2" xfId="396"/>
-    <cellStyle name="常规 19" xfId="397"/>
-    <cellStyle name="常规 24" xfId="398"/>
-    <cellStyle name="常规 51 2 2" xfId="399"/>
+    <cellStyle name="常规 51 2 2" xfId="397"/>
+    <cellStyle name="常规 19" xfId="398"/>
+    <cellStyle name="常规 24" xfId="399"/>
     <cellStyle name="常规 2 11" xfId="400"/>
     <cellStyle name="常规 2 12" xfId="401"/>
     <cellStyle name="常规 2 13" xfId="402"/>
     <cellStyle name="常规 2 14" xfId="403"/>
-    <cellStyle name="常规 2 15" xfId="404"/>
-    <cellStyle name="常规 2 20" xfId="405"/>
-    <cellStyle name="常规 62 2 2" xfId="406"/>
-    <cellStyle name="常规 57 2 2" xfId="407"/>
+    <cellStyle name="常规 62 2 2" xfId="404"/>
+    <cellStyle name="常规 57 2 2" xfId="405"/>
+    <cellStyle name="常规 2 15" xfId="406"/>
+    <cellStyle name="常规 2 20" xfId="407"/>
     <cellStyle name="常规 2 16" xfId="408"/>
     <cellStyle name="常规 2 21" xfId="409"/>
     <cellStyle name="常规 2 16 2" xfId="410"/>
@@ -5304,12 +5304,12 @@
     <cellStyle name="常规 2 25" xfId="420"/>
     <cellStyle name="常规 2 3 3" xfId="421"/>
     <cellStyle name="常规 2 3 4" xfId="422"/>
-    <cellStyle name="常规 2 3 4 2" xfId="423"/>
-    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="424"/>
+    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="423"/>
+    <cellStyle name="常规 2 3 4 2" xfId="424"/>
     <cellStyle name="常规 2 4 2" xfId="425"/>
-    <cellStyle name="常规 2 4 2 2" xfId="426"/>
-    <cellStyle name="常规 56 3" xfId="427"/>
-    <cellStyle name="常规 61 3" xfId="428"/>
+    <cellStyle name="常规 56 3" xfId="426"/>
+    <cellStyle name="常规 61 3" xfId="427"/>
+    <cellStyle name="常规 2 4 2 2" xfId="428"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="429"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="430"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="431"/>
@@ -5321,22 +5321,22 @@
     <cellStyle name="常规 2 4 3" xfId="437"/>
     <cellStyle name="常规 2 4 4" xfId="438"/>
     <cellStyle name="常规 2 4 5" xfId="439"/>
-    <cellStyle name="常规 2 4 5 2" xfId="440"/>
+    <cellStyle name="常规 59 3" xfId="440"/>
     <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="441"/>
-    <cellStyle name="常规 59 3" xfId="442"/>
+    <cellStyle name="常规 2 4 5 2" xfId="442"/>
     <cellStyle name="常规 25" xfId="443"/>
     <cellStyle name="常规 30" xfId="444"/>
-    <cellStyle name="常规 3" xfId="445"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="446"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="445"/>
+    <cellStyle name="常规 3" xfId="446"/>
     <cellStyle name="常规 3 2 2" xfId="447"/>
     <cellStyle name="常规 3 4" xfId="448"/>
     <cellStyle name="常规 3 5" xfId="449"/>
-    <cellStyle name="常规 3 6" xfId="450"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="451"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="452"/>
-    <cellStyle name="常规 3 7" xfId="453"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="454"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="455"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="450"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="451"/>
+    <cellStyle name="常规 3 6" xfId="452"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="453"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="454"/>
+    <cellStyle name="常规 3 7" xfId="455"/>
     <cellStyle name="常规 3 8" xfId="456"/>
     <cellStyle name="常规 35 2" xfId="457"/>
     <cellStyle name="常规 4 2" xfId="458"/>
@@ -5378,10 +5378,10 @@
     <cellStyle name="常规 53" xfId="494"/>
     <cellStyle name="常规 48 2 2" xfId="495"/>
     <cellStyle name="常规 53 2 2" xfId="496"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="497"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="498"/>
-    <cellStyle name="常规 49" xfId="499"/>
-    <cellStyle name="常规 54" xfId="500"/>
+    <cellStyle name="常规 49" xfId="497"/>
+    <cellStyle name="常规 54" xfId="498"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="499"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="500"/>
     <cellStyle name="常规 49 2 2" xfId="501"/>
     <cellStyle name="常规 54 2 2" xfId="502"/>
     <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="503"/>
@@ -5392,220 +5392,220 @@
     <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="508"/>
     <cellStyle name="常规 5 3" xfId="509"/>
     <cellStyle name="常规 5 4" xfId="510"/>
-    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="511"/>
-    <cellStyle name="常规 51 3" xfId="512"/>
+    <cellStyle name="常规 51 3" xfId="511"/>
+    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="512"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="513"/>
-    <cellStyle name="常规 60 2" xfId="514"/>
-    <cellStyle name="常规 55 2" xfId="515"/>
-    <cellStyle name="常规 60 2 2" xfId="516"/>
-    <cellStyle name="常规 55 2 2" xfId="517"/>
-    <cellStyle name="常规 60 3" xfId="518"/>
-    <cellStyle name="常规 55 3" xfId="519"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="520"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="521"/>
-    <cellStyle name="常规 61" xfId="522"/>
-    <cellStyle name="常规 56" xfId="523"/>
-    <cellStyle name="常规 61 2" xfId="524"/>
-    <cellStyle name="常规 56 2" xfId="525"/>
-    <cellStyle name="常规 61 2 2" xfId="526"/>
-    <cellStyle name="常规 56 2 2" xfId="527"/>
-    <cellStyle name="常规 57" xfId="528"/>
-    <cellStyle name="常规 62" xfId="529"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="531"/>
-    <cellStyle name="常规 58 2 2" xfId="532"/>
-    <cellStyle name="常规 63 2 2" xfId="533"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="534"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="535"/>
-    <cellStyle name="常规 58 3" xfId="536"/>
-    <cellStyle name="常规 63 3" xfId="537"/>
+    <cellStyle name="常规 55 2" xfId="514"/>
+    <cellStyle name="常规 60 2" xfId="515"/>
+    <cellStyle name="常规 55 2 2" xfId="516"/>
+    <cellStyle name="常规 60 2 2" xfId="517"/>
+    <cellStyle name="常规 55 3" xfId="518"/>
+    <cellStyle name="常规 60 3" xfId="519"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="520"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="521"/>
+    <cellStyle name="常规 56" xfId="522"/>
+    <cellStyle name="常规 61" xfId="523"/>
+    <cellStyle name="常规 56 2" xfId="524"/>
+    <cellStyle name="常规 61 2" xfId="525"/>
+    <cellStyle name="常规 56 2 2" xfId="526"/>
+    <cellStyle name="常规 61 2 2" xfId="527"/>
+    <cellStyle name="常规 62" xfId="528"/>
+    <cellStyle name="常规 57" xfId="529"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="531"/>
+    <cellStyle name="常规 63 2 2" xfId="532"/>
+    <cellStyle name="常规 58 2 2" xfId="533"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="534"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="535"/>
+    <cellStyle name="常规 63 3" xfId="536"/>
+    <cellStyle name="常规 58 3" xfId="537"/>
     <cellStyle name="常规 6 2" xfId="538"/>
-    <cellStyle name="常规 6 3" xfId="539"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="539"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="540"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="541"/>
+    <cellStyle name="常规 6 3" xfId="541"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="542"/>
-    <cellStyle name="常规 65" xfId="543"/>
-    <cellStyle name="常规 70" xfId="544"/>
-    <cellStyle name="常规 65 2" xfId="545"/>
-    <cellStyle name="常规 70 2" xfId="546"/>
-    <cellStyle name="常规 65 2 2" xfId="547"/>
+    <cellStyle name="常规 70" xfId="543"/>
+    <cellStyle name="常规 65" xfId="544"/>
+    <cellStyle name="常规 70 2" xfId="545"/>
+    <cellStyle name="常规 65 2" xfId="546"/>
+    <cellStyle name="常规 97 3" xfId="547"/>
     <cellStyle name="常规 70 2 2" xfId="548"/>
-    <cellStyle name="常规 97 3" xfId="549"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="550"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="551"/>
-    <cellStyle name="常规 65 3" xfId="552"/>
-    <cellStyle name="常规 70 3" xfId="553"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 66" xfId="556"/>
-    <cellStyle name="常规 71" xfId="557"/>
-    <cellStyle name="常规 66 2" xfId="558"/>
-    <cellStyle name="常规 71 2" xfId="559"/>
-    <cellStyle name="常规 66 2 2" xfId="560"/>
-    <cellStyle name="常规 71 2 2" xfId="561"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="563"/>
-    <cellStyle name="常规 66 3" xfId="564"/>
+    <cellStyle name="常规 65 2 2" xfId="549"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="550"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="551"/>
+    <cellStyle name="常规 70 3" xfId="552"/>
+    <cellStyle name="常规 65 3" xfId="553"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 71" xfId="556"/>
+    <cellStyle name="常规 66" xfId="557"/>
+    <cellStyle name="常规 71 2" xfId="558"/>
+    <cellStyle name="常规 66 2" xfId="559"/>
+    <cellStyle name="常规 71 2 2" xfId="560"/>
+    <cellStyle name="常规 66 2 2" xfId="561"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="样式 1" xfId="564"/>
     <cellStyle name="常规 71 3" xfId="565"/>
-    <cellStyle name="样式 1" xfId="566"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="567"/>
-    <cellStyle name="常规 67" xfId="568"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="569"/>
-    <cellStyle name="常规 72" xfId="570"/>
-    <cellStyle name="常规 67 2" xfId="571"/>
-    <cellStyle name="常规 72 2" xfId="572"/>
-    <cellStyle name="常规 67 2 2" xfId="573"/>
-    <cellStyle name="常规 72 2 2" xfId="574"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 67 3" xfId="577"/>
-    <cellStyle name="常规 72 3" xfId="578"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="579"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="580"/>
-    <cellStyle name="常规 68" xfId="581"/>
-    <cellStyle name="常规 73" xfId="582"/>
-    <cellStyle name="常规 68 2" xfId="583"/>
-    <cellStyle name="常规 73 2" xfId="584"/>
-    <cellStyle name="常规 68 2 2" xfId="585"/>
-    <cellStyle name="常规 73 2 2" xfId="586"/>
-    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="587"/>
-    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="588"/>
-    <cellStyle name="常规 68 3" xfId="589"/>
-    <cellStyle name="常规 73 3" xfId="590"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 69" xfId="593"/>
-    <cellStyle name="常规 74" xfId="594"/>
-    <cellStyle name="常规 69 2" xfId="595"/>
-    <cellStyle name="常规 74 2" xfId="596"/>
-    <cellStyle name="常规 69 2 2" xfId="597"/>
-    <cellStyle name="常规 74 2 2" xfId="598"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="599"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="600"/>
-    <cellStyle name="常规 69 3" xfId="601"/>
-    <cellStyle name="常规 74 3" xfId="602"/>
-    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="603"/>
-    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="604"/>
+    <cellStyle name="常规 66 3" xfId="566"/>
+    <cellStyle name="常规 72" xfId="567"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="568"/>
+    <cellStyle name="常规 67" xfId="569"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="570"/>
+    <cellStyle name="常规 72 2" xfId="571"/>
+    <cellStyle name="常规 67 2" xfId="572"/>
+    <cellStyle name="常规 72 2 2" xfId="573"/>
+    <cellStyle name="常规 67 2 2" xfId="574"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 72 3" xfId="577"/>
+    <cellStyle name="常规 67 3" xfId="578"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="579"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="580"/>
+    <cellStyle name="常规 73" xfId="581"/>
+    <cellStyle name="常规 68" xfId="582"/>
+    <cellStyle name="常规 73 2" xfId="583"/>
+    <cellStyle name="常规 68 2" xfId="584"/>
+    <cellStyle name="常规 73 2 2" xfId="585"/>
+    <cellStyle name="常规 68 2 2" xfId="586"/>
+    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="587"/>
+    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="588"/>
+    <cellStyle name="常规 73 3" xfId="589"/>
+    <cellStyle name="常规 68 3" xfId="590"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 74" xfId="593"/>
+    <cellStyle name="常规 69" xfId="594"/>
+    <cellStyle name="常规 74 2" xfId="595"/>
+    <cellStyle name="常规 69 2" xfId="596"/>
+    <cellStyle name="常规 74 2 2" xfId="597"/>
+    <cellStyle name="常规 69 2 2" xfId="598"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="599"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="600"/>
+    <cellStyle name="常规 74 3" xfId="601"/>
+    <cellStyle name="常规 69 3" xfId="602"/>
+    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="603"/>
+    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="604"/>
     <cellStyle name="常规 7" xfId="605"/>
     <cellStyle name="常规 7 2" xfId="606"/>
     <cellStyle name="常规 7 3" xfId="607"/>
     <cellStyle name="常规 7_ITDM3.2期数据库设计汇总" xfId="608"/>
-    <cellStyle name="常规 75" xfId="609"/>
-    <cellStyle name="常规 80" xfId="610"/>
-    <cellStyle name="常规 75 2" xfId="611"/>
-    <cellStyle name="常规 80 2" xfId="612"/>
-    <cellStyle name="常规 75 2 2" xfId="613"/>
-    <cellStyle name="常规 80 2 2" xfId="614"/>
-    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="615"/>
-    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="616"/>
-    <cellStyle name="常规 75 3" xfId="617"/>
-    <cellStyle name="常规 80 3" xfId="618"/>
-    <cellStyle name="常规 76" xfId="619"/>
-    <cellStyle name="常规 81" xfId="620"/>
-    <cellStyle name="常规 76 2" xfId="621"/>
-    <cellStyle name="常规 81 2" xfId="622"/>
-    <cellStyle name="常规 76 2 2" xfId="623"/>
-    <cellStyle name="常规 81 2 2" xfId="624"/>
-    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="625"/>
-    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="626"/>
-    <cellStyle name="常规 76 3" xfId="627"/>
-    <cellStyle name="常规 81 3" xfId="628"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="630"/>
-    <cellStyle name="常规 77" xfId="631"/>
-    <cellStyle name="常规 82" xfId="632"/>
-    <cellStyle name="常规 77 2" xfId="633"/>
-    <cellStyle name="常规 82 2" xfId="634"/>
-    <cellStyle name="常规 77 2 2" xfId="635"/>
-    <cellStyle name="常规 82 2 2" xfId="636"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="637"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="638"/>
-    <cellStyle name="常规 77 3" xfId="639"/>
-    <cellStyle name="常规 82 3" xfId="640"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="641"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="642"/>
-    <cellStyle name="常规 78 2" xfId="643"/>
-    <cellStyle name="常规 83 2" xfId="644"/>
-    <cellStyle name="常规 78 2 2" xfId="645"/>
-    <cellStyle name="常规 83 2 2" xfId="646"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="647"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="648"/>
-    <cellStyle name="常规 78 3" xfId="649"/>
-    <cellStyle name="常规 83 3" xfId="650"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="651"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="652"/>
-    <cellStyle name="常规 79" xfId="653"/>
-    <cellStyle name="常规 84" xfId="654"/>
-    <cellStyle name="常规 79 2" xfId="655"/>
-    <cellStyle name="常规 84 2" xfId="656"/>
-    <cellStyle name="常规 79 2 2" xfId="657"/>
-    <cellStyle name="常规 84 2 2" xfId="658"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="659"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="660"/>
-    <cellStyle name="常规 79 3" xfId="661"/>
-    <cellStyle name="常规 84 3" xfId="662"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 80" xfId="609"/>
+    <cellStyle name="常规 75" xfId="610"/>
+    <cellStyle name="常规 80 2" xfId="611"/>
+    <cellStyle name="常规 75 2" xfId="612"/>
+    <cellStyle name="常规 80 2 2" xfId="613"/>
+    <cellStyle name="常规 75 2 2" xfId="614"/>
+    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="615"/>
+    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="616"/>
+    <cellStyle name="常规 80 3" xfId="617"/>
+    <cellStyle name="常规 75 3" xfId="618"/>
+    <cellStyle name="常规 81" xfId="619"/>
+    <cellStyle name="常规 76" xfId="620"/>
+    <cellStyle name="常规 81 2" xfId="621"/>
+    <cellStyle name="常规 76 2" xfId="622"/>
+    <cellStyle name="常规 81 2 2" xfId="623"/>
+    <cellStyle name="常规 76 2 2" xfId="624"/>
+    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="625"/>
+    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="626"/>
+    <cellStyle name="常规 81 3" xfId="627"/>
+    <cellStyle name="常规 76 3" xfId="628"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="630"/>
+    <cellStyle name="常规 82" xfId="631"/>
+    <cellStyle name="常规 77" xfId="632"/>
+    <cellStyle name="常规 82 2" xfId="633"/>
+    <cellStyle name="常规 77 2" xfId="634"/>
+    <cellStyle name="常规 82 2 2" xfId="635"/>
+    <cellStyle name="常规 77 2 2" xfId="636"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="637"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="638"/>
+    <cellStyle name="常规 82 3" xfId="639"/>
+    <cellStyle name="常规 77 3" xfId="640"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="641"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="642"/>
+    <cellStyle name="常规 83 2" xfId="643"/>
+    <cellStyle name="常规 78 2" xfId="644"/>
+    <cellStyle name="常规 83 2 2" xfId="645"/>
+    <cellStyle name="常规 78 2 2" xfId="646"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="647"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="648"/>
+    <cellStyle name="常规 83 3" xfId="649"/>
+    <cellStyle name="常规 78 3" xfId="650"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="651"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="652"/>
+    <cellStyle name="常规 84" xfId="653"/>
+    <cellStyle name="常规 79" xfId="654"/>
+    <cellStyle name="常规 84 2" xfId="655"/>
+    <cellStyle name="常规 79 2" xfId="656"/>
+    <cellStyle name="常规 84 2 2" xfId="657"/>
+    <cellStyle name="常规 79 2 2" xfId="658"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="659"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="660"/>
+    <cellStyle name="常规 84 3" xfId="661"/>
+    <cellStyle name="常规 79 3" xfId="662"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="664"/>
     <cellStyle name="常规 8" xfId="665"/>
     <cellStyle name="常规 8 2" xfId="666"/>
-    <cellStyle name="常规 85 2" xfId="667"/>
-    <cellStyle name="常规 90 2" xfId="668"/>
-    <cellStyle name="常规 85 2 2" xfId="669"/>
-    <cellStyle name="常规 90 2 2" xfId="670"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 85 3" xfId="673"/>
-    <cellStyle name="常规 90 3" xfId="674"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="675"/>
+    <cellStyle name="常规 90 2" xfId="667"/>
+    <cellStyle name="常规 85 2" xfId="668"/>
+    <cellStyle name="常规 90 2 2" xfId="669"/>
+    <cellStyle name="常规 85 2 2" xfId="670"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 90 3" xfId="673"/>
+    <cellStyle name="常规 85 3" xfId="674"/>
+    <cellStyle name="常规 96 3" xfId="675"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="676"/>
-    <cellStyle name="常规 96 3" xfId="677"/>
-    <cellStyle name="常规 86" xfId="678"/>
-    <cellStyle name="常规 91" xfId="679"/>
-    <cellStyle name="常规 86 2" xfId="680"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="681"/>
-    <cellStyle name="常规 91 2" xfId="682"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="683"/>
-    <cellStyle name="常规 86 2 2" xfId="684"/>
-    <cellStyle name="常规 91 2 2" xfId="685"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="686"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="687"/>
-    <cellStyle name="常规 86 3" xfId="688"/>
-    <cellStyle name="常规 91 3" xfId="689"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="690"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="691"/>
-    <cellStyle name="常规 87" xfId="692"/>
-    <cellStyle name="常规 92" xfId="693"/>
-    <cellStyle name="常规 87 2" xfId="694"/>
-    <cellStyle name="常规 92 2" xfId="695"/>
-    <cellStyle name="常规 87 2 2" xfId="696"/>
-    <cellStyle name="常规 92 2 2" xfId="697"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="698"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="699"/>
-    <cellStyle name="常规 87 3" xfId="700"/>
-    <cellStyle name="常规 92 3" xfId="701"/>
-    <cellStyle name="常规 88" xfId="702"/>
-    <cellStyle name="常规 93" xfId="703"/>
-    <cellStyle name="常规 88 2" xfId="704"/>
-    <cellStyle name="常规 93 2" xfId="705"/>
-    <cellStyle name="常规 88 2 2" xfId="706"/>
-    <cellStyle name="常规 93 2 2" xfId="707"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="708"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="709"/>
-    <cellStyle name="常规 88 3" xfId="710"/>
-    <cellStyle name="常规 93 3" xfId="711"/>
-    <cellStyle name="常规 89" xfId="712"/>
-    <cellStyle name="常规 94" xfId="713"/>
-    <cellStyle name="常规 89 2" xfId="714"/>
-    <cellStyle name="常规 94 2" xfId="715"/>
-    <cellStyle name="常规 89 2 2" xfId="716"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="677"/>
+    <cellStyle name="常规 91" xfId="678"/>
+    <cellStyle name="常规 86" xfId="679"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="680"/>
+    <cellStyle name="常规 91 2" xfId="681"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="682"/>
+    <cellStyle name="常规 86 2" xfId="683"/>
+    <cellStyle name="常规 91 2 2" xfId="684"/>
+    <cellStyle name="常规 86 2 2" xfId="685"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="686"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="687"/>
+    <cellStyle name="常规 91 3" xfId="688"/>
+    <cellStyle name="常规 86 3" xfId="689"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="690"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="691"/>
+    <cellStyle name="常规 92" xfId="692"/>
+    <cellStyle name="常规 87" xfId="693"/>
+    <cellStyle name="常规 92 2" xfId="694"/>
+    <cellStyle name="常规 87 2" xfId="695"/>
+    <cellStyle name="常规 92 2 2" xfId="696"/>
+    <cellStyle name="常规 87 2 2" xfId="697"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="698"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="699"/>
+    <cellStyle name="常规 92 3" xfId="700"/>
+    <cellStyle name="常规 87 3" xfId="701"/>
+    <cellStyle name="常规 93" xfId="702"/>
+    <cellStyle name="常规 88" xfId="703"/>
+    <cellStyle name="常规 93 2" xfId="704"/>
+    <cellStyle name="常规 88 2" xfId="705"/>
+    <cellStyle name="常规 93 2 2" xfId="706"/>
+    <cellStyle name="常规 88 2 2" xfId="707"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="708"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="709"/>
+    <cellStyle name="常规 93 3" xfId="710"/>
+    <cellStyle name="常规 88 3" xfId="711"/>
+    <cellStyle name="常规 94" xfId="712"/>
+    <cellStyle name="常规 89" xfId="713"/>
+    <cellStyle name="常规 94 2" xfId="714"/>
+    <cellStyle name="常规 89 2" xfId="715"/>
+    <cellStyle name="常规 98" xfId="716"/>
     <cellStyle name="常规 94 2 2" xfId="717"/>
-    <cellStyle name="常规 98" xfId="718"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="719"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="720"/>
-    <cellStyle name="常规 89 3" xfId="721"/>
-    <cellStyle name="常规 94 3" xfId="722"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="724"/>
+    <cellStyle name="常规 89 2 2" xfId="718"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="719"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="720"/>
+    <cellStyle name="常规 94 3" xfId="721"/>
+    <cellStyle name="常规 89 3" xfId="722"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="724"/>
     <cellStyle name="常规 9" xfId="725"/>
     <cellStyle name="常规 9 2" xfId="726"/>
     <cellStyle name="常规 95" xfId="727"/>
@@ -5636,12 +5636,12 @@
     <cellStyle name="超链接 12" xfId="752"/>
     <cellStyle name="超链接 13" xfId="753"/>
     <cellStyle name="超链接 14" xfId="754"/>
-    <cellStyle name="超链接 15" xfId="755"/>
-    <cellStyle name="超链接 20" xfId="756"/>
-    <cellStyle name="超链接 16" xfId="757"/>
-    <cellStyle name="超链接 21" xfId="758"/>
-    <cellStyle name="超链接 17" xfId="759"/>
-    <cellStyle name="超链接 22" xfId="760"/>
+    <cellStyle name="超链接 20" xfId="755"/>
+    <cellStyle name="超链接 15" xfId="756"/>
+    <cellStyle name="超链接 21" xfId="757"/>
+    <cellStyle name="超链接 16" xfId="758"/>
+    <cellStyle name="超链接 22" xfId="759"/>
+    <cellStyle name="超链接 17" xfId="760"/>
     <cellStyle name="超链接 18" xfId="761"/>
     <cellStyle name="超链接 19" xfId="762"/>
     <cellStyle name="超链接 2" xfId="763"/>
@@ -13497,7 +13497,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L78" sqref="L78"/>
+      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/sql/华夏ERP数据库设计汇总.xlsx
+++ b/sql/华夏ERP数据库设计汇总.xlsx
@@ -727,8 +727,8 @@
     <t>DROP TABLE IF EXISTS `tbl_sequence`;
 CREATE TABLE tbl_sequence (
   seq_name VARCHAR(50) NOT NULL COMMENT '序列名称',
-  minvalue bigint(20) NOT NULL COMMENT '最小值',
-  maxvalue bigint(20) NOT NULL COMMENT '最大值',
+  min_value bigint(20) NOT NULL COMMENT '最小值',
+  max_value bigint(20) NOT NULL COMMENT '最大值',
   current_val bigint(20) NOT NULL COMMENT '当前值',
   increment_val INT DEFAULT '1' NOT NULL COMMENT '增长步数',
   remark VARCHAR(500) DEFAULT null  COMMENT '备注',
@@ -739,7 +739,7 @@
     <t>添加记录</t>
   </si>
   <si>
-    <t>insert into tbl_sequence (seq_name, minvalue, maxvalue, current_val, increment_val,remark) values ('depot_number_seq', 1, 999999999999999999, 1, 1,'单据编号sequence');</t>
+    <t>insert into tbl_sequence (seq_name, min_value, max_value, current_val, increment_val,remark) values ('depot_number_seq', 1, 999999999999999999, 1, 1,'单据编号sequence');</t>
   </si>
   <si>
     <t>function _nextval()</t>
@@ -756,7 +756,7 @@
 declare _maxvalue bigint;  -- 接收最大值
 declare _increment int; -- 接收增长步数
 set _increment = (select increment_val from tbl_sequence where seq_name = name);
-set _maxvalue = (select maxvalue from tbl_sequence where seq_name = name);
+set _maxvalue = (select max_value from tbl_sequence where seq_name = name);
 set _cur = (select current_val from tbl_sequence where seq_name = name for update);
 update tbl_sequence                      -- 更新当前值
  set current_val = _cur + increment_val
@@ -1657,13 +1657,13 @@
     <t>seq_name</t>
   </si>
   <si>
-    <t>minvalue</t>
+    <t>min_value</t>
   </si>
   <si>
     <t>最小值</t>
   </si>
   <si>
-    <t>maxvalue</t>
+    <t>max_value</t>
   </si>
   <si>
     <t>最大值</t>
@@ -1686,11 +1686,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -1818,7 +1818,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1832,6 +1832,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1840,9 +1925,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1856,14 +1954,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1872,82 +1962,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1962,13 +1978,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1980,48 +1990,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2031,6 +2002,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2045,9 +2022,63 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2060,52 +2091,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2114,13 +2114,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2135,6 +2128,13 @@
       <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="50">
@@ -2164,7 +2164,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,13 +2296,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,79 +2344,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2278,13 +2380,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2296,13 +2416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2314,121 +2428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2457,16 +2457,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2477,6 +2477,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2492,15 +2512,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2522,29 +2533,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2564,34 +2570,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -2612,15 +2594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -2632,6 +2605,17 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2653,839 +2637,855 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thick">
         <color indexed="49"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="49" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3506,33 +3506,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3561,192 +3561,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3764,37 +3764,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3822,912 +3822,912 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4816,45 +4816,45 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4863,46 +4863,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="284" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 28" xfId="1"/>
-    <cellStyle name="?? 33" xfId="2"/>
+    <cellStyle name="?? 33" xfId="1"/>
+    <cellStyle name="?? 28" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
     <cellStyle name="?? 185 2 2" xfId="4"/>
-    <cellStyle name="常规 39" xfId="5"/>
-    <cellStyle name="常规 44" xfId="6"/>
+    <cellStyle name="常规 44" xfId="5"/>
+    <cellStyle name="常规 39" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 15" xfId="10"/>
-    <cellStyle name="?? 20" xfId="11"/>
+    <cellStyle name="?? 20" xfId="10"/>
+    <cellStyle name="?? 15" xfId="11"/>
     <cellStyle name="千位分隔[0]" xfId="12" builtinId="6"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="13"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="13"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
     <cellStyle name="常规 2 26" xfId="15"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="16" builtinId="39"/>
     <cellStyle name="差" xfId="17" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="18" builtinId="3"/>
-    <cellStyle name="?? 11" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="19" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="20"/>
+    <cellStyle name="?? 11" xfId="21"/>
     <cellStyle name="超链接" xfId="22" builtinId="8"/>
     <cellStyle name="百分比" xfId="23" builtinId="5"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
@@ -4931,19 +4931,19 @@
     <cellStyle name="输出" xfId="47" builtinId="21"/>
     <cellStyle name="常规 90" xfId="48"/>
     <cellStyle name="常规 85" xfId="49"/>
-    <cellStyle name="常规 26" xfId="50"/>
-    <cellStyle name="常规 31" xfId="51"/>
+    <cellStyle name="计算" xfId="50" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="51"/>
     <cellStyle name="Input" xfId="52"/>
-    <cellStyle name="计算" xfId="53" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="54"/>
+    <cellStyle name="常规 26" xfId="53"/>
+    <cellStyle name="常规 31" xfId="54"/>
     <cellStyle name="检查单元格" xfId="55" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="56" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="57" builtinId="33"/>
     <cellStyle name="链接单元格" xfId="58" builtinId="24"/>
     <cellStyle name="汇总" xfId="59" builtinId="25"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="61"/>
-    <cellStyle name="20% - Accent3 2" xfId="62"/>
+    <cellStyle name="20% - Accent3 2" xfId="61"/>
+    <cellStyle name="Heading 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="65" builtinId="29"/>
@@ -4955,8 +4955,8 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="常规 2 26 2" xfId="74"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="75"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="74"/>
+    <cellStyle name="常规 2 26 2" xfId="75"/>
     <cellStyle name="强调文字颜色 3" xfId="76" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="77" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="78" builtinId="42"/>
@@ -4976,25 +4976,25 @@
     <cellStyle name="?? 17" xfId="92"/>
     <cellStyle name="?? 22" xfId="93"/>
     <cellStyle name="?? 13" xfId="94"/>
-    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="95"/>
-    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="96"/>
-    <cellStyle name="?? 14" xfId="97"/>
+    <cellStyle name="?? 14" xfId="95"/>
+    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="96"/>
+    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="97"/>
     <cellStyle name="??" xfId="98"/>
-    <cellStyle name="40% - Accent5" xfId="99"/>
-    <cellStyle name="?? 10 2" xfId="100"/>
-    <cellStyle name="常规 2 2 3 2" xfId="101"/>
-    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="102"/>
-    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="103"/>
-    <cellStyle name="?? 16" xfId="104"/>
-    <cellStyle name="?? 21" xfId="105"/>
+    <cellStyle name="?? 10 2" xfId="99"/>
+    <cellStyle name="40% - Accent5" xfId="100"/>
+    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="101"/>
+    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="102"/>
+    <cellStyle name="?? 16" xfId="103"/>
+    <cellStyle name="?? 21" xfId="104"/>
+    <cellStyle name="常规 2 2 3 2" xfId="105"/>
     <cellStyle name="?? 18" xfId="106"/>
     <cellStyle name="?? 23" xfId="107"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="108"/>
-    <cellStyle name="?? 185" xfId="109"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="110"/>
+    <cellStyle name="?? 185" xfId="108"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="109"/>
+    <cellStyle name="?? 185 2" xfId="110"/>
     <cellStyle name="?? 26" xfId="111"/>
     <cellStyle name="?? 31" xfId="112"/>
-    <cellStyle name="?? 185 2" xfId="113"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="113"/>
     <cellStyle name="?? 19" xfId="114"/>
     <cellStyle name="?? 24" xfId="115"/>
     <cellStyle name="?? 25" xfId="116"/>
@@ -5003,73 +5003,73 @@
     <cellStyle name="?? 32" xfId="119"/>
     <cellStyle name="?? 29" xfId="120"/>
     <cellStyle name="?? 34" xfId="121"/>
-    <cellStyle name="常规 27" xfId="122"/>
-    <cellStyle name="常规 32" xfId="123"/>
-    <cellStyle name="?? 3" xfId="124"/>
+    <cellStyle name="?? 3" xfId="122"/>
+    <cellStyle name="常规 27" xfId="123"/>
+    <cellStyle name="常规 32" xfId="124"/>
     <cellStyle name="?? 35" xfId="125"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="126"/>
-    <cellStyle name="?? 36" xfId="127"/>
-    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="128"/>
-    <cellStyle name="?? 37" xfId="129"/>
+    <cellStyle name="?? 36" xfId="126"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="127"/>
+    <cellStyle name="?? 37" xfId="128"/>
+    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="129"/>
     <cellStyle name="?? 38" xfId="130"/>
-    <cellStyle name="常规 62 2" xfId="131"/>
-    <cellStyle name="常规 57 2" xfId="132"/>
-    <cellStyle name="常规 28" xfId="133"/>
-    <cellStyle name="常规 33" xfId="134"/>
-    <cellStyle name="?? 4" xfId="135"/>
-    <cellStyle name="常规 62 3" xfId="136"/>
-    <cellStyle name="常规 57 3" xfId="137"/>
+    <cellStyle name="?? 4" xfId="131"/>
+    <cellStyle name="常规 28" xfId="132"/>
+    <cellStyle name="常规 33" xfId="133"/>
+    <cellStyle name="常规 62 2" xfId="134"/>
+    <cellStyle name="常规 57 2" xfId="135"/>
+    <cellStyle name="?? 5" xfId="136"/>
+    <cellStyle name="常规 2 4 3 2" xfId="137"/>
     <cellStyle name="常规 29" xfId="138"/>
     <cellStyle name="常规 34" xfId="139"/>
-    <cellStyle name="常规 2 4 3 2" xfId="140"/>
-    <cellStyle name="?? 5" xfId="141"/>
-    <cellStyle name="常规 35" xfId="142"/>
-    <cellStyle name="常规 40" xfId="143"/>
-    <cellStyle name="?? 6" xfId="144"/>
-    <cellStyle name="常规 36" xfId="145"/>
-    <cellStyle name="常规 41" xfId="146"/>
-    <cellStyle name="?? 7" xfId="147"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="148"/>
-    <cellStyle name="常规 37" xfId="149"/>
-    <cellStyle name="常规 42" xfId="150"/>
-    <cellStyle name="常规 2 2 2" xfId="151"/>
-    <cellStyle name="?? 8" xfId="152"/>
-    <cellStyle name="常规 38" xfId="153"/>
-    <cellStyle name="常规 43" xfId="154"/>
-    <cellStyle name="常规 2 2 3" xfId="155"/>
-    <cellStyle name="?? 9" xfId="156"/>
+    <cellStyle name="常规 62 3" xfId="140"/>
+    <cellStyle name="常规 57 3" xfId="141"/>
+    <cellStyle name="?? 6" xfId="142"/>
+    <cellStyle name="常规 35" xfId="143"/>
+    <cellStyle name="常规 40" xfId="144"/>
+    <cellStyle name="?? 7" xfId="145"/>
+    <cellStyle name="常规 36" xfId="146"/>
+    <cellStyle name="常规 41" xfId="147"/>
+    <cellStyle name="?? 8" xfId="148"/>
+    <cellStyle name="常规 2 2 2" xfId="149"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="150"/>
+    <cellStyle name="常规 37" xfId="151"/>
+    <cellStyle name="常规 42" xfId="152"/>
+    <cellStyle name="?? 9" xfId="153"/>
+    <cellStyle name="常规 2 2 3" xfId="154"/>
+    <cellStyle name="常规 38" xfId="155"/>
+    <cellStyle name="常规 43" xfId="156"/>
     <cellStyle name="??_Sheet1" xfId="157"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="158"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="159"/>
-    <cellStyle name="常规 10 2 2 4 2" xfId="160"/>
-    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="161"/>
-    <cellStyle name="20% - Accent1" xfId="162"/>
+    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="160"/>
+    <cellStyle name="20% - Accent1" xfId="161"/>
+    <cellStyle name="常规 10 2 2 4 2" xfId="162"/>
     <cellStyle name="20% - Accent1 2" xfId="163"/>
     <cellStyle name="20% - Accent2" xfId="164"/>
     <cellStyle name="20% - Accent2 2" xfId="165"/>
     <cellStyle name="20% - Accent3" xfId="166"/>
-    <cellStyle name="常规 5 3 2" xfId="167"/>
-    <cellStyle name="20% - Accent4" xfId="168"/>
-    <cellStyle name="常规 4" xfId="169"/>
-    <cellStyle name="20% - Accent4 2" xfId="170"/>
+    <cellStyle name="20% - Accent4" xfId="167"/>
+    <cellStyle name="常规 5 3 2" xfId="168"/>
+    <cellStyle name="20% - Accent4 2" xfId="169"/>
+    <cellStyle name="常规 4" xfId="170"/>
     <cellStyle name="20% - Accent5" xfId="171"/>
     <cellStyle name="20% - Accent5 2" xfId="172"/>
-    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="173"/>
-    <cellStyle name="20% - Accent6" xfId="174"/>
+    <cellStyle name="20% - Accent6" xfId="173"/>
+    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="174"/>
     <cellStyle name="20% - Accent6 2" xfId="175"/>
-    <cellStyle name="常规 63" xfId="176"/>
-    <cellStyle name="常规 58" xfId="177"/>
-    <cellStyle name="40% - Accent1" xfId="178"/>
-    <cellStyle name="常规 63 2" xfId="179"/>
-    <cellStyle name="常规 58 2" xfId="180"/>
-    <cellStyle name="常规 83" xfId="181"/>
-    <cellStyle name="常规 78" xfId="182"/>
-    <cellStyle name="40% - Accent1 2" xfId="183"/>
-    <cellStyle name="常规 64" xfId="184"/>
-    <cellStyle name="常规 59" xfId="185"/>
-    <cellStyle name="40% - Accent2" xfId="186"/>
-    <cellStyle name="常规 59 2" xfId="187"/>
-    <cellStyle name="40% - Accent2 2" xfId="188"/>
+    <cellStyle name="40% - Accent1" xfId="176"/>
+    <cellStyle name="常规 63" xfId="177"/>
+    <cellStyle name="常规 58" xfId="178"/>
+    <cellStyle name="常规 83" xfId="179"/>
+    <cellStyle name="常规 78" xfId="180"/>
+    <cellStyle name="40% - Accent1 2" xfId="181"/>
+    <cellStyle name="常规 63 2" xfId="182"/>
+    <cellStyle name="常规 58 2" xfId="183"/>
+    <cellStyle name="40% - Accent2" xfId="184"/>
+    <cellStyle name="常规 64" xfId="185"/>
+    <cellStyle name="常规 59" xfId="186"/>
+    <cellStyle name="40% - Accent2 2" xfId="187"/>
+    <cellStyle name="常规 59 2" xfId="188"/>
     <cellStyle name="40% - Accent3" xfId="189"/>
     <cellStyle name="40% - Accent3 2" xfId="190"/>
     <cellStyle name="40% - Accent4" xfId="191"/>
@@ -5077,105 +5077,105 @@
     <cellStyle name="40% - Accent5 2" xfId="193"/>
     <cellStyle name="40% - Accent6" xfId="194"/>
     <cellStyle name="40% - Accent6 2" xfId="195"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="196"/>
-    <cellStyle name="60% - Accent1" xfId="197"/>
-    <cellStyle name="常规 2 2" xfId="198"/>
-    <cellStyle name="60% - Accent2" xfId="199"/>
-    <cellStyle name="常规 2 3" xfId="200"/>
+    <cellStyle name="60% - Accent1" xfId="196"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="197"/>
+    <cellStyle name="60% - Accent2" xfId="198"/>
+    <cellStyle name="常规 2 2" xfId="199"/>
+    <cellStyle name="60% - Accent3" xfId="200"/>
     <cellStyle name="常规 10 2 4 2" xfId="201"/>
-    <cellStyle name="60% - Accent3" xfId="202"/>
-    <cellStyle name="常规 2 4" xfId="203"/>
-    <cellStyle name="60% - Accent4" xfId="204"/>
-    <cellStyle name="常规 2 5" xfId="205"/>
-    <cellStyle name="60% - Accent5" xfId="206"/>
-    <cellStyle name="常规 2 6" xfId="207"/>
-    <cellStyle name="60% - Accent6" xfId="208"/>
+    <cellStyle name="常规 2 3" xfId="202"/>
+    <cellStyle name="60% - Accent4" xfId="203"/>
+    <cellStyle name="常规 2 4" xfId="204"/>
+    <cellStyle name="60% - Accent5" xfId="205"/>
+    <cellStyle name="常规 2 5" xfId="206"/>
+    <cellStyle name="60% - Accent6" xfId="207"/>
+    <cellStyle name="常规 2 6" xfId="208"/>
     <cellStyle name="Accent1" xfId="209"/>
     <cellStyle name="Accent2" xfId="210"/>
-    <cellStyle name="常规 102 2" xfId="211"/>
-    <cellStyle name="Accent3" xfId="212"/>
-    <cellStyle name="常规 102 3" xfId="213"/>
-    <cellStyle name="Accent4" xfId="214"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="215"/>
-    <cellStyle name="Accent5" xfId="216"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="217"/>
-    <cellStyle name="Accent6" xfId="218"/>
-    <cellStyle name="常规 2 3 2" xfId="219"/>
-    <cellStyle name="Bad" xfId="220"/>
-    <cellStyle name="常规 36 2" xfId="221"/>
+    <cellStyle name="Accent3" xfId="211"/>
+    <cellStyle name="常规 102 2" xfId="212"/>
+    <cellStyle name="Accent4" xfId="213"/>
+    <cellStyle name="常规 102 3" xfId="214"/>
+    <cellStyle name="Accent5" xfId="215"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="216"/>
+    <cellStyle name="Accent6" xfId="217"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="218"/>
+    <cellStyle name="Bad" xfId="219"/>
+    <cellStyle name="常规 2 3 2" xfId="220"/>
+    <cellStyle name="Calculation" xfId="221"/>
     <cellStyle name="常规 106" xfId="222"/>
     <cellStyle name="常规 111" xfId="223"/>
-    <cellStyle name="Calculation" xfId="224"/>
-    <cellStyle name="常规 15" xfId="225"/>
-    <cellStyle name="常规 20" xfId="226"/>
-    <cellStyle name="Check Cell" xfId="227"/>
+    <cellStyle name="常规 36 2" xfId="224"/>
+    <cellStyle name="Check Cell" xfId="225"/>
+    <cellStyle name="常规 15" xfId="226"/>
+    <cellStyle name="常规 20" xfId="227"/>
     <cellStyle name="Explanatory Text" xfId="228"/>
-    <cellStyle name="常规 16 2" xfId="229"/>
-    <cellStyle name="Good" xfId="230"/>
-    <cellStyle name="常规 10" xfId="231"/>
+    <cellStyle name="Good" xfId="229"/>
+    <cellStyle name="常规 10" xfId="230"/>
+    <cellStyle name="常规 16 2" xfId="231"/>
     <cellStyle name="Heading 1" xfId="232"/>
     <cellStyle name="Heading 2" xfId="233"/>
     <cellStyle name="Heading 4" xfId="234"/>
     <cellStyle name="Linked Cell" xfId="235"/>
     <cellStyle name="Neutral" xfId="236"/>
-    <cellStyle name="常规 115" xfId="237"/>
-    <cellStyle name="常规 120" xfId="238"/>
-    <cellStyle name="Normal 2" xfId="239"/>
-    <cellStyle name="常规 120 2" xfId="240"/>
-    <cellStyle name="Normal 2 2" xfId="241"/>
+    <cellStyle name="Normal 2" xfId="237"/>
+    <cellStyle name="常规 115" xfId="238"/>
+    <cellStyle name="常规 120" xfId="239"/>
+    <cellStyle name="Normal 2 2" xfId="240"/>
+    <cellStyle name="常规 120 2" xfId="241"/>
     <cellStyle name="Normal 2 3" xfId="242"/>
-    <cellStyle name="Normal 3" xfId="243"/>
-    <cellStyle name="常规 3 7 2" xfId="244"/>
-    <cellStyle name="常规 116" xfId="245"/>
-    <cellStyle name="常规 121" xfId="246"/>
+    <cellStyle name="常规 116" xfId="243"/>
+    <cellStyle name="常规 121" xfId="244"/>
+    <cellStyle name="Normal 3" xfId="245"/>
+    <cellStyle name="常规 3 7 2" xfId="246"/>
     <cellStyle name="Normal 3 2" xfId="247"/>
     <cellStyle name="Normal_CEB EDW_任务跟踪管理" xfId="248"/>
-    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="249"/>
-    <cellStyle name="Note" xfId="250"/>
+    <cellStyle name="Note" xfId="249"/>
+    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="250"/>
     <cellStyle name="Note 2" xfId="251"/>
     <cellStyle name="Output" xfId="252"/>
     <cellStyle name="常规 4 2 3 4" xfId="253"/>
-    <cellStyle name="常规 2" xfId="254"/>
-    <cellStyle name="Title" xfId="255"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="256"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="257"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="258"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="259"/>
-    <cellStyle name="Total" xfId="260"/>
+    <cellStyle name="Title" xfId="254"/>
+    <cellStyle name="常规 2" xfId="255"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="256"/>
+    <cellStyle name="Total" xfId="257"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="258"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="259"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="260"/>
     <cellStyle name="Warning Text" xfId="261"/>
-    <cellStyle name="常规 10 2 2 3 2" xfId="262"/>
-    <cellStyle name="百分比 2" xfId="263"/>
+    <cellStyle name="百分比 2" xfId="262"/>
+    <cellStyle name="常规 10 2 2 3 2" xfId="263"/>
     <cellStyle name="差_RDM_RWA_P-F_数据映射_V0.0" xfId="264"/>
     <cellStyle name="差_RDM_零售_P-F_数据映射_V1.0" xfId="265"/>
     <cellStyle name="差_Sheet1" xfId="266"/>
     <cellStyle name="差_Sheet1 2" xfId="267"/>
     <cellStyle name="差_Sheet2" xfId="268"/>
-    <cellStyle name="差_Sheet3" xfId="269"/>
-    <cellStyle name="常规 3 2" xfId="270"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="271"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="269"/>
+    <cellStyle name="差_Sheet3" xfId="270"/>
+    <cellStyle name="常规 3 2" xfId="271"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="272"/>
     <cellStyle name="常规 96" xfId="273"/>
     <cellStyle name="差_保函明细" xfId="274"/>
     <cellStyle name="差_对公资产监管经济资本表" xfId="275"/>
-    <cellStyle name="常规 45 2 2" xfId="276"/>
-    <cellStyle name="常规 50 2 2" xfId="277"/>
-    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="278"/>
+    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="276"/>
+    <cellStyle name="常规 45 2 2" xfId="277"/>
+    <cellStyle name="常规 50 2 2" xfId="278"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="279"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="280"/>
-    <cellStyle name="常规 51 2" xfId="281"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="282"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="281"/>
+    <cellStyle name="常规 51 2" xfId="282"/>
     <cellStyle name="常规 10 2" xfId="283"/>
-    <cellStyle name="常规 2 7" xfId="284"/>
-    <cellStyle name="常规 10 2 2" xfId="285"/>
+    <cellStyle name="常规 10 2 2" xfId="284"/>
+    <cellStyle name="常规 2 7" xfId="285"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="286"/>
     <cellStyle name="常规 10 2 2 2" xfId="287"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="288"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="289"/>
-    <cellStyle name="常规 10 2 2 2 3 3" xfId="290"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="291"/>
-    <cellStyle name="常规 47" xfId="292"/>
-    <cellStyle name="常规 52" xfId="293"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="294"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="290"/>
+    <cellStyle name="常规 10 2 2 2 3 3" xfId="291"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="292"/>
+    <cellStyle name="常规 47" xfId="293"/>
+    <cellStyle name="常规 52" xfId="294"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="295"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="296"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="297"/>
@@ -5196,8 +5196,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="312"/>
     <cellStyle name="常规 10 2 2 6" xfId="313"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="314"/>
-    <cellStyle name="常规 2 8" xfId="315"/>
-    <cellStyle name="常规 10 2 3" xfId="316"/>
+    <cellStyle name="常规 10 2 3" xfId="315"/>
+    <cellStyle name="常规 2 8" xfId="316"/>
     <cellStyle name="常规 10 2 3 2" xfId="317"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="318"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="319"/>
@@ -5210,14 +5210,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="326"/>
     <cellStyle name="常规 10 2 3 4" xfId="327"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="328"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="329"/>
+    <cellStyle name="常规 10 2 3 5" xfId="329"/>
     <cellStyle name="常规 2 10" xfId="330"/>
-    <cellStyle name="常规 10 2 3 5" xfId="331"/>
-    <cellStyle name="常规 2 9" xfId="332"/>
-    <cellStyle name="常规 10 2 4" xfId="333"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="331"/>
+    <cellStyle name="常规 10 2 4" xfId="332"/>
+    <cellStyle name="常规 2 9" xfId="333"/>
     <cellStyle name="常规 10 2 5" xfId="334"/>
-    <cellStyle name="常规 3 3" xfId="335"/>
-    <cellStyle name="常规 10 2 5 2" xfId="336"/>
+    <cellStyle name="常规 10 2 5 2" xfId="335"/>
+    <cellStyle name="常规 3 3" xfId="336"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="337"/>
     <cellStyle name="常规 100" xfId="338"/>
     <cellStyle name="常规 4 2 3" xfId="339"/>
@@ -5236,8 +5236,8 @@
     <cellStyle name="常规 101 2" xfId="352"/>
     <cellStyle name="常规 4 6 2" xfId="353"/>
     <cellStyle name="常规 101 2 2" xfId="354"/>
-    <cellStyle name="常规 101 3" xfId="355"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="356"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="355"/>
+    <cellStyle name="常规 101 3" xfId="356"/>
     <cellStyle name="常规 102" xfId="357"/>
     <cellStyle name="常规 4 2 5" xfId="358"/>
     <cellStyle name="常规 4 7" xfId="359"/>
@@ -5272,23 +5272,23 @@
     <cellStyle name="常规 21" xfId="388"/>
     <cellStyle name="常规 17" xfId="389"/>
     <cellStyle name="常规 22" xfId="390"/>
-    <cellStyle name="常规 55" xfId="391"/>
-    <cellStyle name="常规 60" xfId="392"/>
-    <cellStyle name="常规 17 2" xfId="393"/>
+    <cellStyle name="常规 17 2" xfId="391"/>
+    <cellStyle name="常规 55" xfId="392"/>
+    <cellStyle name="常规 60" xfId="393"/>
     <cellStyle name="常规 18" xfId="394"/>
     <cellStyle name="常规 23" xfId="395"/>
     <cellStyle name="常规 18 2" xfId="396"/>
-    <cellStyle name="常规 51 2 2" xfId="397"/>
-    <cellStyle name="常规 19" xfId="398"/>
-    <cellStyle name="常规 24" xfId="399"/>
+    <cellStyle name="常规 19" xfId="397"/>
+    <cellStyle name="常规 24" xfId="398"/>
+    <cellStyle name="常规 51 2 2" xfId="399"/>
     <cellStyle name="常规 2 11" xfId="400"/>
     <cellStyle name="常规 2 12" xfId="401"/>
     <cellStyle name="常规 2 13" xfId="402"/>
     <cellStyle name="常规 2 14" xfId="403"/>
-    <cellStyle name="常规 62 2 2" xfId="404"/>
-    <cellStyle name="常规 57 2 2" xfId="405"/>
-    <cellStyle name="常规 2 15" xfId="406"/>
-    <cellStyle name="常规 2 20" xfId="407"/>
+    <cellStyle name="常规 2 15" xfId="404"/>
+    <cellStyle name="常规 2 20" xfId="405"/>
+    <cellStyle name="常规 62 2 2" xfId="406"/>
+    <cellStyle name="常规 57 2 2" xfId="407"/>
     <cellStyle name="常规 2 16" xfId="408"/>
     <cellStyle name="常规 2 21" xfId="409"/>
     <cellStyle name="常规 2 16 2" xfId="410"/>
@@ -5304,12 +5304,12 @@
     <cellStyle name="常规 2 25" xfId="420"/>
     <cellStyle name="常规 2 3 3" xfId="421"/>
     <cellStyle name="常规 2 3 4" xfId="422"/>
-    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="423"/>
-    <cellStyle name="常规 2 3 4 2" xfId="424"/>
+    <cellStyle name="常规 2 3 4 2" xfId="423"/>
+    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="424"/>
     <cellStyle name="常规 2 4 2" xfId="425"/>
-    <cellStyle name="常规 56 3" xfId="426"/>
-    <cellStyle name="常规 61 3" xfId="427"/>
-    <cellStyle name="常规 2 4 2 2" xfId="428"/>
+    <cellStyle name="常规 2 4 2 2" xfId="426"/>
+    <cellStyle name="常规 56 3" xfId="427"/>
+    <cellStyle name="常规 61 3" xfId="428"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="429"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="430"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="431"/>
@@ -5321,22 +5321,22 @@
     <cellStyle name="常规 2 4 3" xfId="437"/>
     <cellStyle name="常规 2 4 4" xfId="438"/>
     <cellStyle name="常规 2 4 5" xfId="439"/>
-    <cellStyle name="常规 59 3" xfId="440"/>
+    <cellStyle name="常规 2 4 5 2" xfId="440"/>
     <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="441"/>
-    <cellStyle name="常规 2 4 5 2" xfId="442"/>
+    <cellStyle name="常规 59 3" xfId="442"/>
     <cellStyle name="常规 25" xfId="443"/>
     <cellStyle name="常规 30" xfId="444"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="445"/>
-    <cellStyle name="常规 3" xfId="446"/>
+    <cellStyle name="常规 3" xfId="445"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="446"/>
     <cellStyle name="常规 3 2 2" xfId="447"/>
     <cellStyle name="常规 3 4" xfId="448"/>
     <cellStyle name="常规 3 5" xfId="449"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="450"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="451"/>
-    <cellStyle name="常规 3 6" xfId="452"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="453"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="454"/>
-    <cellStyle name="常规 3 7" xfId="455"/>
+    <cellStyle name="常规 3 6" xfId="450"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="451"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="452"/>
+    <cellStyle name="常规 3 7" xfId="453"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="454"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="455"/>
     <cellStyle name="常规 3 8" xfId="456"/>
     <cellStyle name="常规 35 2" xfId="457"/>
     <cellStyle name="常规 4 2" xfId="458"/>
@@ -5378,10 +5378,10 @@
     <cellStyle name="常规 53" xfId="494"/>
     <cellStyle name="常规 48 2 2" xfId="495"/>
     <cellStyle name="常规 53 2 2" xfId="496"/>
-    <cellStyle name="常规 49" xfId="497"/>
-    <cellStyle name="常规 54" xfId="498"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="499"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="500"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="497"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="498"/>
+    <cellStyle name="常规 49" xfId="499"/>
+    <cellStyle name="常规 54" xfId="500"/>
     <cellStyle name="常规 49 2 2" xfId="501"/>
     <cellStyle name="常规 54 2 2" xfId="502"/>
     <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="503"/>
@@ -5392,220 +5392,220 @@
     <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="508"/>
     <cellStyle name="常规 5 3" xfId="509"/>
     <cellStyle name="常规 5 4" xfId="510"/>
-    <cellStyle name="常规 51 3" xfId="511"/>
-    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="512"/>
+    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="511"/>
+    <cellStyle name="常规 51 3" xfId="512"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="513"/>
-    <cellStyle name="常规 55 2" xfId="514"/>
-    <cellStyle name="常规 60 2" xfId="515"/>
-    <cellStyle name="常规 55 2 2" xfId="516"/>
-    <cellStyle name="常规 60 2 2" xfId="517"/>
-    <cellStyle name="常规 55 3" xfId="518"/>
-    <cellStyle name="常规 60 3" xfId="519"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="520"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="521"/>
-    <cellStyle name="常规 56" xfId="522"/>
-    <cellStyle name="常规 61" xfId="523"/>
-    <cellStyle name="常规 56 2" xfId="524"/>
-    <cellStyle name="常规 61 2" xfId="525"/>
-    <cellStyle name="常规 56 2 2" xfId="526"/>
-    <cellStyle name="常规 61 2 2" xfId="527"/>
-    <cellStyle name="常规 62" xfId="528"/>
-    <cellStyle name="常规 57" xfId="529"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="531"/>
-    <cellStyle name="常规 63 2 2" xfId="532"/>
-    <cellStyle name="常规 58 2 2" xfId="533"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="534"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="535"/>
-    <cellStyle name="常规 63 3" xfId="536"/>
-    <cellStyle name="常规 58 3" xfId="537"/>
+    <cellStyle name="常规 60 2" xfId="514"/>
+    <cellStyle name="常规 55 2" xfId="515"/>
+    <cellStyle name="常规 60 2 2" xfId="516"/>
+    <cellStyle name="常规 55 2 2" xfId="517"/>
+    <cellStyle name="常规 60 3" xfId="518"/>
+    <cellStyle name="常规 55 3" xfId="519"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="520"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="521"/>
+    <cellStyle name="常规 61" xfId="522"/>
+    <cellStyle name="常规 56" xfId="523"/>
+    <cellStyle name="常规 61 2" xfId="524"/>
+    <cellStyle name="常规 56 2" xfId="525"/>
+    <cellStyle name="常规 61 2 2" xfId="526"/>
+    <cellStyle name="常规 56 2 2" xfId="527"/>
+    <cellStyle name="常规 57" xfId="528"/>
+    <cellStyle name="常规 62" xfId="529"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="531"/>
+    <cellStyle name="常规 58 2 2" xfId="532"/>
+    <cellStyle name="常规 63 2 2" xfId="533"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="534"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="535"/>
+    <cellStyle name="常规 58 3" xfId="536"/>
+    <cellStyle name="常规 63 3" xfId="537"/>
     <cellStyle name="常规 6 2" xfId="538"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="539"/>
+    <cellStyle name="常规 6 3" xfId="539"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="540"/>
-    <cellStyle name="常规 6 3" xfId="541"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="541"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="542"/>
-    <cellStyle name="常规 70" xfId="543"/>
-    <cellStyle name="常规 65" xfId="544"/>
-    <cellStyle name="常规 70 2" xfId="545"/>
-    <cellStyle name="常规 65 2" xfId="546"/>
-    <cellStyle name="常规 97 3" xfId="547"/>
+    <cellStyle name="常规 65" xfId="543"/>
+    <cellStyle name="常规 70" xfId="544"/>
+    <cellStyle name="常规 65 2" xfId="545"/>
+    <cellStyle name="常规 70 2" xfId="546"/>
+    <cellStyle name="常规 65 2 2" xfId="547"/>
     <cellStyle name="常规 70 2 2" xfId="548"/>
-    <cellStyle name="常规 65 2 2" xfId="549"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="550"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="551"/>
-    <cellStyle name="常规 70 3" xfId="552"/>
-    <cellStyle name="常规 65 3" xfId="553"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 71" xfId="556"/>
-    <cellStyle name="常规 66" xfId="557"/>
-    <cellStyle name="常规 71 2" xfId="558"/>
-    <cellStyle name="常规 66 2" xfId="559"/>
-    <cellStyle name="常规 71 2 2" xfId="560"/>
-    <cellStyle name="常规 66 2 2" xfId="561"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="563"/>
-    <cellStyle name="样式 1" xfId="564"/>
+    <cellStyle name="常规 97 3" xfId="549"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="550"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="551"/>
+    <cellStyle name="常规 65 3" xfId="552"/>
+    <cellStyle name="常规 70 3" xfId="553"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 66" xfId="556"/>
+    <cellStyle name="常规 71" xfId="557"/>
+    <cellStyle name="常规 66 2" xfId="558"/>
+    <cellStyle name="常规 71 2" xfId="559"/>
+    <cellStyle name="常规 66 2 2" xfId="560"/>
+    <cellStyle name="常规 71 2 2" xfId="561"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="常规 66 3" xfId="564"/>
     <cellStyle name="常规 71 3" xfId="565"/>
-    <cellStyle name="常规 66 3" xfId="566"/>
-    <cellStyle name="常规 72" xfId="567"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="568"/>
-    <cellStyle name="常规 67" xfId="569"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="570"/>
-    <cellStyle name="常规 72 2" xfId="571"/>
-    <cellStyle name="常规 67 2" xfId="572"/>
-    <cellStyle name="常规 72 2 2" xfId="573"/>
-    <cellStyle name="常规 67 2 2" xfId="574"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 72 3" xfId="577"/>
-    <cellStyle name="常规 67 3" xfId="578"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="579"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="580"/>
-    <cellStyle name="常规 73" xfId="581"/>
-    <cellStyle name="常规 68" xfId="582"/>
-    <cellStyle name="常规 73 2" xfId="583"/>
-    <cellStyle name="常规 68 2" xfId="584"/>
-    <cellStyle name="常规 73 2 2" xfId="585"/>
-    <cellStyle name="常规 68 2 2" xfId="586"/>
-    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="587"/>
-    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="588"/>
-    <cellStyle name="常规 73 3" xfId="589"/>
-    <cellStyle name="常规 68 3" xfId="590"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 74" xfId="593"/>
-    <cellStyle name="常规 69" xfId="594"/>
-    <cellStyle name="常规 74 2" xfId="595"/>
-    <cellStyle name="常规 69 2" xfId="596"/>
-    <cellStyle name="常规 74 2 2" xfId="597"/>
-    <cellStyle name="常规 69 2 2" xfId="598"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="599"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="600"/>
-    <cellStyle name="常规 74 3" xfId="601"/>
-    <cellStyle name="常规 69 3" xfId="602"/>
-    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="603"/>
-    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="604"/>
+    <cellStyle name="样式 1" xfId="566"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="567"/>
+    <cellStyle name="常规 67" xfId="568"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="569"/>
+    <cellStyle name="常规 72" xfId="570"/>
+    <cellStyle name="常规 67 2" xfId="571"/>
+    <cellStyle name="常规 72 2" xfId="572"/>
+    <cellStyle name="常规 67 2 2" xfId="573"/>
+    <cellStyle name="常规 72 2 2" xfId="574"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 67 3" xfId="577"/>
+    <cellStyle name="常规 72 3" xfId="578"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="579"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="580"/>
+    <cellStyle name="常规 68" xfId="581"/>
+    <cellStyle name="常规 73" xfId="582"/>
+    <cellStyle name="常规 68 2" xfId="583"/>
+    <cellStyle name="常规 73 2" xfId="584"/>
+    <cellStyle name="常规 68 2 2" xfId="585"/>
+    <cellStyle name="常规 73 2 2" xfId="586"/>
+    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="587"/>
+    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="588"/>
+    <cellStyle name="常规 68 3" xfId="589"/>
+    <cellStyle name="常规 73 3" xfId="590"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 69" xfId="593"/>
+    <cellStyle name="常规 74" xfId="594"/>
+    <cellStyle name="常规 69 2" xfId="595"/>
+    <cellStyle name="常规 74 2" xfId="596"/>
+    <cellStyle name="常规 69 2 2" xfId="597"/>
+    <cellStyle name="常规 74 2 2" xfId="598"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="599"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="600"/>
+    <cellStyle name="常规 69 3" xfId="601"/>
+    <cellStyle name="常规 74 3" xfId="602"/>
+    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="603"/>
+    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="604"/>
     <cellStyle name="常规 7" xfId="605"/>
     <cellStyle name="常规 7 2" xfId="606"/>
     <cellStyle name="常规 7 3" xfId="607"/>
     <cellStyle name="常规 7_ITDM3.2期数据库设计汇总" xfId="608"/>
-    <cellStyle name="常规 80" xfId="609"/>
-    <cellStyle name="常规 75" xfId="610"/>
-    <cellStyle name="常规 80 2" xfId="611"/>
-    <cellStyle name="常规 75 2" xfId="612"/>
-    <cellStyle name="常规 80 2 2" xfId="613"/>
-    <cellStyle name="常规 75 2 2" xfId="614"/>
-    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="615"/>
-    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="616"/>
-    <cellStyle name="常规 80 3" xfId="617"/>
-    <cellStyle name="常规 75 3" xfId="618"/>
-    <cellStyle name="常规 81" xfId="619"/>
-    <cellStyle name="常规 76" xfId="620"/>
-    <cellStyle name="常规 81 2" xfId="621"/>
-    <cellStyle name="常规 76 2" xfId="622"/>
-    <cellStyle name="常规 81 2 2" xfId="623"/>
-    <cellStyle name="常规 76 2 2" xfId="624"/>
-    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="625"/>
-    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="626"/>
-    <cellStyle name="常规 81 3" xfId="627"/>
-    <cellStyle name="常规 76 3" xfId="628"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="630"/>
-    <cellStyle name="常规 82" xfId="631"/>
-    <cellStyle name="常规 77" xfId="632"/>
-    <cellStyle name="常规 82 2" xfId="633"/>
-    <cellStyle name="常规 77 2" xfId="634"/>
-    <cellStyle name="常规 82 2 2" xfId="635"/>
-    <cellStyle name="常规 77 2 2" xfId="636"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="637"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="638"/>
-    <cellStyle name="常规 82 3" xfId="639"/>
-    <cellStyle name="常规 77 3" xfId="640"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="641"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="642"/>
-    <cellStyle name="常规 83 2" xfId="643"/>
-    <cellStyle name="常规 78 2" xfId="644"/>
-    <cellStyle name="常规 83 2 2" xfId="645"/>
-    <cellStyle name="常规 78 2 2" xfId="646"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="647"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="648"/>
-    <cellStyle name="常规 83 3" xfId="649"/>
-    <cellStyle name="常规 78 3" xfId="650"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="651"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="652"/>
-    <cellStyle name="常规 84" xfId="653"/>
-    <cellStyle name="常规 79" xfId="654"/>
-    <cellStyle name="常规 84 2" xfId="655"/>
-    <cellStyle name="常规 79 2" xfId="656"/>
-    <cellStyle name="常规 84 2 2" xfId="657"/>
-    <cellStyle name="常规 79 2 2" xfId="658"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="659"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="660"/>
-    <cellStyle name="常规 84 3" xfId="661"/>
-    <cellStyle name="常规 79 3" xfId="662"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 75" xfId="609"/>
+    <cellStyle name="常规 80" xfId="610"/>
+    <cellStyle name="常规 75 2" xfId="611"/>
+    <cellStyle name="常规 80 2" xfId="612"/>
+    <cellStyle name="常规 75 2 2" xfId="613"/>
+    <cellStyle name="常规 80 2 2" xfId="614"/>
+    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="615"/>
+    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="616"/>
+    <cellStyle name="常规 75 3" xfId="617"/>
+    <cellStyle name="常规 80 3" xfId="618"/>
+    <cellStyle name="常规 76" xfId="619"/>
+    <cellStyle name="常规 81" xfId="620"/>
+    <cellStyle name="常规 76 2" xfId="621"/>
+    <cellStyle name="常规 81 2" xfId="622"/>
+    <cellStyle name="常规 76 2 2" xfId="623"/>
+    <cellStyle name="常规 81 2 2" xfId="624"/>
+    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="625"/>
+    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="626"/>
+    <cellStyle name="常规 76 3" xfId="627"/>
+    <cellStyle name="常规 81 3" xfId="628"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="630"/>
+    <cellStyle name="常规 77" xfId="631"/>
+    <cellStyle name="常规 82" xfId="632"/>
+    <cellStyle name="常规 77 2" xfId="633"/>
+    <cellStyle name="常规 82 2" xfId="634"/>
+    <cellStyle name="常规 77 2 2" xfId="635"/>
+    <cellStyle name="常规 82 2 2" xfId="636"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="637"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="638"/>
+    <cellStyle name="常规 77 3" xfId="639"/>
+    <cellStyle name="常规 82 3" xfId="640"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="641"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="642"/>
+    <cellStyle name="常规 78 2" xfId="643"/>
+    <cellStyle name="常规 83 2" xfId="644"/>
+    <cellStyle name="常规 78 2 2" xfId="645"/>
+    <cellStyle name="常规 83 2 2" xfId="646"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="647"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="648"/>
+    <cellStyle name="常规 78 3" xfId="649"/>
+    <cellStyle name="常规 83 3" xfId="650"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="651"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="652"/>
+    <cellStyle name="常规 79" xfId="653"/>
+    <cellStyle name="常规 84" xfId="654"/>
+    <cellStyle name="常规 79 2" xfId="655"/>
+    <cellStyle name="常规 84 2" xfId="656"/>
+    <cellStyle name="常规 79 2 2" xfId="657"/>
+    <cellStyle name="常规 84 2 2" xfId="658"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="659"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="660"/>
+    <cellStyle name="常规 79 3" xfId="661"/>
+    <cellStyle name="常规 84 3" xfId="662"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="664"/>
     <cellStyle name="常规 8" xfId="665"/>
     <cellStyle name="常规 8 2" xfId="666"/>
-    <cellStyle name="常规 90 2" xfId="667"/>
-    <cellStyle name="常规 85 2" xfId="668"/>
-    <cellStyle name="常规 90 2 2" xfId="669"/>
-    <cellStyle name="常规 85 2 2" xfId="670"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 90 3" xfId="673"/>
-    <cellStyle name="常规 85 3" xfId="674"/>
-    <cellStyle name="常规 96 3" xfId="675"/>
+    <cellStyle name="常规 85 2" xfId="667"/>
+    <cellStyle name="常规 90 2" xfId="668"/>
+    <cellStyle name="常规 85 2 2" xfId="669"/>
+    <cellStyle name="常规 90 2 2" xfId="670"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 85 3" xfId="673"/>
+    <cellStyle name="常规 90 3" xfId="674"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="675"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="676"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="677"/>
-    <cellStyle name="常规 91" xfId="678"/>
-    <cellStyle name="常规 86" xfId="679"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="680"/>
-    <cellStyle name="常规 91 2" xfId="681"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="682"/>
-    <cellStyle name="常规 86 2" xfId="683"/>
-    <cellStyle name="常规 91 2 2" xfId="684"/>
-    <cellStyle name="常规 86 2 2" xfId="685"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="686"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="687"/>
-    <cellStyle name="常规 91 3" xfId="688"/>
-    <cellStyle name="常规 86 3" xfId="689"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="690"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="691"/>
-    <cellStyle name="常规 92" xfId="692"/>
-    <cellStyle name="常规 87" xfId="693"/>
-    <cellStyle name="常规 92 2" xfId="694"/>
-    <cellStyle name="常规 87 2" xfId="695"/>
-    <cellStyle name="常规 92 2 2" xfId="696"/>
-    <cellStyle name="常规 87 2 2" xfId="697"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="698"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="699"/>
-    <cellStyle name="常规 92 3" xfId="700"/>
-    <cellStyle name="常规 87 3" xfId="701"/>
-    <cellStyle name="常规 93" xfId="702"/>
-    <cellStyle name="常规 88" xfId="703"/>
-    <cellStyle name="常规 93 2" xfId="704"/>
-    <cellStyle name="常规 88 2" xfId="705"/>
-    <cellStyle name="常规 93 2 2" xfId="706"/>
-    <cellStyle name="常规 88 2 2" xfId="707"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="708"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="709"/>
-    <cellStyle name="常规 93 3" xfId="710"/>
-    <cellStyle name="常规 88 3" xfId="711"/>
-    <cellStyle name="常规 94" xfId="712"/>
-    <cellStyle name="常规 89" xfId="713"/>
-    <cellStyle name="常规 94 2" xfId="714"/>
-    <cellStyle name="常规 89 2" xfId="715"/>
-    <cellStyle name="常规 98" xfId="716"/>
+    <cellStyle name="常规 96 3" xfId="677"/>
+    <cellStyle name="常规 86" xfId="678"/>
+    <cellStyle name="常规 91" xfId="679"/>
+    <cellStyle name="常规 86 2" xfId="680"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="681"/>
+    <cellStyle name="常规 91 2" xfId="682"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="683"/>
+    <cellStyle name="常规 86 2 2" xfId="684"/>
+    <cellStyle name="常规 91 2 2" xfId="685"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="686"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="687"/>
+    <cellStyle name="常规 86 3" xfId="688"/>
+    <cellStyle name="常规 91 3" xfId="689"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="690"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="691"/>
+    <cellStyle name="常规 87" xfId="692"/>
+    <cellStyle name="常规 92" xfId="693"/>
+    <cellStyle name="常规 87 2" xfId="694"/>
+    <cellStyle name="常规 92 2" xfId="695"/>
+    <cellStyle name="常规 87 2 2" xfId="696"/>
+    <cellStyle name="常规 92 2 2" xfId="697"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="698"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="699"/>
+    <cellStyle name="常规 87 3" xfId="700"/>
+    <cellStyle name="常规 92 3" xfId="701"/>
+    <cellStyle name="常规 88" xfId="702"/>
+    <cellStyle name="常规 93" xfId="703"/>
+    <cellStyle name="常规 88 2" xfId="704"/>
+    <cellStyle name="常规 93 2" xfId="705"/>
+    <cellStyle name="常规 88 2 2" xfId="706"/>
+    <cellStyle name="常规 93 2 2" xfId="707"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="708"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="709"/>
+    <cellStyle name="常规 88 3" xfId="710"/>
+    <cellStyle name="常规 93 3" xfId="711"/>
+    <cellStyle name="常规 89" xfId="712"/>
+    <cellStyle name="常规 94" xfId="713"/>
+    <cellStyle name="常规 89 2" xfId="714"/>
+    <cellStyle name="常规 94 2" xfId="715"/>
+    <cellStyle name="常规 89 2 2" xfId="716"/>
     <cellStyle name="常规 94 2 2" xfId="717"/>
-    <cellStyle name="常规 89 2 2" xfId="718"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="719"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="720"/>
-    <cellStyle name="常规 94 3" xfId="721"/>
-    <cellStyle name="常规 89 3" xfId="722"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="724"/>
+    <cellStyle name="常规 98" xfId="718"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="719"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="720"/>
+    <cellStyle name="常规 89 3" xfId="721"/>
+    <cellStyle name="常规 94 3" xfId="722"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="724"/>
     <cellStyle name="常规 9" xfId="725"/>
     <cellStyle name="常规 9 2" xfId="726"/>
     <cellStyle name="常规 95" xfId="727"/>
@@ -5636,12 +5636,12 @@
     <cellStyle name="超链接 12" xfId="752"/>
     <cellStyle name="超链接 13" xfId="753"/>
     <cellStyle name="超链接 14" xfId="754"/>
-    <cellStyle name="超链接 20" xfId="755"/>
-    <cellStyle name="超链接 15" xfId="756"/>
-    <cellStyle name="超链接 21" xfId="757"/>
-    <cellStyle name="超链接 16" xfId="758"/>
-    <cellStyle name="超链接 22" xfId="759"/>
-    <cellStyle name="超链接 17" xfId="760"/>
+    <cellStyle name="超链接 15" xfId="755"/>
+    <cellStyle name="超链接 20" xfId="756"/>
+    <cellStyle name="超链接 16" xfId="757"/>
+    <cellStyle name="超链接 21" xfId="758"/>
+    <cellStyle name="超链接 17" xfId="759"/>
+    <cellStyle name="超链接 22" xfId="760"/>
     <cellStyle name="超链接 18" xfId="761"/>
     <cellStyle name="超链接 19" xfId="762"/>
     <cellStyle name="超链接 2" xfId="763"/>
@@ -10175,8 +10175,8 @@
   </sheetPr>
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="C28:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="11.25"/>
@@ -13497,7 +13497,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
+      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/sql/华夏ERP数据库设计汇总.xlsx
+++ b/sql/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8820" tabRatio="915" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="27840" windowHeight="9855" tabRatio="915" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -43,7 +43,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">目录!$A$1:$K$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">修订记录!$A$1:$M$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">修订记录!$A$1:$M$85</definedName>
     <definedName name="押品与债项拆分信息_对公_go" localSheetId="0">'[1]押品与债项拆分信息(对公)'!#REF!</definedName>
     <definedName name="押品与债项拆分信息_对公_go">'[1]押品与债项拆分信息(对公)'!#REF!</definedName>
     <definedName name="押品与债项关系_对公_go" localSheetId="0">'[1]押品与债项关系(对公)'!#REF!</definedName>
@@ -847,7 +847,7 @@
     <t>修改数据</t>
   </si>
   <si>
-    <t>update jsh_materialcategory set ParentId='-1' where id='1'</t>
+    <t>update jsh_materialcategory set ParentId='-1' where id='1';</t>
   </si>
   <si>
     <t>修改根目录父节点id为-1</t>
@@ -856,7 +856,7 @@
     <t>删除数据</t>
   </si>
   <si>
-    <t>delete from jsh_functions where id in (213,214,215,216)</t>
+    <t>delete from jsh_functions where id in (213,214,215,216);</t>
   </si>
   <si>
     <t>新增数据</t>
@@ -1747,9 +1747,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
@@ -1877,6 +1877,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1884,11 +1899,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1900,7 +1913,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1922,16 +1935,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1946,35 +1951,13 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1982,66 +1965,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2056,17 +1989,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2075,15 +2069,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2095,14 +2106,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2115,27 +2120,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2159,11 +2152,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color indexed="62"/>
@@ -2171,8 +2159,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2225,7 +2225,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2237,13 +2369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,55 +2381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2315,19 +2399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2339,7 +2417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2351,97 +2435,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2454,42 +2490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,13 +2518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2555,24 +2559,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2593,25 +2602,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2634,8 +2634,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2659,36 +2677,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2722,831 +2711,842 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="49" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3567,33 +3567,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3622,192 +3622,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3825,37 +3825,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3883,801 +3883,805 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -4685,110 +4689,106 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4877,45 +4877,45 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4924,46 +4924,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="284" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 28" xfId="1"/>
-    <cellStyle name="?? 33" xfId="2"/>
+    <cellStyle name="?? 33" xfId="1"/>
+    <cellStyle name="?? 28" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
     <cellStyle name="?? 185 2 2" xfId="4"/>
-    <cellStyle name="常规 39" xfId="5"/>
-    <cellStyle name="常规 44" xfId="6"/>
+    <cellStyle name="常规 44" xfId="5"/>
+    <cellStyle name="常规 39" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 15" xfId="10"/>
-    <cellStyle name="?? 20" xfId="11"/>
+    <cellStyle name="?? 20" xfId="10"/>
+    <cellStyle name="?? 15" xfId="11"/>
     <cellStyle name="千位分隔[0]" xfId="12" builtinId="6"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="13"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="13"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
     <cellStyle name="常规 2 26" xfId="15"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="16" builtinId="39"/>
     <cellStyle name="差" xfId="17" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="18" builtinId="3"/>
-    <cellStyle name="?? 11" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="19" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="20"/>
+    <cellStyle name="?? 11" xfId="21"/>
     <cellStyle name="超链接" xfId="22" builtinId="8"/>
     <cellStyle name="百分比" xfId="23" builtinId="5"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
@@ -4992,19 +4992,19 @@
     <cellStyle name="输出" xfId="47" builtinId="21"/>
     <cellStyle name="常规 90" xfId="48"/>
     <cellStyle name="常规 85" xfId="49"/>
-    <cellStyle name="常规 26" xfId="50"/>
-    <cellStyle name="常规 31" xfId="51"/>
+    <cellStyle name="计算" xfId="50" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="51"/>
     <cellStyle name="Input" xfId="52"/>
-    <cellStyle name="计算" xfId="53" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="54"/>
+    <cellStyle name="常规 26" xfId="53"/>
+    <cellStyle name="常规 31" xfId="54"/>
     <cellStyle name="检查单元格" xfId="55" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="56" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="57" builtinId="33"/>
     <cellStyle name="链接单元格" xfId="58" builtinId="24"/>
     <cellStyle name="汇总" xfId="59" builtinId="25"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="61"/>
-    <cellStyle name="20% - Accent3 2" xfId="62"/>
+    <cellStyle name="20% - Accent3 2" xfId="61"/>
+    <cellStyle name="Heading 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="65" builtinId="29"/>
@@ -5016,8 +5016,8 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="常规 2 26 2" xfId="74"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="75"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="74"/>
+    <cellStyle name="常规 2 26 2" xfId="75"/>
     <cellStyle name="强调文字颜色 3" xfId="76" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="77" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="78" builtinId="42"/>
@@ -5037,25 +5037,25 @@
     <cellStyle name="?? 17" xfId="92"/>
     <cellStyle name="?? 22" xfId="93"/>
     <cellStyle name="?? 13" xfId="94"/>
-    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="95"/>
-    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="96"/>
-    <cellStyle name="?? 14" xfId="97"/>
+    <cellStyle name="?? 14" xfId="95"/>
+    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="96"/>
+    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="97"/>
     <cellStyle name="??" xfId="98"/>
-    <cellStyle name="40% - Accent5" xfId="99"/>
-    <cellStyle name="?? 10 2" xfId="100"/>
-    <cellStyle name="常规 2 2 3 2" xfId="101"/>
-    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="102"/>
-    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="103"/>
-    <cellStyle name="?? 16" xfId="104"/>
-    <cellStyle name="?? 21" xfId="105"/>
+    <cellStyle name="?? 10 2" xfId="99"/>
+    <cellStyle name="40% - Accent5" xfId="100"/>
+    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="101"/>
+    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="102"/>
+    <cellStyle name="?? 16" xfId="103"/>
+    <cellStyle name="?? 21" xfId="104"/>
+    <cellStyle name="常规 2 2 3 2" xfId="105"/>
     <cellStyle name="?? 18" xfId="106"/>
     <cellStyle name="?? 23" xfId="107"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="108"/>
-    <cellStyle name="?? 185" xfId="109"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="110"/>
+    <cellStyle name="?? 185" xfId="108"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="109"/>
+    <cellStyle name="?? 185 2" xfId="110"/>
     <cellStyle name="?? 26" xfId="111"/>
     <cellStyle name="?? 31" xfId="112"/>
-    <cellStyle name="?? 185 2" xfId="113"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="113"/>
     <cellStyle name="?? 19" xfId="114"/>
     <cellStyle name="?? 24" xfId="115"/>
     <cellStyle name="?? 25" xfId="116"/>
@@ -5064,73 +5064,73 @@
     <cellStyle name="?? 32" xfId="119"/>
     <cellStyle name="?? 29" xfId="120"/>
     <cellStyle name="?? 34" xfId="121"/>
-    <cellStyle name="常规 27" xfId="122"/>
-    <cellStyle name="常规 32" xfId="123"/>
-    <cellStyle name="?? 3" xfId="124"/>
+    <cellStyle name="?? 3" xfId="122"/>
+    <cellStyle name="常规 27" xfId="123"/>
+    <cellStyle name="常规 32" xfId="124"/>
     <cellStyle name="?? 35" xfId="125"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="126"/>
-    <cellStyle name="?? 36" xfId="127"/>
-    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="128"/>
-    <cellStyle name="?? 37" xfId="129"/>
+    <cellStyle name="?? 36" xfId="126"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="127"/>
+    <cellStyle name="?? 37" xfId="128"/>
+    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="129"/>
     <cellStyle name="?? 38" xfId="130"/>
-    <cellStyle name="常规 62 2" xfId="131"/>
-    <cellStyle name="常规 57 2" xfId="132"/>
-    <cellStyle name="常规 28" xfId="133"/>
-    <cellStyle name="常规 33" xfId="134"/>
-    <cellStyle name="?? 4" xfId="135"/>
-    <cellStyle name="常规 62 3" xfId="136"/>
-    <cellStyle name="常规 57 3" xfId="137"/>
+    <cellStyle name="?? 4" xfId="131"/>
+    <cellStyle name="常规 28" xfId="132"/>
+    <cellStyle name="常规 33" xfId="133"/>
+    <cellStyle name="常规 62 2" xfId="134"/>
+    <cellStyle name="常规 57 2" xfId="135"/>
+    <cellStyle name="?? 5" xfId="136"/>
+    <cellStyle name="常规 2 4 3 2" xfId="137"/>
     <cellStyle name="常规 29" xfId="138"/>
     <cellStyle name="常规 34" xfId="139"/>
-    <cellStyle name="常规 2 4 3 2" xfId="140"/>
-    <cellStyle name="?? 5" xfId="141"/>
-    <cellStyle name="常规 35" xfId="142"/>
-    <cellStyle name="常规 40" xfId="143"/>
-    <cellStyle name="?? 6" xfId="144"/>
-    <cellStyle name="常规 36" xfId="145"/>
-    <cellStyle name="常规 41" xfId="146"/>
-    <cellStyle name="?? 7" xfId="147"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="148"/>
-    <cellStyle name="常规 37" xfId="149"/>
-    <cellStyle name="常规 42" xfId="150"/>
-    <cellStyle name="常规 2 2 2" xfId="151"/>
-    <cellStyle name="?? 8" xfId="152"/>
-    <cellStyle name="常规 38" xfId="153"/>
-    <cellStyle name="常规 43" xfId="154"/>
-    <cellStyle name="常规 2 2 3" xfId="155"/>
-    <cellStyle name="?? 9" xfId="156"/>
+    <cellStyle name="常规 62 3" xfId="140"/>
+    <cellStyle name="常规 57 3" xfId="141"/>
+    <cellStyle name="?? 6" xfId="142"/>
+    <cellStyle name="常规 35" xfId="143"/>
+    <cellStyle name="常规 40" xfId="144"/>
+    <cellStyle name="?? 7" xfId="145"/>
+    <cellStyle name="常规 36" xfId="146"/>
+    <cellStyle name="常规 41" xfId="147"/>
+    <cellStyle name="?? 8" xfId="148"/>
+    <cellStyle name="常规 2 2 2" xfId="149"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="150"/>
+    <cellStyle name="常规 37" xfId="151"/>
+    <cellStyle name="常规 42" xfId="152"/>
+    <cellStyle name="?? 9" xfId="153"/>
+    <cellStyle name="常规 2 2 3" xfId="154"/>
+    <cellStyle name="常规 38" xfId="155"/>
+    <cellStyle name="常规 43" xfId="156"/>
     <cellStyle name="??_Sheet1" xfId="157"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="158"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="159"/>
-    <cellStyle name="常规 10 2 2 4 2" xfId="160"/>
-    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="161"/>
-    <cellStyle name="20% - Accent1" xfId="162"/>
+    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="160"/>
+    <cellStyle name="20% - Accent1" xfId="161"/>
+    <cellStyle name="常规 10 2 2 4 2" xfId="162"/>
     <cellStyle name="20% - Accent1 2" xfId="163"/>
     <cellStyle name="20% - Accent2" xfId="164"/>
     <cellStyle name="20% - Accent2 2" xfId="165"/>
     <cellStyle name="20% - Accent3" xfId="166"/>
-    <cellStyle name="常规 5 3 2" xfId="167"/>
-    <cellStyle name="20% - Accent4" xfId="168"/>
-    <cellStyle name="常规 4" xfId="169"/>
-    <cellStyle name="20% - Accent4 2" xfId="170"/>
+    <cellStyle name="20% - Accent4" xfId="167"/>
+    <cellStyle name="常规 5 3 2" xfId="168"/>
+    <cellStyle name="20% - Accent4 2" xfId="169"/>
+    <cellStyle name="常规 4" xfId="170"/>
     <cellStyle name="20% - Accent5" xfId="171"/>
     <cellStyle name="20% - Accent5 2" xfId="172"/>
-    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="173"/>
-    <cellStyle name="20% - Accent6" xfId="174"/>
+    <cellStyle name="20% - Accent6" xfId="173"/>
+    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="174"/>
     <cellStyle name="20% - Accent6 2" xfId="175"/>
-    <cellStyle name="常规 63" xfId="176"/>
-    <cellStyle name="常规 58" xfId="177"/>
-    <cellStyle name="40% - Accent1" xfId="178"/>
-    <cellStyle name="常规 63 2" xfId="179"/>
-    <cellStyle name="常规 58 2" xfId="180"/>
-    <cellStyle name="常规 83" xfId="181"/>
-    <cellStyle name="常规 78" xfId="182"/>
-    <cellStyle name="40% - Accent1 2" xfId="183"/>
-    <cellStyle name="常规 64" xfId="184"/>
-    <cellStyle name="常规 59" xfId="185"/>
-    <cellStyle name="40% - Accent2" xfId="186"/>
-    <cellStyle name="常规 59 2" xfId="187"/>
-    <cellStyle name="40% - Accent2 2" xfId="188"/>
+    <cellStyle name="40% - Accent1" xfId="176"/>
+    <cellStyle name="常规 63" xfId="177"/>
+    <cellStyle name="常规 58" xfId="178"/>
+    <cellStyle name="常规 83" xfId="179"/>
+    <cellStyle name="常规 78" xfId="180"/>
+    <cellStyle name="40% - Accent1 2" xfId="181"/>
+    <cellStyle name="常规 63 2" xfId="182"/>
+    <cellStyle name="常规 58 2" xfId="183"/>
+    <cellStyle name="40% - Accent2" xfId="184"/>
+    <cellStyle name="常规 64" xfId="185"/>
+    <cellStyle name="常规 59" xfId="186"/>
+    <cellStyle name="40% - Accent2 2" xfId="187"/>
+    <cellStyle name="常规 59 2" xfId="188"/>
     <cellStyle name="40% - Accent3" xfId="189"/>
     <cellStyle name="40% - Accent3 2" xfId="190"/>
     <cellStyle name="40% - Accent4" xfId="191"/>
@@ -5138,105 +5138,105 @@
     <cellStyle name="40% - Accent5 2" xfId="193"/>
     <cellStyle name="40% - Accent6" xfId="194"/>
     <cellStyle name="40% - Accent6 2" xfId="195"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="196"/>
-    <cellStyle name="60% - Accent1" xfId="197"/>
-    <cellStyle name="常规 2 2" xfId="198"/>
-    <cellStyle name="60% - Accent2" xfId="199"/>
-    <cellStyle name="常规 2 3" xfId="200"/>
+    <cellStyle name="60% - Accent1" xfId="196"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="197"/>
+    <cellStyle name="60% - Accent2" xfId="198"/>
+    <cellStyle name="常规 2 2" xfId="199"/>
+    <cellStyle name="60% - Accent3" xfId="200"/>
     <cellStyle name="常规 10 2 4 2" xfId="201"/>
-    <cellStyle name="60% - Accent3" xfId="202"/>
-    <cellStyle name="常规 2 4" xfId="203"/>
-    <cellStyle name="60% - Accent4" xfId="204"/>
-    <cellStyle name="常规 2 5" xfId="205"/>
-    <cellStyle name="60% - Accent5" xfId="206"/>
-    <cellStyle name="常规 2 6" xfId="207"/>
-    <cellStyle name="60% - Accent6" xfId="208"/>
+    <cellStyle name="常规 2 3" xfId="202"/>
+    <cellStyle name="60% - Accent4" xfId="203"/>
+    <cellStyle name="常规 2 4" xfId="204"/>
+    <cellStyle name="60% - Accent5" xfId="205"/>
+    <cellStyle name="常规 2 5" xfId="206"/>
+    <cellStyle name="60% - Accent6" xfId="207"/>
+    <cellStyle name="常规 2 6" xfId="208"/>
     <cellStyle name="Accent1" xfId="209"/>
     <cellStyle name="Accent2" xfId="210"/>
-    <cellStyle name="常规 102 2" xfId="211"/>
-    <cellStyle name="Accent3" xfId="212"/>
-    <cellStyle name="常规 102 3" xfId="213"/>
-    <cellStyle name="Accent4" xfId="214"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="215"/>
-    <cellStyle name="Accent5" xfId="216"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="217"/>
-    <cellStyle name="Accent6" xfId="218"/>
-    <cellStyle name="常规 2 3 2" xfId="219"/>
-    <cellStyle name="Bad" xfId="220"/>
-    <cellStyle name="常规 36 2" xfId="221"/>
+    <cellStyle name="Accent3" xfId="211"/>
+    <cellStyle name="常规 102 2" xfId="212"/>
+    <cellStyle name="Accent4" xfId="213"/>
+    <cellStyle name="常规 102 3" xfId="214"/>
+    <cellStyle name="Accent5" xfId="215"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="216"/>
+    <cellStyle name="Accent6" xfId="217"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="218"/>
+    <cellStyle name="Bad" xfId="219"/>
+    <cellStyle name="常规 2 3 2" xfId="220"/>
+    <cellStyle name="Calculation" xfId="221"/>
     <cellStyle name="常规 106" xfId="222"/>
     <cellStyle name="常规 111" xfId="223"/>
-    <cellStyle name="Calculation" xfId="224"/>
-    <cellStyle name="常规 15" xfId="225"/>
-    <cellStyle name="常规 20" xfId="226"/>
-    <cellStyle name="Check Cell" xfId="227"/>
+    <cellStyle name="常规 36 2" xfId="224"/>
+    <cellStyle name="Check Cell" xfId="225"/>
+    <cellStyle name="常规 15" xfId="226"/>
+    <cellStyle name="常规 20" xfId="227"/>
     <cellStyle name="Explanatory Text" xfId="228"/>
-    <cellStyle name="常规 16 2" xfId="229"/>
-    <cellStyle name="Good" xfId="230"/>
-    <cellStyle name="常规 10" xfId="231"/>
+    <cellStyle name="Good" xfId="229"/>
+    <cellStyle name="常规 10" xfId="230"/>
+    <cellStyle name="常规 16 2" xfId="231"/>
     <cellStyle name="Heading 1" xfId="232"/>
     <cellStyle name="Heading 2" xfId="233"/>
     <cellStyle name="Heading 4" xfId="234"/>
     <cellStyle name="Linked Cell" xfId="235"/>
     <cellStyle name="Neutral" xfId="236"/>
-    <cellStyle name="常规 115" xfId="237"/>
-    <cellStyle name="常规 120" xfId="238"/>
-    <cellStyle name="Normal 2" xfId="239"/>
-    <cellStyle name="常规 120 2" xfId="240"/>
-    <cellStyle name="Normal 2 2" xfId="241"/>
+    <cellStyle name="Normal 2" xfId="237"/>
+    <cellStyle name="常规 115" xfId="238"/>
+    <cellStyle name="常规 120" xfId="239"/>
+    <cellStyle name="Normal 2 2" xfId="240"/>
+    <cellStyle name="常规 120 2" xfId="241"/>
     <cellStyle name="Normal 2 3" xfId="242"/>
-    <cellStyle name="Normal 3" xfId="243"/>
-    <cellStyle name="常规 3 7 2" xfId="244"/>
-    <cellStyle name="常规 116" xfId="245"/>
-    <cellStyle name="常规 121" xfId="246"/>
+    <cellStyle name="常规 116" xfId="243"/>
+    <cellStyle name="常规 121" xfId="244"/>
+    <cellStyle name="Normal 3" xfId="245"/>
+    <cellStyle name="常规 3 7 2" xfId="246"/>
     <cellStyle name="Normal 3 2" xfId="247"/>
     <cellStyle name="Normal_CEB EDW_任务跟踪管理" xfId="248"/>
-    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="249"/>
-    <cellStyle name="Note" xfId="250"/>
+    <cellStyle name="Note" xfId="249"/>
+    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="250"/>
     <cellStyle name="Note 2" xfId="251"/>
     <cellStyle name="Output" xfId="252"/>
     <cellStyle name="常规 4 2 3 4" xfId="253"/>
-    <cellStyle name="常规 2" xfId="254"/>
-    <cellStyle name="Title" xfId="255"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="256"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="257"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="258"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="259"/>
-    <cellStyle name="Total" xfId="260"/>
+    <cellStyle name="Title" xfId="254"/>
+    <cellStyle name="常规 2" xfId="255"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="256"/>
+    <cellStyle name="Total" xfId="257"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="258"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="259"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="260"/>
     <cellStyle name="Warning Text" xfId="261"/>
-    <cellStyle name="常规 10 2 2 3 2" xfId="262"/>
-    <cellStyle name="百分比 2" xfId="263"/>
+    <cellStyle name="百分比 2" xfId="262"/>
+    <cellStyle name="常规 10 2 2 3 2" xfId="263"/>
     <cellStyle name="差_RDM_RWA_P-F_数据映射_V0.0" xfId="264"/>
     <cellStyle name="差_RDM_零售_P-F_数据映射_V1.0" xfId="265"/>
     <cellStyle name="差_Sheet1" xfId="266"/>
     <cellStyle name="差_Sheet1 2" xfId="267"/>
     <cellStyle name="差_Sheet2" xfId="268"/>
-    <cellStyle name="差_Sheet3" xfId="269"/>
-    <cellStyle name="常规 3 2" xfId="270"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="271"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="269"/>
+    <cellStyle name="差_Sheet3" xfId="270"/>
+    <cellStyle name="常规 3 2" xfId="271"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="272"/>
     <cellStyle name="常规 96" xfId="273"/>
     <cellStyle name="差_保函明细" xfId="274"/>
     <cellStyle name="差_对公资产监管经济资本表" xfId="275"/>
-    <cellStyle name="常规 45 2 2" xfId="276"/>
-    <cellStyle name="常规 50 2 2" xfId="277"/>
-    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="278"/>
+    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="276"/>
+    <cellStyle name="常规 45 2 2" xfId="277"/>
+    <cellStyle name="常规 50 2 2" xfId="278"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="279"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="280"/>
-    <cellStyle name="常规 51 2" xfId="281"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="282"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="281"/>
+    <cellStyle name="常规 51 2" xfId="282"/>
     <cellStyle name="常规 10 2" xfId="283"/>
-    <cellStyle name="常规 2 7" xfId="284"/>
-    <cellStyle name="常规 10 2 2" xfId="285"/>
+    <cellStyle name="常规 10 2 2" xfId="284"/>
+    <cellStyle name="常规 2 7" xfId="285"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="286"/>
     <cellStyle name="常规 10 2 2 2" xfId="287"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="288"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="289"/>
-    <cellStyle name="常规 10 2 2 2 3 3" xfId="290"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="291"/>
-    <cellStyle name="常规 47" xfId="292"/>
-    <cellStyle name="常规 52" xfId="293"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="294"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="290"/>
+    <cellStyle name="常规 10 2 2 2 3 3" xfId="291"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="292"/>
+    <cellStyle name="常规 47" xfId="293"/>
+    <cellStyle name="常规 52" xfId="294"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="295"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="296"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="297"/>
@@ -5257,8 +5257,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="312"/>
     <cellStyle name="常规 10 2 2 6" xfId="313"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="314"/>
-    <cellStyle name="常规 2 8" xfId="315"/>
-    <cellStyle name="常规 10 2 3" xfId="316"/>
+    <cellStyle name="常规 10 2 3" xfId="315"/>
+    <cellStyle name="常规 2 8" xfId="316"/>
     <cellStyle name="常规 10 2 3 2" xfId="317"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="318"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="319"/>
@@ -5271,14 +5271,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="326"/>
     <cellStyle name="常规 10 2 3 4" xfId="327"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="328"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="329"/>
+    <cellStyle name="常规 10 2 3 5" xfId="329"/>
     <cellStyle name="常规 2 10" xfId="330"/>
-    <cellStyle name="常规 10 2 3 5" xfId="331"/>
-    <cellStyle name="常规 2 9" xfId="332"/>
-    <cellStyle name="常规 10 2 4" xfId="333"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="331"/>
+    <cellStyle name="常规 10 2 4" xfId="332"/>
+    <cellStyle name="常规 2 9" xfId="333"/>
     <cellStyle name="常规 10 2 5" xfId="334"/>
-    <cellStyle name="常规 3 3" xfId="335"/>
-    <cellStyle name="常规 10 2 5 2" xfId="336"/>
+    <cellStyle name="常规 10 2 5 2" xfId="335"/>
+    <cellStyle name="常规 3 3" xfId="336"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="337"/>
     <cellStyle name="常规 100" xfId="338"/>
     <cellStyle name="常规 4 2 3" xfId="339"/>
@@ -5297,8 +5297,8 @@
     <cellStyle name="常规 101 2" xfId="352"/>
     <cellStyle name="常规 4 6 2" xfId="353"/>
     <cellStyle name="常规 101 2 2" xfId="354"/>
-    <cellStyle name="常规 101 3" xfId="355"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="356"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="355"/>
+    <cellStyle name="常规 101 3" xfId="356"/>
     <cellStyle name="常规 102" xfId="357"/>
     <cellStyle name="常规 4 2 5" xfId="358"/>
     <cellStyle name="常规 4 7" xfId="359"/>
@@ -5333,23 +5333,23 @@
     <cellStyle name="常规 21" xfId="388"/>
     <cellStyle name="常规 17" xfId="389"/>
     <cellStyle name="常规 22" xfId="390"/>
-    <cellStyle name="常规 55" xfId="391"/>
-    <cellStyle name="常规 60" xfId="392"/>
-    <cellStyle name="常规 17 2" xfId="393"/>
+    <cellStyle name="常规 17 2" xfId="391"/>
+    <cellStyle name="常规 55" xfId="392"/>
+    <cellStyle name="常规 60" xfId="393"/>
     <cellStyle name="常规 18" xfId="394"/>
     <cellStyle name="常规 23" xfId="395"/>
     <cellStyle name="常规 18 2" xfId="396"/>
-    <cellStyle name="常规 51 2 2" xfId="397"/>
-    <cellStyle name="常规 19" xfId="398"/>
-    <cellStyle name="常规 24" xfId="399"/>
+    <cellStyle name="常规 19" xfId="397"/>
+    <cellStyle name="常规 24" xfId="398"/>
+    <cellStyle name="常规 51 2 2" xfId="399"/>
     <cellStyle name="常规 2 11" xfId="400"/>
     <cellStyle name="常规 2 12" xfId="401"/>
     <cellStyle name="常规 2 13" xfId="402"/>
     <cellStyle name="常规 2 14" xfId="403"/>
-    <cellStyle name="常规 62 2 2" xfId="404"/>
-    <cellStyle name="常规 57 2 2" xfId="405"/>
-    <cellStyle name="常规 2 15" xfId="406"/>
-    <cellStyle name="常规 2 20" xfId="407"/>
+    <cellStyle name="常规 2 15" xfId="404"/>
+    <cellStyle name="常规 2 20" xfId="405"/>
+    <cellStyle name="常规 62 2 2" xfId="406"/>
+    <cellStyle name="常规 57 2 2" xfId="407"/>
     <cellStyle name="常规 2 16" xfId="408"/>
     <cellStyle name="常规 2 21" xfId="409"/>
     <cellStyle name="常规 2 16 2" xfId="410"/>
@@ -5365,12 +5365,12 @@
     <cellStyle name="常规 2 25" xfId="420"/>
     <cellStyle name="常规 2 3 3" xfId="421"/>
     <cellStyle name="常规 2 3 4" xfId="422"/>
-    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="423"/>
-    <cellStyle name="常规 2 3 4 2" xfId="424"/>
+    <cellStyle name="常规 2 3 4 2" xfId="423"/>
+    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="424"/>
     <cellStyle name="常规 2 4 2" xfId="425"/>
-    <cellStyle name="常规 56 3" xfId="426"/>
-    <cellStyle name="常规 61 3" xfId="427"/>
-    <cellStyle name="常规 2 4 2 2" xfId="428"/>
+    <cellStyle name="常规 2 4 2 2" xfId="426"/>
+    <cellStyle name="常规 56 3" xfId="427"/>
+    <cellStyle name="常规 61 3" xfId="428"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="429"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="430"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="431"/>
@@ -5382,22 +5382,22 @@
     <cellStyle name="常规 2 4 3" xfId="437"/>
     <cellStyle name="常规 2 4 4" xfId="438"/>
     <cellStyle name="常规 2 4 5" xfId="439"/>
-    <cellStyle name="常规 59 3" xfId="440"/>
+    <cellStyle name="常规 2 4 5 2" xfId="440"/>
     <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="441"/>
-    <cellStyle name="常规 2 4 5 2" xfId="442"/>
+    <cellStyle name="常规 59 3" xfId="442"/>
     <cellStyle name="常规 25" xfId="443"/>
     <cellStyle name="常规 30" xfId="444"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="445"/>
-    <cellStyle name="常规 3" xfId="446"/>
+    <cellStyle name="常规 3" xfId="445"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="446"/>
     <cellStyle name="常规 3 2 2" xfId="447"/>
     <cellStyle name="常规 3 4" xfId="448"/>
     <cellStyle name="常规 3 5" xfId="449"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="450"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="451"/>
-    <cellStyle name="常规 3 6" xfId="452"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="453"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="454"/>
-    <cellStyle name="常规 3 7" xfId="455"/>
+    <cellStyle name="常规 3 6" xfId="450"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="451"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="452"/>
+    <cellStyle name="常规 3 7" xfId="453"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="454"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="455"/>
     <cellStyle name="常规 3 8" xfId="456"/>
     <cellStyle name="常规 35 2" xfId="457"/>
     <cellStyle name="常规 4 2" xfId="458"/>
@@ -5439,10 +5439,10 @@
     <cellStyle name="常规 53" xfId="494"/>
     <cellStyle name="常规 48 2 2" xfId="495"/>
     <cellStyle name="常规 53 2 2" xfId="496"/>
-    <cellStyle name="常规 49" xfId="497"/>
-    <cellStyle name="常规 54" xfId="498"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="499"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="500"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="497"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="498"/>
+    <cellStyle name="常规 49" xfId="499"/>
+    <cellStyle name="常规 54" xfId="500"/>
     <cellStyle name="常规 49 2 2" xfId="501"/>
     <cellStyle name="常规 54 2 2" xfId="502"/>
     <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="503"/>
@@ -5453,220 +5453,220 @@
     <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="508"/>
     <cellStyle name="常规 5 3" xfId="509"/>
     <cellStyle name="常规 5 4" xfId="510"/>
-    <cellStyle name="常规 51 3" xfId="511"/>
-    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="512"/>
+    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="511"/>
+    <cellStyle name="常规 51 3" xfId="512"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="513"/>
-    <cellStyle name="常规 55 2" xfId="514"/>
-    <cellStyle name="常规 60 2" xfId="515"/>
-    <cellStyle name="常规 55 2 2" xfId="516"/>
-    <cellStyle name="常规 60 2 2" xfId="517"/>
-    <cellStyle name="常规 55 3" xfId="518"/>
-    <cellStyle name="常规 60 3" xfId="519"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="520"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="521"/>
-    <cellStyle name="常规 56" xfId="522"/>
-    <cellStyle name="常规 61" xfId="523"/>
-    <cellStyle name="常规 56 2" xfId="524"/>
-    <cellStyle name="常规 61 2" xfId="525"/>
-    <cellStyle name="常规 56 2 2" xfId="526"/>
-    <cellStyle name="常规 61 2 2" xfId="527"/>
-    <cellStyle name="常规 62" xfId="528"/>
-    <cellStyle name="常规 57" xfId="529"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="531"/>
-    <cellStyle name="常规 63 2 2" xfId="532"/>
-    <cellStyle name="常规 58 2 2" xfId="533"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="534"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="535"/>
-    <cellStyle name="常规 63 3" xfId="536"/>
-    <cellStyle name="常规 58 3" xfId="537"/>
+    <cellStyle name="常规 60 2" xfId="514"/>
+    <cellStyle name="常规 55 2" xfId="515"/>
+    <cellStyle name="常规 60 2 2" xfId="516"/>
+    <cellStyle name="常规 55 2 2" xfId="517"/>
+    <cellStyle name="常规 60 3" xfId="518"/>
+    <cellStyle name="常规 55 3" xfId="519"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="520"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="521"/>
+    <cellStyle name="常规 61" xfId="522"/>
+    <cellStyle name="常规 56" xfId="523"/>
+    <cellStyle name="常规 61 2" xfId="524"/>
+    <cellStyle name="常规 56 2" xfId="525"/>
+    <cellStyle name="常规 61 2 2" xfId="526"/>
+    <cellStyle name="常规 56 2 2" xfId="527"/>
+    <cellStyle name="常规 57" xfId="528"/>
+    <cellStyle name="常规 62" xfId="529"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="531"/>
+    <cellStyle name="常规 58 2 2" xfId="532"/>
+    <cellStyle name="常规 63 2 2" xfId="533"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="534"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="535"/>
+    <cellStyle name="常规 58 3" xfId="536"/>
+    <cellStyle name="常规 63 3" xfId="537"/>
     <cellStyle name="常规 6 2" xfId="538"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="539"/>
+    <cellStyle name="常规 6 3" xfId="539"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="540"/>
-    <cellStyle name="常规 6 3" xfId="541"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="541"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="542"/>
-    <cellStyle name="常规 70" xfId="543"/>
-    <cellStyle name="常规 65" xfId="544"/>
-    <cellStyle name="常规 70 2" xfId="545"/>
-    <cellStyle name="常规 65 2" xfId="546"/>
-    <cellStyle name="常规 97 3" xfId="547"/>
+    <cellStyle name="常规 65" xfId="543"/>
+    <cellStyle name="常规 70" xfId="544"/>
+    <cellStyle name="常规 65 2" xfId="545"/>
+    <cellStyle name="常规 70 2" xfId="546"/>
+    <cellStyle name="常规 65 2 2" xfId="547"/>
     <cellStyle name="常规 70 2 2" xfId="548"/>
-    <cellStyle name="常规 65 2 2" xfId="549"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="550"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="551"/>
-    <cellStyle name="常规 70 3" xfId="552"/>
-    <cellStyle name="常规 65 3" xfId="553"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 71" xfId="556"/>
-    <cellStyle name="常规 66" xfId="557"/>
-    <cellStyle name="常规 71 2" xfId="558"/>
-    <cellStyle name="常规 66 2" xfId="559"/>
-    <cellStyle name="常规 71 2 2" xfId="560"/>
-    <cellStyle name="常规 66 2 2" xfId="561"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="563"/>
-    <cellStyle name="样式 1" xfId="564"/>
+    <cellStyle name="常规 97 3" xfId="549"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="550"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="551"/>
+    <cellStyle name="常规 65 3" xfId="552"/>
+    <cellStyle name="常规 70 3" xfId="553"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 66" xfId="556"/>
+    <cellStyle name="常规 71" xfId="557"/>
+    <cellStyle name="常规 66 2" xfId="558"/>
+    <cellStyle name="常规 71 2" xfId="559"/>
+    <cellStyle name="常规 66 2 2" xfId="560"/>
+    <cellStyle name="常规 71 2 2" xfId="561"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="常规 66 3" xfId="564"/>
     <cellStyle name="常规 71 3" xfId="565"/>
-    <cellStyle name="常规 66 3" xfId="566"/>
-    <cellStyle name="常规 72" xfId="567"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="568"/>
-    <cellStyle name="常规 67" xfId="569"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="570"/>
-    <cellStyle name="常规 72 2" xfId="571"/>
-    <cellStyle name="常规 67 2" xfId="572"/>
-    <cellStyle name="常规 72 2 2" xfId="573"/>
-    <cellStyle name="常规 67 2 2" xfId="574"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 72 3" xfId="577"/>
-    <cellStyle name="常规 67 3" xfId="578"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="579"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="580"/>
-    <cellStyle name="常规 73" xfId="581"/>
-    <cellStyle name="常规 68" xfId="582"/>
-    <cellStyle name="常规 73 2" xfId="583"/>
-    <cellStyle name="常规 68 2" xfId="584"/>
-    <cellStyle name="常规 73 2 2" xfId="585"/>
-    <cellStyle name="常规 68 2 2" xfId="586"/>
-    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="587"/>
-    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="588"/>
-    <cellStyle name="常规 73 3" xfId="589"/>
-    <cellStyle name="常规 68 3" xfId="590"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 74" xfId="593"/>
-    <cellStyle name="常规 69" xfId="594"/>
-    <cellStyle name="常规 74 2" xfId="595"/>
-    <cellStyle name="常规 69 2" xfId="596"/>
-    <cellStyle name="常规 74 2 2" xfId="597"/>
-    <cellStyle name="常规 69 2 2" xfId="598"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="599"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="600"/>
-    <cellStyle name="常规 74 3" xfId="601"/>
-    <cellStyle name="常规 69 3" xfId="602"/>
-    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="603"/>
-    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="604"/>
+    <cellStyle name="样式 1" xfId="566"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="567"/>
+    <cellStyle name="常规 67" xfId="568"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="569"/>
+    <cellStyle name="常规 72" xfId="570"/>
+    <cellStyle name="常规 67 2" xfId="571"/>
+    <cellStyle name="常规 72 2" xfId="572"/>
+    <cellStyle name="常规 67 2 2" xfId="573"/>
+    <cellStyle name="常规 72 2 2" xfId="574"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 67 3" xfId="577"/>
+    <cellStyle name="常规 72 3" xfId="578"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="579"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="580"/>
+    <cellStyle name="常规 68" xfId="581"/>
+    <cellStyle name="常规 73" xfId="582"/>
+    <cellStyle name="常规 68 2" xfId="583"/>
+    <cellStyle name="常规 73 2" xfId="584"/>
+    <cellStyle name="常规 68 2 2" xfId="585"/>
+    <cellStyle name="常规 73 2 2" xfId="586"/>
+    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="587"/>
+    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="588"/>
+    <cellStyle name="常规 68 3" xfId="589"/>
+    <cellStyle name="常规 73 3" xfId="590"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 69" xfId="593"/>
+    <cellStyle name="常规 74" xfId="594"/>
+    <cellStyle name="常规 69 2" xfId="595"/>
+    <cellStyle name="常规 74 2" xfId="596"/>
+    <cellStyle name="常规 69 2 2" xfId="597"/>
+    <cellStyle name="常规 74 2 2" xfId="598"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="599"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="600"/>
+    <cellStyle name="常规 69 3" xfId="601"/>
+    <cellStyle name="常规 74 3" xfId="602"/>
+    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="603"/>
+    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="604"/>
     <cellStyle name="常规 7" xfId="605"/>
     <cellStyle name="常规 7 2" xfId="606"/>
     <cellStyle name="常规 7 3" xfId="607"/>
     <cellStyle name="常规 7_ITDM3.2期数据库设计汇总" xfId="608"/>
-    <cellStyle name="常规 80" xfId="609"/>
-    <cellStyle name="常规 75" xfId="610"/>
-    <cellStyle name="常规 80 2" xfId="611"/>
-    <cellStyle name="常规 75 2" xfId="612"/>
-    <cellStyle name="常规 80 2 2" xfId="613"/>
-    <cellStyle name="常规 75 2 2" xfId="614"/>
-    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="615"/>
-    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="616"/>
-    <cellStyle name="常规 80 3" xfId="617"/>
-    <cellStyle name="常规 75 3" xfId="618"/>
-    <cellStyle name="常规 81" xfId="619"/>
-    <cellStyle name="常规 76" xfId="620"/>
-    <cellStyle name="常规 81 2" xfId="621"/>
-    <cellStyle name="常规 76 2" xfId="622"/>
-    <cellStyle name="常规 81 2 2" xfId="623"/>
-    <cellStyle name="常规 76 2 2" xfId="624"/>
-    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="625"/>
-    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="626"/>
-    <cellStyle name="常规 81 3" xfId="627"/>
-    <cellStyle name="常规 76 3" xfId="628"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="630"/>
-    <cellStyle name="常规 82" xfId="631"/>
-    <cellStyle name="常规 77" xfId="632"/>
-    <cellStyle name="常规 82 2" xfId="633"/>
-    <cellStyle name="常规 77 2" xfId="634"/>
-    <cellStyle name="常规 82 2 2" xfId="635"/>
-    <cellStyle name="常规 77 2 2" xfId="636"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="637"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="638"/>
-    <cellStyle name="常规 82 3" xfId="639"/>
-    <cellStyle name="常规 77 3" xfId="640"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="641"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="642"/>
-    <cellStyle name="常规 83 2" xfId="643"/>
-    <cellStyle name="常规 78 2" xfId="644"/>
-    <cellStyle name="常规 83 2 2" xfId="645"/>
-    <cellStyle name="常规 78 2 2" xfId="646"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="647"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="648"/>
-    <cellStyle name="常规 83 3" xfId="649"/>
-    <cellStyle name="常规 78 3" xfId="650"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="651"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="652"/>
-    <cellStyle name="常规 84" xfId="653"/>
-    <cellStyle name="常规 79" xfId="654"/>
-    <cellStyle name="常规 84 2" xfId="655"/>
-    <cellStyle name="常规 79 2" xfId="656"/>
-    <cellStyle name="常规 84 2 2" xfId="657"/>
-    <cellStyle name="常规 79 2 2" xfId="658"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="659"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="660"/>
-    <cellStyle name="常规 84 3" xfId="661"/>
-    <cellStyle name="常规 79 3" xfId="662"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 75" xfId="609"/>
+    <cellStyle name="常规 80" xfId="610"/>
+    <cellStyle name="常规 75 2" xfId="611"/>
+    <cellStyle name="常规 80 2" xfId="612"/>
+    <cellStyle name="常规 75 2 2" xfId="613"/>
+    <cellStyle name="常规 80 2 2" xfId="614"/>
+    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="615"/>
+    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="616"/>
+    <cellStyle name="常规 75 3" xfId="617"/>
+    <cellStyle name="常规 80 3" xfId="618"/>
+    <cellStyle name="常规 76" xfId="619"/>
+    <cellStyle name="常规 81" xfId="620"/>
+    <cellStyle name="常规 76 2" xfId="621"/>
+    <cellStyle name="常规 81 2" xfId="622"/>
+    <cellStyle name="常规 76 2 2" xfId="623"/>
+    <cellStyle name="常规 81 2 2" xfId="624"/>
+    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="625"/>
+    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="626"/>
+    <cellStyle name="常规 76 3" xfId="627"/>
+    <cellStyle name="常规 81 3" xfId="628"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="630"/>
+    <cellStyle name="常规 77" xfId="631"/>
+    <cellStyle name="常规 82" xfId="632"/>
+    <cellStyle name="常规 77 2" xfId="633"/>
+    <cellStyle name="常规 82 2" xfId="634"/>
+    <cellStyle name="常规 77 2 2" xfId="635"/>
+    <cellStyle name="常规 82 2 2" xfId="636"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="637"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="638"/>
+    <cellStyle name="常规 77 3" xfId="639"/>
+    <cellStyle name="常规 82 3" xfId="640"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="641"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="642"/>
+    <cellStyle name="常规 78 2" xfId="643"/>
+    <cellStyle name="常规 83 2" xfId="644"/>
+    <cellStyle name="常规 78 2 2" xfId="645"/>
+    <cellStyle name="常规 83 2 2" xfId="646"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="647"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="648"/>
+    <cellStyle name="常规 78 3" xfId="649"/>
+    <cellStyle name="常规 83 3" xfId="650"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="651"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="652"/>
+    <cellStyle name="常规 79" xfId="653"/>
+    <cellStyle name="常规 84" xfId="654"/>
+    <cellStyle name="常规 79 2" xfId="655"/>
+    <cellStyle name="常规 84 2" xfId="656"/>
+    <cellStyle name="常规 79 2 2" xfId="657"/>
+    <cellStyle name="常规 84 2 2" xfId="658"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="659"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="660"/>
+    <cellStyle name="常规 79 3" xfId="661"/>
+    <cellStyle name="常规 84 3" xfId="662"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="664"/>
     <cellStyle name="常规 8" xfId="665"/>
     <cellStyle name="常规 8 2" xfId="666"/>
-    <cellStyle name="常规 90 2" xfId="667"/>
-    <cellStyle name="常规 85 2" xfId="668"/>
-    <cellStyle name="常规 90 2 2" xfId="669"/>
-    <cellStyle name="常规 85 2 2" xfId="670"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 90 3" xfId="673"/>
-    <cellStyle name="常规 85 3" xfId="674"/>
-    <cellStyle name="常规 96 3" xfId="675"/>
+    <cellStyle name="常规 85 2" xfId="667"/>
+    <cellStyle name="常规 90 2" xfId="668"/>
+    <cellStyle name="常规 85 2 2" xfId="669"/>
+    <cellStyle name="常规 90 2 2" xfId="670"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 85 3" xfId="673"/>
+    <cellStyle name="常规 90 3" xfId="674"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="675"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="676"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="677"/>
-    <cellStyle name="常规 91" xfId="678"/>
-    <cellStyle name="常规 86" xfId="679"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="680"/>
-    <cellStyle name="常规 91 2" xfId="681"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="682"/>
-    <cellStyle name="常规 86 2" xfId="683"/>
-    <cellStyle name="常规 91 2 2" xfId="684"/>
-    <cellStyle name="常规 86 2 2" xfId="685"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="686"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="687"/>
-    <cellStyle name="常规 91 3" xfId="688"/>
-    <cellStyle name="常规 86 3" xfId="689"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="690"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="691"/>
-    <cellStyle name="常规 92" xfId="692"/>
-    <cellStyle name="常规 87" xfId="693"/>
-    <cellStyle name="常规 92 2" xfId="694"/>
-    <cellStyle name="常规 87 2" xfId="695"/>
-    <cellStyle name="常规 92 2 2" xfId="696"/>
-    <cellStyle name="常规 87 2 2" xfId="697"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="698"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="699"/>
-    <cellStyle name="常规 92 3" xfId="700"/>
-    <cellStyle name="常规 87 3" xfId="701"/>
-    <cellStyle name="常规 93" xfId="702"/>
-    <cellStyle name="常规 88" xfId="703"/>
-    <cellStyle name="常规 93 2" xfId="704"/>
-    <cellStyle name="常规 88 2" xfId="705"/>
-    <cellStyle name="常规 93 2 2" xfId="706"/>
-    <cellStyle name="常规 88 2 2" xfId="707"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="708"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="709"/>
-    <cellStyle name="常规 93 3" xfId="710"/>
-    <cellStyle name="常规 88 3" xfId="711"/>
-    <cellStyle name="常规 94" xfId="712"/>
-    <cellStyle name="常规 89" xfId="713"/>
-    <cellStyle name="常规 94 2" xfId="714"/>
-    <cellStyle name="常规 89 2" xfId="715"/>
-    <cellStyle name="常规 98" xfId="716"/>
+    <cellStyle name="常规 96 3" xfId="677"/>
+    <cellStyle name="常规 86" xfId="678"/>
+    <cellStyle name="常规 91" xfId="679"/>
+    <cellStyle name="常规 86 2" xfId="680"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="681"/>
+    <cellStyle name="常规 91 2" xfId="682"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="683"/>
+    <cellStyle name="常规 86 2 2" xfId="684"/>
+    <cellStyle name="常规 91 2 2" xfId="685"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="686"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="687"/>
+    <cellStyle name="常规 86 3" xfId="688"/>
+    <cellStyle name="常规 91 3" xfId="689"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="690"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="691"/>
+    <cellStyle name="常规 87" xfId="692"/>
+    <cellStyle name="常规 92" xfId="693"/>
+    <cellStyle name="常规 87 2" xfId="694"/>
+    <cellStyle name="常规 92 2" xfId="695"/>
+    <cellStyle name="常规 87 2 2" xfId="696"/>
+    <cellStyle name="常规 92 2 2" xfId="697"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="698"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="699"/>
+    <cellStyle name="常规 87 3" xfId="700"/>
+    <cellStyle name="常规 92 3" xfId="701"/>
+    <cellStyle name="常规 88" xfId="702"/>
+    <cellStyle name="常规 93" xfId="703"/>
+    <cellStyle name="常规 88 2" xfId="704"/>
+    <cellStyle name="常规 93 2" xfId="705"/>
+    <cellStyle name="常规 88 2 2" xfId="706"/>
+    <cellStyle name="常规 93 2 2" xfId="707"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="708"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="709"/>
+    <cellStyle name="常规 88 3" xfId="710"/>
+    <cellStyle name="常规 93 3" xfId="711"/>
+    <cellStyle name="常规 89" xfId="712"/>
+    <cellStyle name="常规 94" xfId="713"/>
+    <cellStyle name="常规 89 2" xfId="714"/>
+    <cellStyle name="常规 94 2" xfId="715"/>
+    <cellStyle name="常规 89 2 2" xfId="716"/>
     <cellStyle name="常规 94 2 2" xfId="717"/>
-    <cellStyle name="常规 89 2 2" xfId="718"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="719"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="720"/>
-    <cellStyle name="常规 94 3" xfId="721"/>
-    <cellStyle name="常规 89 3" xfId="722"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="724"/>
+    <cellStyle name="常规 98" xfId="718"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="719"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="720"/>
+    <cellStyle name="常规 89 3" xfId="721"/>
+    <cellStyle name="常规 94 3" xfId="722"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="724"/>
     <cellStyle name="常规 9" xfId="725"/>
     <cellStyle name="常规 9 2" xfId="726"/>
     <cellStyle name="常规 95" xfId="727"/>
@@ -5697,12 +5697,12 @@
     <cellStyle name="超链接 12" xfId="752"/>
     <cellStyle name="超链接 13" xfId="753"/>
     <cellStyle name="超链接 14" xfId="754"/>
-    <cellStyle name="超链接 20" xfId="755"/>
-    <cellStyle name="超链接 15" xfId="756"/>
-    <cellStyle name="超链接 21" xfId="757"/>
-    <cellStyle name="超链接 16" xfId="758"/>
-    <cellStyle name="超链接 22" xfId="759"/>
-    <cellStyle name="超链接 17" xfId="760"/>
+    <cellStyle name="超链接 15" xfId="755"/>
+    <cellStyle name="超链接 20" xfId="756"/>
+    <cellStyle name="超链接 16" xfId="757"/>
+    <cellStyle name="超链接 21" xfId="758"/>
+    <cellStyle name="超链接 17" xfId="759"/>
+    <cellStyle name="超链接 22" xfId="760"/>
     <cellStyle name="超链接 18" xfId="761"/>
     <cellStyle name="超链接 19" xfId="762"/>
     <cellStyle name="超链接 2" xfId="763"/>
@@ -10236,8 +10236,8 @@
   </sheetPr>
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="C18:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="11.25"/>
@@ -13693,10 +13693,10 @@
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
+      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15478,7 +15478,7 @@
     <row r="86" ht="20.1" customHeight="1"/>
     <row r="87" ht="20.1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:M83">
+  <autoFilter ref="A1:M85">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/sql/华夏ERP数据库设计汇总.xlsx
+++ b/sql/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="9855" tabRatio="915" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="27840" windowHeight="9855" tabRatio="915" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -862,8 +862,8 @@
     <t>新增数据</t>
   </si>
   <si>
-    <t>insert into `jsh_functions` values ('242', '050202', '采购订单', '0502', '../materials/purchase_orders_list.html', b'0', '0335',b'1', '电脑版', '');
-insert into `jsh_functions` values ('243', '060301', '销售订单', '0603', '../materials/sale_orders_list.html', b'0', '0392', b'1', '电脑版', '');</t>
+    <t>insert into `jsh_functions`(`Number`, `Name`, `PNumber`, `URL`, `State`, `Sort`, `Enabled`, `Type`, `PushBtn`) VALUES ('050202', '采购订单', '0502', '../materials/purchase_orders_list.html', b'0', '0335',b'1', '电脑版', '');
+insert into `jsh_functions`(`Number`, `Name`, `PNumber`, `URL`, `State`, `Sort`, `Enabled`, `Type`, `PushBtn`) VALUES ('060301', '销售订单', '0603', '../materials/sale_orders_list.html', b'0', '0392', b'1', '电脑版', '');</t>
   </si>
   <si>
     <t>列名</t>
@@ -1748,10 +1748,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -1877,16 +1877,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1899,9 +1903,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1911,12 +1924,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1936,38 +1954,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1980,16 +1989,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2000,22 +2001,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2028,9 +2016,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2045,18 +2032,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
@@ -2064,20 +2039,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2088,6 +2111,24 @@
     <font>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2106,26 +2147,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -2138,16 +2159,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2159,20 +2171,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2225,19 +2225,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2249,19 +2255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2273,85 +2267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2369,7 +2285,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2387,13 +2381,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2405,31 +2459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2441,37 +2477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,12 +2490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,6 +2518,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2542,28 +2553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2602,15 +2602,56 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2658,21 +2699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2696,857 +2722,831 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="49" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3567,33 +3567,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3622,192 +3622,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3825,37 +3825,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3883,805 +3883,801 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -4689,106 +4685,110 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4877,45 +4877,45 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4924,46 +4924,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="284" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 33" xfId="1"/>
-    <cellStyle name="?? 28" xfId="2"/>
+    <cellStyle name="?? 28" xfId="1"/>
+    <cellStyle name="?? 33" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
     <cellStyle name="?? 185 2 2" xfId="4"/>
-    <cellStyle name="常规 44" xfId="5"/>
-    <cellStyle name="常规 39" xfId="6"/>
+    <cellStyle name="常规 39" xfId="5"/>
+    <cellStyle name="常规 44" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 20" xfId="10"/>
-    <cellStyle name="?? 15" xfId="11"/>
+    <cellStyle name="?? 15" xfId="10"/>
+    <cellStyle name="?? 20" xfId="11"/>
     <cellStyle name="千位分隔[0]" xfId="12" builtinId="6"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="13"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="13"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
     <cellStyle name="常规 2 26" xfId="15"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="16" builtinId="39"/>
     <cellStyle name="差" xfId="17" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="18" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="19" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="20"/>
-    <cellStyle name="?? 11" xfId="21"/>
+    <cellStyle name="?? 11" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
     <cellStyle name="超链接" xfId="22" builtinId="8"/>
     <cellStyle name="百分比" xfId="23" builtinId="5"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
@@ -4992,19 +4992,19 @@
     <cellStyle name="输出" xfId="47" builtinId="21"/>
     <cellStyle name="常规 90" xfId="48"/>
     <cellStyle name="常规 85" xfId="49"/>
-    <cellStyle name="计算" xfId="50" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="51"/>
+    <cellStyle name="常规 26" xfId="50"/>
+    <cellStyle name="常规 31" xfId="51"/>
     <cellStyle name="Input" xfId="52"/>
-    <cellStyle name="常规 26" xfId="53"/>
-    <cellStyle name="常规 31" xfId="54"/>
+    <cellStyle name="计算" xfId="53" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="54"/>
     <cellStyle name="检查单元格" xfId="55" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="56" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="57" builtinId="33"/>
     <cellStyle name="链接单元格" xfId="58" builtinId="24"/>
     <cellStyle name="汇总" xfId="59" builtinId="25"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="20% - Accent3 2" xfId="61"/>
-    <cellStyle name="Heading 3" xfId="62"/>
+    <cellStyle name="Heading 3" xfId="61"/>
+    <cellStyle name="20% - Accent3 2" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="65" builtinId="29"/>
@@ -5016,8 +5016,8 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="74"/>
-    <cellStyle name="常规 2 26 2" xfId="75"/>
+    <cellStyle name="常规 2 26 2" xfId="74"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="75"/>
     <cellStyle name="强调文字颜色 3" xfId="76" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="77" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="78" builtinId="42"/>
@@ -5037,25 +5037,25 @@
     <cellStyle name="?? 17" xfId="92"/>
     <cellStyle name="?? 22" xfId="93"/>
     <cellStyle name="?? 13" xfId="94"/>
-    <cellStyle name="?? 14" xfId="95"/>
-    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="96"/>
-    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="97"/>
+    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="95"/>
+    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="96"/>
+    <cellStyle name="?? 14" xfId="97"/>
     <cellStyle name="??" xfId="98"/>
-    <cellStyle name="?? 10 2" xfId="99"/>
-    <cellStyle name="40% - Accent5" xfId="100"/>
-    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="101"/>
-    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="102"/>
-    <cellStyle name="?? 16" xfId="103"/>
-    <cellStyle name="?? 21" xfId="104"/>
-    <cellStyle name="常规 2 2 3 2" xfId="105"/>
+    <cellStyle name="40% - Accent5" xfId="99"/>
+    <cellStyle name="?? 10 2" xfId="100"/>
+    <cellStyle name="常规 2 2 3 2" xfId="101"/>
+    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="102"/>
+    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="103"/>
+    <cellStyle name="?? 16" xfId="104"/>
+    <cellStyle name="?? 21" xfId="105"/>
     <cellStyle name="?? 18" xfId="106"/>
     <cellStyle name="?? 23" xfId="107"/>
-    <cellStyle name="?? 185" xfId="108"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="109"/>
-    <cellStyle name="?? 185 2" xfId="110"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="108"/>
+    <cellStyle name="?? 185" xfId="109"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="110"/>
     <cellStyle name="?? 26" xfId="111"/>
     <cellStyle name="?? 31" xfId="112"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="113"/>
+    <cellStyle name="?? 185 2" xfId="113"/>
     <cellStyle name="?? 19" xfId="114"/>
     <cellStyle name="?? 24" xfId="115"/>
     <cellStyle name="?? 25" xfId="116"/>
@@ -5064,73 +5064,73 @@
     <cellStyle name="?? 32" xfId="119"/>
     <cellStyle name="?? 29" xfId="120"/>
     <cellStyle name="?? 34" xfId="121"/>
-    <cellStyle name="?? 3" xfId="122"/>
-    <cellStyle name="常规 27" xfId="123"/>
-    <cellStyle name="常规 32" xfId="124"/>
+    <cellStyle name="常规 27" xfId="122"/>
+    <cellStyle name="常规 32" xfId="123"/>
+    <cellStyle name="?? 3" xfId="124"/>
     <cellStyle name="?? 35" xfId="125"/>
-    <cellStyle name="?? 36" xfId="126"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="127"/>
-    <cellStyle name="?? 37" xfId="128"/>
-    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="129"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="126"/>
+    <cellStyle name="?? 36" xfId="127"/>
+    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="128"/>
+    <cellStyle name="?? 37" xfId="129"/>
     <cellStyle name="?? 38" xfId="130"/>
-    <cellStyle name="?? 4" xfId="131"/>
-    <cellStyle name="常规 28" xfId="132"/>
-    <cellStyle name="常规 33" xfId="133"/>
-    <cellStyle name="常规 62 2" xfId="134"/>
-    <cellStyle name="常规 57 2" xfId="135"/>
-    <cellStyle name="?? 5" xfId="136"/>
-    <cellStyle name="常规 2 4 3 2" xfId="137"/>
+    <cellStyle name="常规 62 2" xfId="131"/>
+    <cellStyle name="常规 57 2" xfId="132"/>
+    <cellStyle name="常规 28" xfId="133"/>
+    <cellStyle name="常规 33" xfId="134"/>
+    <cellStyle name="?? 4" xfId="135"/>
+    <cellStyle name="常规 62 3" xfId="136"/>
+    <cellStyle name="常规 57 3" xfId="137"/>
     <cellStyle name="常规 29" xfId="138"/>
     <cellStyle name="常规 34" xfId="139"/>
-    <cellStyle name="常规 62 3" xfId="140"/>
-    <cellStyle name="常规 57 3" xfId="141"/>
-    <cellStyle name="?? 6" xfId="142"/>
-    <cellStyle name="常规 35" xfId="143"/>
-    <cellStyle name="常规 40" xfId="144"/>
-    <cellStyle name="?? 7" xfId="145"/>
-    <cellStyle name="常规 36" xfId="146"/>
-    <cellStyle name="常规 41" xfId="147"/>
-    <cellStyle name="?? 8" xfId="148"/>
-    <cellStyle name="常规 2 2 2" xfId="149"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="150"/>
-    <cellStyle name="常规 37" xfId="151"/>
-    <cellStyle name="常规 42" xfId="152"/>
-    <cellStyle name="?? 9" xfId="153"/>
-    <cellStyle name="常规 2 2 3" xfId="154"/>
-    <cellStyle name="常规 38" xfId="155"/>
-    <cellStyle name="常规 43" xfId="156"/>
+    <cellStyle name="常规 2 4 3 2" xfId="140"/>
+    <cellStyle name="?? 5" xfId="141"/>
+    <cellStyle name="常规 35" xfId="142"/>
+    <cellStyle name="常规 40" xfId="143"/>
+    <cellStyle name="?? 6" xfId="144"/>
+    <cellStyle name="常规 36" xfId="145"/>
+    <cellStyle name="常规 41" xfId="146"/>
+    <cellStyle name="?? 7" xfId="147"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="148"/>
+    <cellStyle name="常规 37" xfId="149"/>
+    <cellStyle name="常规 42" xfId="150"/>
+    <cellStyle name="常规 2 2 2" xfId="151"/>
+    <cellStyle name="?? 8" xfId="152"/>
+    <cellStyle name="常规 38" xfId="153"/>
+    <cellStyle name="常规 43" xfId="154"/>
+    <cellStyle name="常规 2 2 3" xfId="155"/>
+    <cellStyle name="?? 9" xfId="156"/>
     <cellStyle name="??_Sheet1" xfId="157"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="158"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="159"/>
-    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="160"/>
-    <cellStyle name="20% - Accent1" xfId="161"/>
-    <cellStyle name="常规 10 2 2 4 2" xfId="162"/>
+    <cellStyle name="常规 10 2 2 4 2" xfId="160"/>
+    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="161"/>
+    <cellStyle name="20% - Accent1" xfId="162"/>
     <cellStyle name="20% - Accent1 2" xfId="163"/>
     <cellStyle name="20% - Accent2" xfId="164"/>
     <cellStyle name="20% - Accent2 2" xfId="165"/>
     <cellStyle name="20% - Accent3" xfId="166"/>
-    <cellStyle name="20% - Accent4" xfId="167"/>
-    <cellStyle name="常规 5 3 2" xfId="168"/>
-    <cellStyle name="20% - Accent4 2" xfId="169"/>
-    <cellStyle name="常规 4" xfId="170"/>
+    <cellStyle name="常规 5 3 2" xfId="167"/>
+    <cellStyle name="20% - Accent4" xfId="168"/>
+    <cellStyle name="常规 4" xfId="169"/>
+    <cellStyle name="20% - Accent4 2" xfId="170"/>
     <cellStyle name="20% - Accent5" xfId="171"/>
     <cellStyle name="20% - Accent5 2" xfId="172"/>
-    <cellStyle name="20% - Accent6" xfId="173"/>
-    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="174"/>
+    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="173"/>
+    <cellStyle name="20% - Accent6" xfId="174"/>
     <cellStyle name="20% - Accent6 2" xfId="175"/>
-    <cellStyle name="40% - Accent1" xfId="176"/>
-    <cellStyle name="常规 63" xfId="177"/>
-    <cellStyle name="常规 58" xfId="178"/>
-    <cellStyle name="常规 83" xfId="179"/>
-    <cellStyle name="常规 78" xfId="180"/>
-    <cellStyle name="40% - Accent1 2" xfId="181"/>
-    <cellStyle name="常规 63 2" xfId="182"/>
-    <cellStyle name="常规 58 2" xfId="183"/>
-    <cellStyle name="40% - Accent2" xfId="184"/>
-    <cellStyle name="常规 64" xfId="185"/>
-    <cellStyle name="常规 59" xfId="186"/>
-    <cellStyle name="40% - Accent2 2" xfId="187"/>
-    <cellStyle name="常规 59 2" xfId="188"/>
+    <cellStyle name="常规 63" xfId="176"/>
+    <cellStyle name="常规 58" xfId="177"/>
+    <cellStyle name="40% - Accent1" xfId="178"/>
+    <cellStyle name="常规 63 2" xfId="179"/>
+    <cellStyle name="常规 58 2" xfId="180"/>
+    <cellStyle name="常规 83" xfId="181"/>
+    <cellStyle name="常规 78" xfId="182"/>
+    <cellStyle name="40% - Accent1 2" xfId="183"/>
+    <cellStyle name="常规 64" xfId="184"/>
+    <cellStyle name="常规 59" xfId="185"/>
+    <cellStyle name="40% - Accent2" xfId="186"/>
+    <cellStyle name="常规 59 2" xfId="187"/>
+    <cellStyle name="40% - Accent2 2" xfId="188"/>
     <cellStyle name="40% - Accent3" xfId="189"/>
     <cellStyle name="40% - Accent3 2" xfId="190"/>
     <cellStyle name="40% - Accent4" xfId="191"/>
@@ -5138,105 +5138,105 @@
     <cellStyle name="40% - Accent5 2" xfId="193"/>
     <cellStyle name="40% - Accent6" xfId="194"/>
     <cellStyle name="40% - Accent6 2" xfId="195"/>
-    <cellStyle name="60% - Accent1" xfId="196"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="197"/>
-    <cellStyle name="60% - Accent2" xfId="198"/>
-    <cellStyle name="常规 2 2" xfId="199"/>
-    <cellStyle name="60% - Accent3" xfId="200"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="196"/>
+    <cellStyle name="60% - Accent1" xfId="197"/>
+    <cellStyle name="常规 2 2" xfId="198"/>
+    <cellStyle name="60% - Accent2" xfId="199"/>
+    <cellStyle name="常规 2 3" xfId="200"/>
     <cellStyle name="常规 10 2 4 2" xfId="201"/>
-    <cellStyle name="常规 2 3" xfId="202"/>
-    <cellStyle name="60% - Accent4" xfId="203"/>
-    <cellStyle name="常规 2 4" xfId="204"/>
-    <cellStyle name="60% - Accent5" xfId="205"/>
-    <cellStyle name="常规 2 5" xfId="206"/>
-    <cellStyle name="60% - Accent6" xfId="207"/>
-    <cellStyle name="常规 2 6" xfId="208"/>
+    <cellStyle name="60% - Accent3" xfId="202"/>
+    <cellStyle name="常规 2 4" xfId="203"/>
+    <cellStyle name="60% - Accent4" xfId="204"/>
+    <cellStyle name="常规 2 5" xfId="205"/>
+    <cellStyle name="60% - Accent5" xfId="206"/>
+    <cellStyle name="常规 2 6" xfId="207"/>
+    <cellStyle name="60% - Accent6" xfId="208"/>
     <cellStyle name="Accent1" xfId="209"/>
     <cellStyle name="Accent2" xfId="210"/>
-    <cellStyle name="Accent3" xfId="211"/>
-    <cellStyle name="常规 102 2" xfId="212"/>
-    <cellStyle name="Accent4" xfId="213"/>
-    <cellStyle name="常规 102 3" xfId="214"/>
-    <cellStyle name="Accent5" xfId="215"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="216"/>
-    <cellStyle name="Accent6" xfId="217"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="218"/>
-    <cellStyle name="Bad" xfId="219"/>
-    <cellStyle name="常规 2 3 2" xfId="220"/>
-    <cellStyle name="Calculation" xfId="221"/>
+    <cellStyle name="常规 102 2" xfId="211"/>
+    <cellStyle name="Accent3" xfId="212"/>
+    <cellStyle name="常规 102 3" xfId="213"/>
+    <cellStyle name="Accent4" xfId="214"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="215"/>
+    <cellStyle name="Accent5" xfId="216"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="217"/>
+    <cellStyle name="Accent6" xfId="218"/>
+    <cellStyle name="常规 2 3 2" xfId="219"/>
+    <cellStyle name="Bad" xfId="220"/>
+    <cellStyle name="常规 36 2" xfId="221"/>
     <cellStyle name="常规 106" xfId="222"/>
     <cellStyle name="常规 111" xfId="223"/>
-    <cellStyle name="常规 36 2" xfId="224"/>
-    <cellStyle name="Check Cell" xfId="225"/>
-    <cellStyle name="常规 15" xfId="226"/>
-    <cellStyle name="常规 20" xfId="227"/>
+    <cellStyle name="Calculation" xfId="224"/>
+    <cellStyle name="常规 15" xfId="225"/>
+    <cellStyle name="常规 20" xfId="226"/>
+    <cellStyle name="Check Cell" xfId="227"/>
     <cellStyle name="Explanatory Text" xfId="228"/>
-    <cellStyle name="Good" xfId="229"/>
-    <cellStyle name="常规 10" xfId="230"/>
-    <cellStyle name="常规 16 2" xfId="231"/>
+    <cellStyle name="常规 16 2" xfId="229"/>
+    <cellStyle name="Good" xfId="230"/>
+    <cellStyle name="常规 10" xfId="231"/>
     <cellStyle name="Heading 1" xfId="232"/>
     <cellStyle name="Heading 2" xfId="233"/>
     <cellStyle name="Heading 4" xfId="234"/>
     <cellStyle name="Linked Cell" xfId="235"/>
     <cellStyle name="Neutral" xfId="236"/>
-    <cellStyle name="Normal 2" xfId="237"/>
-    <cellStyle name="常规 115" xfId="238"/>
-    <cellStyle name="常规 120" xfId="239"/>
-    <cellStyle name="Normal 2 2" xfId="240"/>
-    <cellStyle name="常规 120 2" xfId="241"/>
+    <cellStyle name="常规 115" xfId="237"/>
+    <cellStyle name="常规 120" xfId="238"/>
+    <cellStyle name="Normal 2" xfId="239"/>
+    <cellStyle name="常规 120 2" xfId="240"/>
+    <cellStyle name="Normal 2 2" xfId="241"/>
     <cellStyle name="Normal 2 3" xfId="242"/>
-    <cellStyle name="常规 116" xfId="243"/>
-    <cellStyle name="常规 121" xfId="244"/>
-    <cellStyle name="Normal 3" xfId="245"/>
-    <cellStyle name="常规 3 7 2" xfId="246"/>
+    <cellStyle name="Normal 3" xfId="243"/>
+    <cellStyle name="常规 3 7 2" xfId="244"/>
+    <cellStyle name="常规 116" xfId="245"/>
+    <cellStyle name="常规 121" xfId="246"/>
     <cellStyle name="Normal 3 2" xfId="247"/>
     <cellStyle name="Normal_CEB EDW_任务跟踪管理" xfId="248"/>
-    <cellStyle name="Note" xfId="249"/>
-    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="250"/>
+    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="249"/>
+    <cellStyle name="Note" xfId="250"/>
     <cellStyle name="Note 2" xfId="251"/>
     <cellStyle name="Output" xfId="252"/>
     <cellStyle name="常规 4 2 3 4" xfId="253"/>
-    <cellStyle name="Title" xfId="254"/>
-    <cellStyle name="常规 2" xfId="255"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="256"/>
-    <cellStyle name="Total" xfId="257"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="258"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="259"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="260"/>
+    <cellStyle name="常规 2" xfId="254"/>
+    <cellStyle name="Title" xfId="255"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="256"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="257"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="258"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="259"/>
+    <cellStyle name="Total" xfId="260"/>
     <cellStyle name="Warning Text" xfId="261"/>
-    <cellStyle name="百分比 2" xfId="262"/>
-    <cellStyle name="常规 10 2 2 3 2" xfId="263"/>
+    <cellStyle name="常规 10 2 2 3 2" xfId="262"/>
+    <cellStyle name="百分比 2" xfId="263"/>
     <cellStyle name="差_RDM_RWA_P-F_数据映射_V0.0" xfId="264"/>
     <cellStyle name="差_RDM_零售_P-F_数据映射_V1.0" xfId="265"/>
     <cellStyle name="差_Sheet1" xfId="266"/>
     <cellStyle name="差_Sheet1 2" xfId="267"/>
     <cellStyle name="差_Sheet2" xfId="268"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="269"/>
-    <cellStyle name="差_Sheet3" xfId="270"/>
-    <cellStyle name="常规 3 2" xfId="271"/>
+    <cellStyle name="差_Sheet3" xfId="269"/>
+    <cellStyle name="常规 3 2" xfId="270"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="271"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="272"/>
     <cellStyle name="常规 96" xfId="273"/>
     <cellStyle name="差_保函明细" xfId="274"/>
     <cellStyle name="差_对公资产监管经济资本表" xfId="275"/>
-    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="276"/>
-    <cellStyle name="常规 45 2 2" xfId="277"/>
-    <cellStyle name="常规 50 2 2" xfId="278"/>
+    <cellStyle name="常规 45 2 2" xfId="276"/>
+    <cellStyle name="常规 50 2 2" xfId="277"/>
+    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="278"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="279"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="280"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="281"/>
-    <cellStyle name="常规 51 2" xfId="282"/>
+    <cellStyle name="常规 51 2" xfId="281"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="282"/>
     <cellStyle name="常规 10 2" xfId="283"/>
-    <cellStyle name="常规 10 2 2" xfId="284"/>
-    <cellStyle name="常规 2 7" xfId="285"/>
+    <cellStyle name="常规 2 7" xfId="284"/>
+    <cellStyle name="常规 10 2 2" xfId="285"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="286"/>
     <cellStyle name="常规 10 2 2 2" xfId="287"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="288"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="289"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="290"/>
-    <cellStyle name="常规 10 2 2 2 3 3" xfId="291"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="292"/>
-    <cellStyle name="常规 47" xfId="293"/>
-    <cellStyle name="常规 52" xfId="294"/>
+    <cellStyle name="常规 10 2 2 2 3 3" xfId="290"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="291"/>
+    <cellStyle name="常规 47" xfId="292"/>
+    <cellStyle name="常规 52" xfId="293"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="294"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="295"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="296"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="297"/>
@@ -5257,8 +5257,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="312"/>
     <cellStyle name="常规 10 2 2 6" xfId="313"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="314"/>
-    <cellStyle name="常规 10 2 3" xfId="315"/>
-    <cellStyle name="常规 2 8" xfId="316"/>
+    <cellStyle name="常规 2 8" xfId="315"/>
+    <cellStyle name="常规 10 2 3" xfId="316"/>
     <cellStyle name="常规 10 2 3 2" xfId="317"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="318"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="319"/>
@@ -5271,14 +5271,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="326"/>
     <cellStyle name="常规 10 2 3 4" xfId="327"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="328"/>
-    <cellStyle name="常规 10 2 3 5" xfId="329"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="329"/>
     <cellStyle name="常规 2 10" xfId="330"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="331"/>
-    <cellStyle name="常规 10 2 4" xfId="332"/>
-    <cellStyle name="常规 2 9" xfId="333"/>
+    <cellStyle name="常规 10 2 3 5" xfId="331"/>
+    <cellStyle name="常规 2 9" xfId="332"/>
+    <cellStyle name="常规 10 2 4" xfId="333"/>
     <cellStyle name="常规 10 2 5" xfId="334"/>
-    <cellStyle name="常规 10 2 5 2" xfId="335"/>
-    <cellStyle name="常规 3 3" xfId="336"/>
+    <cellStyle name="常规 3 3" xfId="335"/>
+    <cellStyle name="常规 10 2 5 2" xfId="336"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="337"/>
     <cellStyle name="常规 100" xfId="338"/>
     <cellStyle name="常规 4 2 3" xfId="339"/>
@@ -5297,8 +5297,8 @@
     <cellStyle name="常规 101 2" xfId="352"/>
     <cellStyle name="常规 4 6 2" xfId="353"/>
     <cellStyle name="常规 101 2 2" xfId="354"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="355"/>
-    <cellStyle name="常规 101 3" xfId="356"/>
+    <cellStyle name="常规 101 3" xfId="355"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="356"/>
     <cellStyle name="常规 102" xfId="357"/>
     <cellStyle name="常规 4 2 5" xfId="358"/>
     <cellStyle name="常规 4 7" xfId="359"/>
@@ -5333,23 +5333,23 @@
     <cellStyle name="常规 21" xfId="388"/>
     <cellStyle name="常规 17" xfId="389"/>
     <cellStyle name="常规 22" xfId="390"/>
-    <cellStyle name="常规 17 2" xfId="391"/>
-    <cellStyle name="常规 55" xfId="392"/>
-    <cellStyle name="常规 60" xfId="393"/>
+    <cellStyle name="常规 55" xfId="391"/>
+    <cellStyle name="常规 60" xfId="392"/>
+    <cellStyle name="常规 17 2" xfId="393"/>
     <cellStyle name="常规 18" xfId="394"/>
     <cellStyle name="常规 23" xfId="395"/>
     <cellStyle name="常规 18 2" xfId="396"/>
-    <cellStyle name="常规 19" xfId="397"/>
-    <cellStyle name="常规 24" xfId="398"/>
-    <cellStyle name="常规 51 2 2" xfId="399"/>
+    <cellStyle name="常规 51 2 2" xfId="397"/>
+    <cellStyle name="常规 19" xfId="398"/>
+    <cellStyle name="常规 24" xfId="399"/>
     <cellStyle name="常规 2 11" xfId="400"/>
     <cellStyle name="常规 2 12" xfId="401"/>
     <cellStyle name="常规 2 13" xfId="402"/>
     <cellStyle name="常规 2 14" xfId="403"/>
-    <cellStyle name="常规 2 15" xfId="404"/>
-    <cellStyle name="常规 2 20" xfId="405"/>
-    <cellStyle name="常规 62 2 2" xfId="406"/>
-    <cellStyle name="常规 57 2 2" xfId="407"/>
+    <cellStyle name="常规 62 2 2" xfId="404"/>
+    <cellStyle name="常规 57 2 2" xfId="405"/>
+    <cellStyle name="常规 2 15" xfId="406"/>
+    <cellStyle name="常规 2 20" xfId="407"/>
     <cellStyle name="常规 2 16" xfId="408"/>
     <cellStyle name="常规 2 21" xfId="409"/>
     <cellStyle name="常规 2 16 2" xfId="410"/>
@@ -5365,12 +5365,12 @@
     <cellStyle name="常规 2 25" xfId="420"/>
     <cellStyle name="常规 2 3 3" xfId="421"/>
     <cellStyle name="常规 2 3 4" xfId="422"/>
-    <cellStyle name="常规 2 3 4 2" xfId="423"/>
-    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="424"/>
+    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="423"/>
+    <cellStyle name="常规 2 3 4 2" xfId="424"/>
     <cellStyle name="常规 2 4 2" xfId="425"/>
-    <cellStyle name="常规 2 4 2 2" xfId="426"/>
-    <cellStyle name="常规 56 3" xfId="427"/>
-    <cellStyle name="常规 61 3" xfId="428"/>
+    <cellStyle name="常规 56 3" xfId="426"/>
+    <cellStyle name="常规 61 3" xfId="427"/>
+    <cellStyle name="常规 2 4 2 2" xfId="428"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="429"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="430"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="431"/>
@@ -5382,22 +5382,22 @@
     <cellStyle name="常规 2 4 3" xfId="437"/>
     <cellStyle name="常规 2 4 4" xfId="438"/>
     <cellStyle name="常规 2 4 5" xfId="439"/>
-    <cellStyle name="常规 2 4 5 2" xfId="440"/>
+    <cellStyle name="常规 59 3" xfId="440"/>
     <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="441"/>
-    <cellStyle name="常规 59 3" xfId="442"/>
+    <cellStyle name="常规 2 4 5 2" xfId="442"/>
     <cellStyle name="常规 25" xfId="443"/>
     <cellStyle name="常规 30" xfId="444"/>
-    <cellStyle name="常规 3" xfId="445"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="446"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="445"/>
+    <cellStyle name="常规 3" xfId="446"/>
     <cellStyle name="常规 3 2 2" xfId="447"/>
     <cellStyle name="常规 3 4" xfId="448"/>
     <cellStyle name="常规 3 5" xfId="449"/>
-    <cellStyle name="常规 3 6" xfId="450"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="451"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="452"/>
-    <cellStyle name="常规 3 7" xfId="453"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="454"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="455"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="450"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="451"/>
+    <cellStyle name="常规 3 6" xfId="452"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="453"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="454"/>
+    <cellStyle name="常规 3 7" xfId="455"/>
     <cellStyle name="常规 3 8" xfId="456"/>
     <cellStyle name="常规 35 2" xfId="457"/>
     <cellStyle name="常规 4 2" xfId="458"/>
@@ -5439,10 +5439,10 @@
     <cellStyle name="常规 53" xfId="494"/>
     <cellStyle name="常规 48 2 2" xfId="495"/>
     <cellStyle name="常规 53 2 2" xfId="496"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="497"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="498"/>
-    <cellStyle name="常规 49" xfId="499"/>
-    <cellStyle name="常规 54" xfId="500"/>
+    <cellStyle name="常规 49" xfId="497"/>
+    <cellStyle name="常规 54" xfId="498"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="499"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="500"/>
     <cellStyle name="常规 49 2 2" xfId="501"/>
     <cellStyle name="常规 54 2 2" xfId="502"/>
     <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="503"/>
@@ -5453,220 +5453,220 @@
     <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="508"/>
     <cellStyle name="常规 5 3" xfId="509"/>
     <cellStyle name="常规 5 4" xfId="510"/>
-    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="511"/>
-    <cellStyle name="常规 51 3" xfId="512"/>
+    <cellStyle name="常规 51 3" xfId="511"/>
+    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="512"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="513"/>
-    <cellStyle name="常规 60 2" xfId="514"/>
-    <cellStyle name="常规 55 2" xfId="515"/>
-    <cellStyle name="常规 60 2 2" xfId="516"/>
-    <cellStyle name="常规 55 2 2" xfId="517"/>
-    <cellStyle name="常规 60 3" xfId="518"/>
-    <cellStyle name="常规 55 3" xfId="519"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="520"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="521"/>
-    <cellStyle name="常规 61" xfId="522"/>
-    <cellStyle name="常规 56" xfId="523"/>
-    <cellStyle name="常规 61 2" xfId="524"/>
-    <cellStyle name="常规 56 2" xfId="525"/>
-    <cellStyle name="常规 61 2 2" xfId="526"/>
-    <cellStyle name="常规 56 2 2" xfId="527"/>
-    <cellStyle name="常规 57" xfId="528"/>
-    <cellStyle name="常规 62" xfId="529"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="531"/>
-    <cellStyle name="常规 58 2 2" xfId="532"/>
-    <cellStyle name="常规 63 2 2" xfId="533"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="534"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="535"/>
-    <cellStyle name="常规 58 3" xfId="536"/>
-    <cellStyle name="常规 63 3" xfId="537"/>
+    <cellStyle name="常规 55 2" xfId="514"/>
+    <cellStyle name="常规 60 2" xfId="515"/>
+    <cellStyle name="常规 55 2 2" xfId="516"/>
+    <cellStyle name="常规 60 2 2" xfId="517"/>
+    <cellStyle name="常规 55 3" xfId="518"/>
+    <cellStyle name="常规 60 3" xfId="519"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="520"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="521"/>
+    <cellStyle name="常规 56" xfId="522"/>
+    <cellStyle name="常规 61" xfId="523"/>
+    <cellStyle name="常规 56 2" xfId="524"/>
+    <cellStyle name="常规 61 2" xfId="525"/>
+    <cellStyle name="常规 56 2 2" xfId="526"/>
+    <cellStyle name="常规 61 2 2" xfId="527"/>
+    <cellStyle name="常规 62" xfId="528"/>
+    <cellStyle name="常规 57" xfId="529"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="531"/>
+    <cellStyle name="常规 63 2 2" xfId="532"/>
+    <cellStyle name="常规 58 2 2" xfId="533"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="534"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="535"/>
+    <cellStyle name="常规 63 3" xfId="536"/>
+    <cellStyle name="常规 58 3" xfId="537"/>
     <cellStyle name="常规 6 2" xfId="538"/>
-    <cellStyle name="常规 6 3" xfId="539"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="539"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="540"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="541"/>
+    <cellStyle name="常规 6 3" xfId="541"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="542"/>
-    <cellStyle name="常规 65" xfId="543"/>
-    <cellStyle name="常规 70" xfId="544"/>
-    <cellStyle name="常规 65 2" xfId="545"/>
-    <cellStyle name="常规 70 2" xfId="546"/>
-    <cellStyle name="常规 65 2 2" xfId="547"/>
+    <cellStyle name="常规 70" xfId="543"/>
+    <cellStyle name="常规 65" xfId="544"/>
+    <cellStyle name="常规 70 2" xfId="545"/>
+    <cellStyle name="常规 65 2" xfId="546"/>
+    <cellStyle name="常规 97 3" xfId="547"/>
     <cellStyle name="常规 70 2 2" xfId="548"/>
-    <cellStyle name="常规 97 3" xfId="549"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="550"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="551"/>
-    <cellStyle name="常规 65 3" xfId="552"/>
-    <cellStyle name="常规 70 3" xfId="553"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 66" xfId="556"/>
-    <cellStyle name="常规 71" xfId="557"/>
-    <cellStyle name="常规 66 2" xfId="558"/>
-    <cellStyle name="常规 71 2" xfId="559"/>
-    <cellStyle name="常规 66 2 2" xfId="560"/>
-    <cellStyle name="常规 71 2 2" xfId="561"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="563"/>
-    <cellStyle name="常规 66 3" xfId="564"/>
+    <cellStyle name="常规 65 2 2" xfId="549"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="550"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="551"/>
+    <cellStyle name="常规 70 3" xfId="552"/>
+    <cellStyle name="常规 65 3" xfId="553"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 71" xfId="556"/>
+    <cellStyle name="常规 66" xfId="557"/>
+    <cellStyle name="常规 71 2" xfId="558"/>
+    <cellStyle name="常规 66 2" xfId="559"/>
+    <cellStyle name="常规 71 2 2" xfId="560"/>
+    <cellStyle name="常规 66 2 2" xfId="561"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="样式 1" xfId="564"/>
     <cellStyle name="常规 71 3" xfId="565"/>
-    <cellStyle name="样式 1" xfId="566"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="567"/>
-    <cellStyle name="常规 67" xfId="568"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="569"/>
-    <cellStyle name="常规 72" xfId="570"/>
-    <cellStyle name="常规 67 2" xfId="571"/>
-    <cellStyle name="常规 72 2" xfId="572"/>
-    <cellStyle name="常规 67 2 2" xfId="573"/>
-    <cellStyle name="常规 72 2 2" xfId="574"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 67 3" xfId="577"/>
-    <cellStyle name="常规 72 3" xfId="578"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="579"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="580"/>
-    <cellStyle name="常规 68" xfId="581"/>
-    <cellStyle name="常规 73" xfId="582"/>
-    <cellStyle name="常规 68 2" xfId="583"/>
-    <cellStyle name="常规 73 2" xfId="584"/>
-    <cellStyle name="常规 68 2 2" xfId="585"/>
-    <cellStyle name="常规 73 2 2" xfId="586"/>
-    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="587"/>
-    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="588"/>
-    <cellStyle name="常规 68 3" xfId="589"/>
-    <cellStyle name="常规 73 3" xfId="590"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 69" xfId="593"/>
-    <cellStyle name="常规 74" xfId="594"/>
-    <cellStyle name="常规 69 2" xfId="595"/>
-    <cellStyle name="常规 74 2" xfId="596"/>
-    <cellStyle name="常规 69 2 2" xfId="597"/>
-    <cellStyle name="常规 74 2 2" xfId="598"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="599"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="600"/>
-    <cellStyle name="常规 69 3" xfId="601"/>
-    <cellStyle name="常规 74 3" xfId="602"/>
-    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="603"/>
-    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="604"/>
+    <cellStyle name="常规 66 3" xfId="566"/>
+    <cellStyle name="常规 72" xfId="567"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="568"/>
+    <cellStyle name="常规 67" xfId="569"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="570"/>
+    <cellStyle name="常规 72 2" xfId="571"/>
+    <cellStyle name="常规 67 2" xfId="572"/>
+    <cellStyle name="常规 72 2 2" xfId="573"/>
+    <cellStyle name="常规 67 2 2" xfId="574"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 72 3" xfId="577"/>
+    <cellStyle name="常规 67 3" xfId="578"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="579"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="580"/>
+    <cellStyle name="常规 73" xfId="581"/>
+    <cellStyle name="常规 68" xfId="582"/>
+    <cellStyle name="常规 73 2" xfId="583"/>
+    <cellStyle name="常规 68 2" xfId="584"/>
+    <cellStyle name="常规 73 2 2" xfId="585"/>
+    <cellStyle name="常规 68 2 2" xfId="586"/>
+    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="587"/>
+    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="588"/>
+    <cellStyle name="常规 73 3" xfId="589"/>
+    <cellStyle name="常规 68 3" xfId="590"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 74" xfId="593"/>
+    <cellStyle name="常规 69" xfId="594"/>
+    <cellStyle name="常规 74 2" xfId="595"/>
+    <cellStyle name="常规 69 2" xfId="596"/>
+    <cellStyle name="常规 74 2 2" xfId="597"/>
+    <cellStyle name="常规 69 2 2" xfId="598"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="599"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="600"/>
+    <cellStyle name="常规 74 3" xfId="601"/>
+    <cellStyle name="常规 69 3" xfId="602"/>
+    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="603"/>
+    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="604"/>
     <cellStyle name="常规 7" xfId="605"/>
     <cellStyle name="常规 7 2" xfId="606"/>
     <cellStyle name="常规 7 3" xfId="607"/>
     <cellStyle name="常规 7_ITDM3.2期数据库设计汇总" xfId="608"/>
-    <cellStyle name="常规 75" xfId="609"/>
-    <cellStyle name="常规 80" xfId="610"/>
-    <cellStyle name="常规 75 2" xfId="611"/>
-    <cellStyle name="常规 80 2" xfId="612"/>
-    <cellStyle name="常规 75 2 2" xfId="613"/>
-    <cellStyle name="常规 80 2 2" xfId="614"/>
-    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="615"/>
-    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="616"/>
-    <cellStyle name="常规 75 3" xfId="617"/>
-    <cellStyle name="常规 80 3" xfId="618"/>
-    <cellStyle name="常规 76" xfId="619"/>
-    <cellStyle name="常规 81" xfId="620"/>
-    <cellStyle name="常规 76 2" xfId="621"/>
-    <cellStyle name="常规 81 2" xfId="622"/>
-    <cellStyle name="常规 76 2 2" xfId="623"/>
-    <cellStyle name="常规 81 2 2" xfId="624"/>
-    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="625"/>
-    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="626"/>
-    <cellStyle name="常规 76 3" xfId="627"/>
-    <cellStyle name="常规 81 3" xfId="628"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="630"/>
-    <cellStyle name="常规 77" xfId="631"/>
-    <cellStyle name="常规 82" xfId="632"/>
-    <cellStyle name="常规 77 2" xfId="633"/>
-    <cellStyle name="常规 82 2" xfId="634"/>
-    <cellStyle name="常规 77 2 2" xfId="635"/>
-    <cellStyle name="常规 82 2 2" xfId="636"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="637"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="638"/>
-    <cellStyle name="常规 77 3" xfId="639"/>
-    <cellStyle name="常规 82 3" xfId="640"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="641"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="642"/>
-    <cellStyle name="常规 78 2" xfId="643"/>
-    <cellStyle name="常规 83 2" xfId="644"/>
-    <cellStyle name="常规 78 2 2" xfId="645"/>
-    <cellStyle name="常规 83 2 2" xfId="646"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="647"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="648"/>
-    <cellStyle name="常规 78 3" xfId="649"/>
-    <cellStyle name="常规 83 3" xfId="650"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="651"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="652"/>
-    <cellStyle name="常规 79" xfId="653"/>
-    <cellStyle name="常规 84" xfId="654"/>
-    <cellStyle name="常规 79 2" xfId="655"/>
-    <cellStyle name="常规 84 2" xfId="656"/>
-    <cellStyle name="常规 79 2 2" xfId="657"/>
-    <cellStyle name="常规 84 2 2" xfId="658"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="659"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="660"/>
-    <cellStyle name="常规 79 3" xfId="661"/>
-    <cellStyle name="常规 84 3" xfId="662"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 80" xfId="609"/>
+    <cellStyle name="常规 75" xfId="610"/>
+    <cellStyle name="常规 80 2" xfId="611"/>
+    <cellStyle name="常规 75 2" xfId="612"/>
+    <cellStyle name="常规 80 2 2" xfId="613"/>
+    <cellStyle name="常规 75 2 2" xfId="614"/>
+    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="615"/>
+    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="616"/>
+    <cellStyle name="常规 80 3" xfId="617"/>
+    <cellStyle name="常规 75 3" xfId="618"/>
+    <cellStyle name="常规 81" xfId="619"/>
+    <cellStyle name="常规 76" xfId="620"/>
+    <cellStyle name="常规 81 2" xfId="621"/>
+    <cellStyle name="常规 76 2" xfId="622"/>
+    <cellStyle name="常规 81 2 2" xfId="623"/>
+    <cellStyle name="常规 76 2 2" xfId="624"/>
+    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="625"/>
+    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="626"/>
+    <cellStyle name="常规 81 3" xfId="627"/>
+    <cellStyle name="常规 76 3" xfId="628"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="630"/>
+    <cellStyle name="常规 82" xfId="631"/>
+    <cellStyle name="常规 77" xfId="632"/>
+    <cellStyle name="常规 82 2" xfId="633"/>
+    <cellStyle name="常规 77 2" xfId="634"/>
+    <cellStyle name="常规 82 2 2" xfId="635"/>
+    <cellStyle name="常规 77 2 2" xfId="636"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="637"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="638"/>
+    <cellStyle name="常规 82 3" xfId="639"/>
+    <cellStyle name="常规 77 3" xfId="640"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="641"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="642"/>
+    <cellStyle name="常规 83 2" xfId="643"/>
+    <cellStyle name="常规 78 2" xfId="644"/>
+    <cellStyle name="常规 83 2 2" xfId="645"/>
+    <cellStyle name="常规 78 2 2" xfId="646"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="647"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="648"/>
+    <cellStyle name="常规 83 3" xfId="649"/>
+    <cellStyle name="常规 78 3" xfId="650"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="651"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="652"/>
+    <cellStyle name="常规 84" xfId="653"/>
+    <cellStyle name="常规 79" xfId="654"/>
+    <cellStyle name="常规 84 2" xfId="655"/>
+    <cellStyle name="常规 79 2" xfId="656"/>
+    <cellStyle name="常规 84 2 2" xfId="657"/>
+    <cellStyle name="常规 79 2 2" xfId="658"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="659"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="660"/>
+    <cellStyle name="常规 84 3" xfId="661"/>
+    <cellStyle name="常规 79 3" xfId="662"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="664"/>
     <cellStyle name="常规 8" xfId="665"/>
     <cellStyle name="常规 8 2" xfId="666"/>
-    <cellStyle name="常规 85 2" xfId="667"/>
-    <cellStyle name="常规 90 2" xfId="668"/>
-    <cellStyle name="常规 85 2 2" xfId="669"/>
-    <cellStyle name="常规 90 2 2" xfId="670"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 85 3" xfId="673"/>
-    <cellStyle name="常规 90 3" xfId="674"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="675"/>
+    <cellStyle name="常规 90 2" xfId="667"/>
+    <cellStyle name="常规 85 2" xfId="668"/>
+    <cellStyle name="常规 90 2 2" xfId="669"/>
+    <cellStyle name="常规 85 2 2" xfId="670"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 90 3" xfId="673"/>
+    <cellStyle name="常规 85 3" xfId="674"/>
+    <cellStyle name="常规 96 3" xfId="675"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="676"/>
-    <cellStyle name="常规 96 3" xfId="677"/>
-    <cellStyle name="常规 86" xfId="678"/>
-    <cellStyle name="常规 91" xfId="679"/>
-    <cellStyle name="常规 86 2" xfId="680"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="681"/>
-    <cellStyle name="常规 91 2" xfId="682"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="683"/>
-    <cellStyle name="常规 86 2 2" xfId="684"/>
-    <cellStyle name="常规 91 2 2" xfId="685"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="686"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="687"/>
-    <cellStyle name="常规 86 3" xfId="688"/>
-    <cellStyle name="常规 91 3" xfId="689"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="690"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="691"/>
-    <cellStyle name="常规 87" xfId="692"/>
-    <cellStyle name="常规 92" xfId="693"/>
-    <cellStyle name="常规 87 2" xfId="694"/>
-    <cellStyle name="常规 92 2" xfId="695"/>
-    <cellStyle name="常规 87 2 2" xfId="696"/>
-    <cellStyle name="常规 92 2 2" xfId="697"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="698"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="699"/>
-    <cellStyle name="常规 87 3" xfId="700"/>
-    <cellStyle name="常规 92 3" xfId="701"/>
-    <cellStyle name="常规 88" xfId="702"/>
-    <cellStyle name="常规 93" xfId="703"/>
-    <cellStyle name="常规 88 2" xfId="704"/>
-    <cellStyle name="常规 93 2" xfId="705"/>
-    <cellStyle name="常规 88 2 2" xfId="706"/>
-    <cellStyle name="常规 93 2 2" xfId="707"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="708"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="709"/>
-    <cellStyle name="常规 88 3" xfId="710"/>
-    <cellStyle name="常规 93 3" xfId="711"/>
-    <cellStyle name="常规 89" xfId="712"/>
-    <cellStyle name="常规 94" xfId="713"/>
-    <cellStyle name="常规 89 2" xfId="714"/>
-    <cellStyle name="常规 94 2" xfId="715"/>
-    <cellStyle name="常规 89 2 2" xfId="716"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="677"/>
+    <cellStyle name="常规 91" xfId="678"/>
+    <cellStyle name="常规 86" xfId="679"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="680"/>
+    <cellStyle name="常规 91 2" xfId="681"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="682"/>
+    <cellStyle name="常规 86 2" xfId="683"/>
+    <cellStyle name="常规 91 2 2" xfId="684"/>
+    <cellStyle name="常规 86 2 2" xfId="685"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="686"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="687"/>
+    <cellStyle name="常规 91 3" xfId="688"/>
+    <cellStyle name="常规 86 3" xfId="689"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="690"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="691"/>
+    <cellStyle name="常规 92" xfId="692"/>
+    <cellStyle name="常规 87" xfId="693"/>
+    <cellStyle name="常规 92 2" xfId="694"/>
+    <cellStyle name="常规 87 2" xfId="695"/>
+    <cellStyle name="常规 92 2 2" xfId="696"/>
+    <cellStyle name="常规 87 2 2" xfId="697"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="698"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="699"/>
+    <cellStyle name="常规 92 3" xfId="700"/>
+    <cellStyle name="常规 87 3" xfId="701"/>
+    <cellStyle name="常规 93" xfId="702"/>
+    <cellStyle name="常规 88" xfId="703"/>
+    <cellStyle name="常规 93 2" xfId="704"/>
+    <cellStyle name="常规 88 2" xfId="705"/>
+    <cellStyle name="常规 93 2 2" xfId="706"/>
+    <cellStyle name="常规 88 2 2" xfId="707"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="708"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="709"/>
+    <cellStyle name="常规 93 3" xfId="710"/>
+    <cellStyle name="常规 88 3" xfId="711"/>
+    <cellStyle name="常规 94" xfId="712"/>
+    <cellStyle name="常规 89" xfId="713"/>
+    <cellStyle name="常规 94 2" xfId="714"/>
+    <cellStyle name="常规 89 2" xfId="715"/>
+    <cellStyle name="常规 98" xfId="716"/>
     <cellStyle name="常规 94 2 2" xfId="717"/>
-    <cellStyle name="常规 98" xfId="718"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="719"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="720"/>
-    <cellStyle name="常规 89 3" xfId="721"/>
-    <cellStyle name="常规 94 3" xfId="722"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="724"/>
+    <cellStyle name="常规 89 2 2" xfId="718"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="719"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="720"/>
+    <cellStyle name="常规 94 3" xfId="721"/>
+    <cellStyle name="常规 89 3" xfId="722"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="724"/>
     <cellStyle name="常规 9" xfId="725"/>
     <cellStyle name="常规 9 2" xfId="726"/>
     <cellStyle name="常规 95" xfId="727"/>
@@ -5697,12 +5697,12 @@
     <cellStyle name="超链接 12" xfId="752"/>
     <cellStyle name="超链接 13" xfId="753"/>
     <cellStyle name="超链接 14" xfId="754"/>
-    <cellStyle name="超链接 15" xfId="755"/>
-    <cellStyle name="超链接 20" xfId="756"/>
-    <cellStyle name="超链接 16" xfId="757"/>
-    <cellStyle name="超链接 21" xfId="758"/>
-    <cellStyle name="超链接 17" xfId="759"/>
-    <cellStyle name="超链接 22" xfId="760"/>
+    <cellStyle name="超链接 20" xfId="755"/>
+    <cellStyle name="超链接 15" xfId="756"/>
+    <cellStyle name="超链接 21" xfId="757"/>
+    <cellStyle name="超链接 16" xfId="758"/>
+    <cellStyle name="超链接 22" xfId="759"/>
+    <cellStyle name="超链接 17" xfId="760"/>
     <cellStyle name="超链接 18" xfId="761"/>
     <cellStyle name="超链接 19" xfId="762"/>
     <cellStyle name="超链接 2" xfId="763"/>
@@ -10236,7 +10236,7 @@
   </sheetPr>
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -13693,10 +13693,10 @@
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
+      <selection pane="bottomLeft" activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/sql/华夏ERP数据库设计汇总.xlsx
+++ b/sql/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="915" firstSheet="15" activeTab="30"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="915" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="586">
   <si>
     <t>返回</t>
   </si>
@@ -1041,6 +1041,9 @@
     <t>用户状态</t>
   </si>
   <si>
+    <t>0：正常，1：删除，2封禁</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -1895,11 +1898,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -2026,9 +2029,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2036,6 +2040,139 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2051,20 +2188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2078,130 +2202,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="23"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2211,50 +2240,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2273,13 +2265,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="62"/>
@@ -2287,15 +2272,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2306,15 +2297,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2373,7 +2376,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,13 +2472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,13 +2496,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,19 +2544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2445,79 +2556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2529,67 +2574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2607,7 +2598,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2619,19 +2628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="54"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2666,32 +2669,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2715,7 +2697,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2731,26 +2746,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2772,9 +2767,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2782,43 +2794,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thick">
         <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2850,7 +2827,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
@@ -2870,6 +2862,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2884,10 +2887,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -2895,218 +2898,218 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -3114,21 +3117,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -3137,11 +3140,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -3157,11 +3160,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -3175,7 +3178,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -3187,16 +3190,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3211,220 +3214,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="43" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="49" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -3443,258 +3446,258 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3715,10 +3718,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
@@ -3738,7 +3741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3770,69 +3773,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3862,7 +3865,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3871,20 +3874,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3895,26 +3898,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3922,33 +3925,33 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -3973,37 +3976,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4031,134 +4034,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4169,10 +4172,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -4197,639 +4200,639 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -4837,88 +4840,88 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7499,7 +7502,7 @@
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -7511,13 +7514,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>273</v>
@@ -7529,13 +7532,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>273</v>
@@ -7547,7 +7550,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -7556,10 +7559,10 @@
         <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>281</v>
@@ -7574,10 +7577,10 @@
         <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>281</v>
@@ -7589,7 +7592,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>273</v>
@@ -7601,13 +7604,13 @@
         <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>277</v>
@@ -7619,29 +7622,29 @@
         <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>277</v>
@@ -7736,7 +7739,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>273</v>
@@ -7748,13 +7751,13 @@
         <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>273</v>
@@ -7766,13 +7769,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>273</v>
@@ -7784,7 +7787,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -7793,10 +7796,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>281</v>
@@ -7808,7 +7811,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>277</v>
@@ -7820,7 +7823,7 @@
         <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -7903,7 +7906,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>273</v>
@@ -7915,13 +7918,13 @@
         <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -7933,13 +7936,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -7951,7 +7954,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -7960,7 +7963,7 @@
         <v>232</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -7969,13 +7972,13 @@
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>273</v>
@@ -7987,7 +7990,7 @@
         <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -7996,10 +7999,10 @@
         <v>114</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>281</v>
@@ -8011,55 +8014,55 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>277</v>
@@ -8071,13 +8074,13 @@
         <v>281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>277</v>
@@ -8089,13 +8092,13 @@
         <v>281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>273</v>
@@ -8107,48 +8110,48 @@
         <v>274</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" ht="27" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
@@ -8179,10 +8182,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
@@ -8195,7 +8198,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>273</v>
@@ -8290,7 +8293,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -8302,7 +8305,7 @@
         <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -8320,13 +8323,13 @@
         <v>274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -8338,7 +8341,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -8421,7 +8424,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -8433,13 +8436,13 @@
         <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>273</v>
@@ -8451,7 +8454,7 @@
         <v>274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -8460,7 +8463,7 @@
         <v>298</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C6" s="5">
         <v>6</v>
@@ -8469,32 +8472,32 @@
         <v>274</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C8" s="5">
         <v>6</v>
@@ -8503,7 +8506,7 @@
         <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -8586,7 +8589,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -8598,13 +8601,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -8616,7 +8619,7 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -8625,10 +8628,10 @@
         <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>281</v>
@@ -8643,10 +8646,10 @@
         <v>120</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>281</v>
@@ -8658,10 +8661,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C8" s="5">
         <v>10</v>
@@ -8670,7 +8673,7 @@
         <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -8688,10 +8691,10 @@
         <v>281</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8708,7 +8711,7 @@
         <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -8809,7 +8812,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -8821,13 +8824,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -8839,13 +8842,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>273</v>
@@ -8857,13 +8860,13 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>277</v>
@@ -8875,13 +8878,13 @@
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>277</v>
@@ -8893,13 +8896,13 @@
         <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>277</v>
@@ -8911,16 +8914,16 @@
         <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
@@ -8933,23 +8936,23 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>273</v>
@@ -8961,13 +8964,13 @@
         <v>281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>273</v>
@@ -8979,13 +8982,13 @@
         <v>281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>273</v>
@@ -8997,7 +9000,7 @@
         <v>281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -9006,10 +9009,10 @@
         <v>105</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>281</v>
@@ -9021,7 +9024,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>273</v>
@@ -9033,7 +9036,7 @@
         <v>281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -9042,10 +9045,10 @@
         <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>281</v>
@@ -9057,7 +9060,7 @@
     </row>
     <row r="18" ht="27" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>277</v>
@@ -9069,13 +9072,13 @@
         <v>281</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>277</v>
@@ -9093,7 +9096,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>277</v>
@@ -9105,13 +9108,13 @@
         <v>281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>277</v>
@@ -9123,13 +9126,13 @@
         <v>281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>277</v>
@@ -9141,7 +9144,7 @@
         <v>281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -9150,10 +9153,10 @@
         <v>126</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>281</v>
@@ -9168,10 +9171,10 @@
         <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>281</v>
@@ -9186,10 +9189,10 @@
         <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>281</v>
@@ -9204,10 +9207,10 @@
         <v>135</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>281</v>
@@ -9219,7 +9222,7 @@
     </row>
     <row r="27" ht="40.5" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>277</v>
@@ -9231,13 +9234,13 @@
         <v>281</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" ht="40.5" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>277</v>
@@ -9249,16 +9252,16 @@
         <v>281</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C29" s="5">
         <v>10</v>
@@ -9267,16 +9270,16 @@
         <v>281</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" ht="27" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -9285,7 +9288,7 @@
         <v>281</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -9368,7 +9371,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>273</v>
@@ -9380,13 +9383,13 @@
         <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>273</v>
@@ -9398,13 +9401,13 @@
         <v>274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -9416,7 +9419,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -9425,10 +9428,10 @@
         <v>138</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>281</v>
@@ -9443,10 +9446,10 @@
         <v>141</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>281</v>
@@ -9461,10 +9464,10 @@
         <v>144</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>281</v>
@@ -9479,10 +9482,10 @@
         <v>147</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>281</v>
@@ -9497,10 +9500,10 @@
         <v>150</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>281</v>
@@ -9512,7 +9515,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>277</v>
@@ -9524,13 +9527,13 @@
         <v>281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>277</v>
@@ -9542,7 +9545,7 @@
         <v>281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -9551,10 +9554,10 @@
         <v>153</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>281</v>
@@ -9566,7 +9569,7 @@
     </row>
     <row r="15" ht="27" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>273</v>
@@ -9578,13 +9581,13 @@
         <v>281</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>273</v>
@@ -9596,7 +9599,7 @@
         <v>281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -9605,10 +9608,10 @@
         <v>156</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>281</v>
@@ -9623,10 +9626,10 @@
         <v>159</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>281</v>
@@ -9641,10 +9644,10 @@
         <v>162</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>281</v>
@@ -9656,7 +9659,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>277</v>
@@ -9668,13 +9671,13 @@
         <v>281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>277</v>
@@ -9686,13 +9689,13 @@
         <v>281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>277</v>
@@ -9704,13 +9707,13 @@
         <v>281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>277</v>
@@ -9722,13 +9725,13 @@
         <v>281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>277</v>
@@ -9740,13 +9743,13 @@
         <v>281</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>277</v>
@@ -9758,7 +9761,7 @@
         <v>281</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -9841,7 +9844,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -9853,13 +9856,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -9871,13 +9874,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -9972,7 +9975,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>273</v>
@@ -9984,13 +9987,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -10002,13 +10005,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -10020,7 +10023,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -10029,10 +10032,10 @@
         <v>165</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>281</v>
@@ -10047,10 +10050,10 @@
         <v>168</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>281</v>
@@ -10062,7 +10065,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>277</v>
@@ -10074,13 +10077,13 @@
         <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>277</v>
@@ -10092,13 +10095,13 @@
         <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>277</v>
@@ -10110,13 +10113,13 @@
         <v>281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>277</v>
@@ -10128,13 +10131,13 @@
         <v>281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>277</v>
@@ -10155,10 +10158,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>281</v>
@@ -10173,10 +10176,10 @@
         <v>174</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>281</v>
@@ -10191,10 +10194,10 @@
         <v>177</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>281</v>
@@ -10209,10 +10212,10 @@
         <v>180</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>281</v>
@@ -10224,7 +10227,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>273</v>
@@ -10236,13 +10239,13 @@
         <v>281</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>277</v>
@@ -10254,13 +10257,13 @@
         <v>281</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>277</v>
@@ -10272,13 +10275,13 @@
         <v>281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>277</v>
@@ -10290,16 +10293,16 @@
         <v>281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -10308,13 +10311,13 @@
         <v>281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>277</v>
@@ -10326,13 +10329,13 @@
         <v>281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>277</v>
@@ -10344,13 +10347,13 @@
         <v>281</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>277</v>
@@ -10362,7 +10365,7 @@
         <v>281</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -10380,7 +10383,7 @@
         <v>281</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>300</v>
@@ -10403,7 +10406,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="11.25"/>
@@ -11884,7 +11887,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -11896,16 +11899,16 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -11914,13 +11917,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>273</v>
@@ -11932,7 +11935,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -11968,7 +11971,7 @@
         <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -12013,7 +12016,7 @@
         <v>240</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
@@ -12047,7 +12050,7 @@
         <v>246</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
@@ -12155,7 +12158,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -12167,16 +12170,16 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -12185,7 +12188,7 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -12203,13 +12206,13 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>277</v>
@@ -12221,7 +12224,7 @@
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -12304,7 +12307,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -12322,7 +12325,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -12334,13 +12337,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -12352,13 +12355,13 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>277</v>
@@ -12370,13 +12373,13 @@
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>277</v>
@@ -12394,7 +12397,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>277</v>
@@ -12406,13 +12409,13 @@
         <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>277</v>
@@ -12424,16 +12427,16 @@
         <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -12442,16 +12445,16 @@
         <v>281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -12460,16 +12463,16 @@
         <v>281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -12478,13 +12481,13 @@
         <v>281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>277</v>
@@ -12496,13 +12499,13 @@
         <v>281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>277</v>
@@ -12514,13 +12517,13 @@
         <v>281</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>277</v>
@@ -12538,10 +12541,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -12550,7 +12553,7 @@
         <v>281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -12633,7 +12636,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -12651,7 +12654,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -12663,13 +12666,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -12681,13 +12684,13 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>277</v>
@@ -12699,16 +12702,16 @@
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -12717,13 +12720,13 @@
         <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>277</v>
@@ -12735,16 +12738,16 @@
         <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -12753,13 +12756,13 @@
         <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>277</v>
@@ -12771,13 +12774,13 @@
         <v>281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>277</v>
@@ -12789,7 +12792,7 @@
         <v>281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -12872,7 +12875,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -12884,7 +12887,7 @@
         <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -12967,7 +12970,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -12979,13 +12982,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -12997,13 +13000,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -13015,13 +13018,13 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>277</v>
@@ -13033,7 +13036,7 @@
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>273</v>
@@ -13128,13 +13131,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -13146,13 +13149,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -13164,16 +13167,16 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -13198,13 +13201,13 @@
         <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>277</v>
@@ -13216,7 +13219,7 @@
         <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -13234,7 +13237,7 @@
         <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -13317,7 +13320,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -13333,7 +13336,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -13349,10 +13352,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -13363,10 +13366,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
@@ -13379,7 +13382,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>277</v>
@@ -13395,7 +13398,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>277</v>
@@ -13411,7 +13414,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>277</v>
@@ -13427,7 +13430,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>277</v>
@@ -13443,7 +13446,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>277</v>
@@ -13459,7 +13462,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>277</v>
@@ -13541,7 +13544,7 @@
         <v>272</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
@@ -13556,10 +13559,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -13572,10 +13575,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -13586,7 +13589,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -13681,7 +13684,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>273</v>
@@ -13693,13 +13696,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -13711,7 +13714,7 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -13729,7 +13732,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>300</v>
@@ -13767,7 +13770,7 @@
         <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>300</v>
@@ -13775,10 +13778,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
@@ -13809,10 +13812,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
@@ -13855,7 +13858,7 @@
         <v>281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -15879,7 +15882,7 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -15905,7 +15908,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -15925,7 +15928,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>273</v>
@@ -15937,13 +15940,13 @@
         <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>273</v>
@@ -15955,13 +15958,13 @@
         <v>274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>273</v>
@@ -15973,23 +15976,23 @@
         <v>274</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>274</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>297</v>
@@ -16027,8 +16030,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -16096,7 +16099,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -16108,13 +16111,13 @@
         <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -16126,13 +16129,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -16144,13 +16147,13 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>277</v>
@@ -16162,16 +16165,16 @@
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -16180,13 +16183,13 @@
         <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>277</v>
@@ -16198,7 +16201,7 @@
         <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -16216,7 +16219,7 @@
         <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -16243,7 +16246,7 @@
         <v>240</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
@@ -16277,7 +16280,7 @@
         <v>246</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
@@ -16308,33 +16311,33 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -16353,7 +16356,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -16422,7 +16425,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>273</v>
@@ -16434,13 +16437,13 @@
         <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>273</v>
@@ -16452,13 +16455,13 @@
         <v>274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -16470,16 +16473,16 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -16488,7 +16491,7 @@
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>300</v>
@@ -16499,7 +16502,7 @@
         <v>240</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
@@ -16533,7 +16536,7 @@
         <v>246</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
@@ -16576,13 +16579,14 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="1" ht="41.25" customHeight="1" spans="1:6">
@@ -16825,11 +16829,13 @@
       <c r="E13" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>277</v>
@@ -16841,7 +16847,7 @@
         <v>281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -16943,7 +16949,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -16955,13 +16961,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -16973,13 +16979,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -16991,13 +16997,13 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>277</v>
@@ -17009,7 +17015,7 @@
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -17105,7 +17111,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -17117,13 +17123,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -17135,13 +17141,13 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>277</v>
@@ -17153,13 +17159,13 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>277</v>
@@ -17171,7 +17177,7 @@
         <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -17254,7 +17260,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -17266,13 +17272,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -17284,7 +17290,7 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -17367,7 +17373,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -17379,13 +17385,13 @@
         <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -17397,7 +17403,7 @@
         <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -17415,7 +17421,7 @@
         <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -17439,7 +17445,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>277</v>
@@ -17469,13 +17475,13 @@
         <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>277</v>
@@ -17487,16 +17493,16 @@
         <v>281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -17505,7 +17511,7 @@
         <v>281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -17514,10 +17520,10 @@
         <v>183</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>281</v>
@@ -17534,10 +17540,10 @@
         <v>186</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>281</v>
@@ -17552,10 +17558,10 @@
         <v>189</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>281</v>
@@ -17570,10 +17576,10 @@
         <v>192</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>281</v>
@@ -17588,10 +17594,10 @@
         <v>195</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>281</v>
@@ -17603,7 +17609,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>277</v>
@@ -17615,13 +17621,13 @@
         <v>281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>277</v>
@@ -17639,7 +17645,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>277</v>
@@ -17651,13 +17657,13 @@
         <v>281</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>277</v>
@@ -17669,13 +17675,13 @@
         <v>281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>277</v>
@@ -17687,13 +17693,13 @@
         <v>281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>277</v>
@@ -17705,7 +17711,7 @@
         <v>281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -17714,10 +17720,10 @@
         <v>197</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>281</v>
@@ -17806,7 +17812,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
@@ -17818,13 +17824,13 @@
         <v>281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>277</v>
@@ -17845,10 +17851,10 @@
         <v>98</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>281</v>
@@ -17863,10 +17869,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>281</v>
@@ -17878,7 +17884,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>277</v>
@@ -17896,10 +17902,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -17908,7 +17914,7 @@
         <v>281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F9" s="5"/>
     </row>

--- a/sql/华夏ERP数据库设计汇总.xlsx
+++ b/sql/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="915" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="915" firstSheet="17" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">目录!$A$1:$K$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">修订记录!$A$1:$M$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">修订记录!$A$1:$M$99</definedName>
     <definedName name="押品与债项拆分信息_对公_go" localSheetId="0">'[1]押品与债项拆分信息(对公)'!#REF!</definedName>
     <definedName name="押品与债项拆分信息_对公_go">'[1]押品与债项拆分信息(对公)'!#REF!</definedName>
     <definedName name="押品与债项关系_对公_go" localSheetId="0">'[1]押品与债项关系(对公)'!#REF!</definedName>
@@ -2043,11 +2043,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -2175,7 +2175,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2188,39 +2213,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2232,9 +2229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2253,8 +2252,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2276,136 +2368,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2418,7 +2381,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2428,27 +2397,51 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2467,8 +2460,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2485,13 +2492,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="50">
@@ -2521,7 +2521,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2533,13 +2575,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,37 +2617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,19 +2641,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2623,91 +2677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2725,37 +2713,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2773,7 +2761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2785,7 +2773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2816,20 +2816,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2853,45 +2872,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2914,24 +2903,74 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2941,15 +2980,6 @@
       <top/>
       <bottom style="double">
         <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2973,37 +3003,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3021,79 +3021,79 @@
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3108,741 +3108,741 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="47" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="49" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3863,33 +3863,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3918,123 +3918,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4042,68 +4043,67 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4121,37 +4121,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4179,912 +4179,912 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5176,45 +5176,45 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="446" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5223,46 +5223,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="254" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="255" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="4" borderId="1" xfId="284" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="284" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 28" xfId="1"/>
-    <cellStyle name="?? 33" xfId="2"/>
+    <cellStyle name="?? 33" xfId="1"/>
+    <cellStyle name="?? 28" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
     <cellStyle name="?? 185 2 2" xfId="4"/>
-    <cellStyle name="常规 39" xfId="5"/>
-    <cellStyle name="常规 44" xfId="6"/>
+    <cellStyle name="常规 44" xfId="5"/>
+    <cellStyle name="常规 39" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 15" xfId="10"/>
-    <cellStyle name="?? 20" xfId="11"/>
+    <cellStyle name="?? 20" xfId="10"/>
+    <cellStyle name="?? 15" xfId="11"/>
     <cellStyle name="千位分隔[0]" xfId="12" builtinId="6"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="13"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="13"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
     <cellStyle name="常规 2 26" xfId="15"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="16" builtinId="39"/>
     <cellStyle name="差" xfId="17" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="18" builtinId="3"/>
-    <cellStyle name="?? 11" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="19" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="20"/>
+    <cellStyle name="?? 11" xfId="21"/>
     <cellStyle name="超链接" xfId="22" builtinId="8"/>
     <cellStyle name="百分比" xfId="23" builtinId="5"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
@@ -5291,19 +5291,19 @@
     <cellStyle name="输出" xfId="47" builtinId="21"/>
     <cellStyle name="常规 90" xfId="48"/>
     <cellStyle name="常规 85" xfId="49"/>
-    <cellStyle name="常规 26" xfId="50"/>
-    <cellStyle name="常规 31" xfId="51"/>
+    <cellStyle name="计算" xfId="50" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="51"/>
     <cellStyle name="Input" xfId="52"/>
-    <cellStyle name="计算" xfId="53" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="54"/>
+    <cellStyle name="常规 26" xfId="53"/>
+    <cellStyle name="常规 31" xfId="54"/>
     <cellStyle name="检查单元格" xfId="55" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="56" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="57" builtinId="33"/>
     <cellStyle name="链接单元格" xfId="58" builtinId="24"/>
     <cellStyle name="汇总" xfId="59" builtinId="25"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="61"/>
-    <cellStyle name="20% - Accent3 2" xfId="62"/>
+    <cellStyle name="20% - Accent3 2" xfId="61"/>
+    <cellStyle name="Heading 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="65" builtinId="29"/>
@@ -5315,8 +5315,8 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="常规 2 26 2" xfId="74"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="75"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="74"/>
+    <cellStyle name="常规 2 26 2" xfId="75"/>
     <cellStyle name="强调文字颜色 3" xfId="76" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="77" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="78" builtinId="42"/>
@@ -5336,25 +5336,25 @@
     <cellStyle name="?? 17" xfId="92"/>
     <cellStyle name="?? 22" xfId="93"/>
     <cellStyle name="?? 13" xfId="94"/>
-    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="95"/>
-    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="96"/>
-    <cellStyle name="?? 14" xfId="97"/>
+    <cellStyle name="?? 14" xfId="95"/>
+    <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="96"/>
+    <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="97"/>
     <cellStyle name="??" xfId="98"/>
-    <cellStyle name="40% - Accent5" xfId="99"/>
-    <cellStyle name="?? 10 2" xfId="100"/>
-    <cellStyle name="常规 2 2 3 2" xfId="101"/>
-    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="102"/>
-    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="103"/>
-    <cellStyle name="?? 16" xfId="104"/>
-    <cellStyle name="?? 21" xfId="105"/>
+    <cellStyle name="?? 10 2" xfId="99"/>
+    <cellStyle name="40% - Accent5" xfId="100"/>
+    <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="101"/>
+    <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="102"/>
+    <cellStyle name="?? 16" xfId="103"/>
+    <cellStyle name="?? 21" xfId="104"/>
+    <cellStyle name="常规 2 2 3 2" xfId="105"/>
     <cellStyle name="?? 18" xfId="106"/>
     <cellStyle name="?? 23" xfId="107"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="108"/>
-    <cellStyle name="?? 185" xfId="109"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="110"/>
+    <cellStyle name="?? 185" xfId="108"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="109"/>
+    <cellStyle name="?? 185 2" xfId="110"/>
     <cellStyle name="?? 26" xfId="111"/>
     <cellStyle name="?? 31" xfId="112"/>
-    <cellStyle name="?? 185 2" xfId="113"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="113"/>
     <cellStyle name="?? 19" xfId="114"/>
     <cellStyle name="?? 24" xfId="115"/>
     <cellStyle name="?? 25" xfId="116"/>
@@ -5363,73 +5363,73 @@
     <cellStyle name="?? 32" xfId="119"/>
     <cellStyle name="?? 29" xfId="120"/>
     <cellStyle name="?? 34" xfId="121"/>
-    <cellStyle name="常规 27" xfId="122"/>
-    <cellStyle name="常规 32" xfId="123"/>
-    <cellStyle name="?? 3" xfId="124"/>
+    <cellStyle name="?? 3" xfId="122"/>
+    <cellStyle name="常规 27" xfId="123"/>
+    <cellStyle name="常规 32" xfId="124"/>
     <cellStyle name="?? 35" xfId="125"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="126"/>
-    <cellStyle name="?? 36" xfId="127"/>
-    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="128"/>
-    <cellStyle name="?? 37" xfId="129"/>
+    <cellStyle name="?? 36" xfId="126"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="127"/>
+    <cellStyle name="?? 37" xfId="128"/>
+    <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="129"/>
     <cellStyle name="?? 38" xfId="130"/>
-    <cellStyle name="常规 62 2" xfId="131"/>
-    <cellStyle name="常规 57 2" xfId="132"/>
-    <cellStyle name="常规 28" xfId="133"/>
-    <cellStyle name="常规 33" xfId="134"/>
-    <cellStyle name="?? 4" xfId="135"/>
-    <cellStyle name="常规 62 3" xfId="136"/>
-    <cellStyle name="常规 57 3" xfId="137"/>
+    <cellStyle name="?? 4" xfId="131"/>
+    <cellStyle name="常规 28" xfId="132"/>
+    <cellStyle name="常规 33" xfId="133"/>
+    <cellStyle name="常规 62 2" xfId="134"/>
+    <cellStyle name="常规 57 2" xfId="135"/>
+    <cellStyle name="?? 5" xfId="136"/>
+    <cellStyle name="常规 2 4 3 2" xfId="137"/>
     <cellStyle name="常规 29" xfId="138"/>
     <cellStyle name="常规 34" xfId="139"/>
-    <cellStyle name="常规 2 4 3 2" xfId="140"/>
-    <cellStyle name="?? 5" xfId="141"/>
-    <cellStyle name="常规 35" xfId="142"/>
-    <cellStyle name="常规 40" xfId="143"/>
-    <cellStyle name="?? 6" xfId="144"/>
-    <cellStyle name="常规 36" xfId="145"/>
-    <cellStyle name="常规 41" xfId="146"/>
-    <cellStyle name="?? 7" xfId="147"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="148"/>
-    <cellStyle name="常规 37" xfId="149"/>
-    <cellStyle name="常规 42" xfId="150"/>
-    <cellStyle name="常规 2 2 2" xfId="151"/>
-    <cellStyle name="?? 8" xfId="152"/>
-    <cellStyle name="常规 38" xfId="153"/>
-    <cellStyle name="常规 43" xfId="154"/>
-    <cellStyle name="常规 2 2 3" xfId="155"/>
-    <cellStyle name="?? 9" xfId="156"/>
+    <cellStyle name="常规 62 3" xfId="140"/>
+    <cellStyle name="常规 57 3" xfId="141"/>
+    <cellStyle name="?? 6" xfId="142"/>
+    <cellStyle name="常规 35" xfId="143"/>
+    <cellStyle name="常规 40" xfId="144"/>
+    <cellStyle name="?? 7" xfId="145"/>
+    <cellStyle name="常规 36" xfId="146"/>
+    <cellStyle name="常规 41" xfId="147"/>
+    <cellStyle name="?? 8" xfId="148"/>
+    <cellStyle name="常规 2 2 2" xfId="149"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="150"/>
+    <cellStyle name="常规 37" xfId="151"/>
+    <cellStyle name="常规 42" xfId="152"/>
+    <cellStyle name="?? 9" xfId="153"/>
+    <cellStyle name="常规 2 2 3" xfId="154"/>
+    <cellStyle name="常规 38" xfId="155"/>
+    <cellStyle name="常规 43" xfId="156"/>
     <cellStyle name="??_Sheet1" xfId="157"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="158"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="159"/>
-    <cellStyle name="常规 10 2 2 4 2" xfId="160"/>
-    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="161"/>
-    <cellStyle name="20% - Accent1" xfId="162"/>
+    <cellStyle name="好_Sheet1_ITDM3.2期数据库设计汇总" xfId="160"/>
+    <cellStyle name="20% - Accent1" xfId="161"/>
+    <cellStyle name="常规 10 2 2 4 2" xfId="162"/>
     <cellStyle name="20% - Accent1 2" xfId="163"/>
     <cellStyle name="20% - Accent2" xfId="164"/>
     <cellStyle name="20% - Accent2 2" xfId="165"/>
     <cellStyle name="20% - Accent3" xfId="166"/>
-    <cellStyle name="常规 5 3 2" xfId="167"/>
-    <cellStyle name="20% - Accent4" xfId="168"/>
-    <cellStyle name="常规 4" xfId="169"/>
-    <cellStyle name="20% - Accent4 2" xfId="170"/>
+    <cellStyle name="20% - Accent4" xfId="167"/>
+    <cellStyle name="常规 5 3 2" xfId="168"/>
+    <cellStyle name="20% - Accent4 2" xfId="169"/>
+    <cellStyle name="常规 4" xfId="170"/>
     <cellStyle name="20% - Accent5" xfId="171"/>
     <cellStyle name="20% - Accent5 2" xfId="172"/>
-    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="173"/>
-    <cellStyle name="20% - Accent6" xfId="174"/>
+    <cellStyle name="20% - Accent6" xfId="173"/>
+    <cellStyle name="常规 100 2_ITDM3.2期数据库设计汇总" xfId="174"/>
     <cellStyle name="20% - Accent6 2" xfId="175"/>
-    <cellStyle name="常规 63" xfId="176"/>
-    <cellStyle name="常规 58" xfId="177"/>
-    <cellStyle name="40% - Accent1" xfId="178"/>
-    <cellStyle name="常规 63 2" xfId="179"/>
-    <cellStyle name="常规 58 2" xfId="180"/>
-    <cellStyle name="常规 83" xfId="181"/>
-    <cellStyle name="常规 78" xfId="182"/>
-    <cellStyle name="40% - Accent1 2" xfId="183"/>
-    <cellStyle name="常规 64" xfId="184"/>
-    <cellStyle name="常规 59" xfId="185"/>
-    <cellStyle name="40% - Accent2" xfId="186"/>
-    <cellStyle name="常规 59 2" xfId="187"/>
-    <cellStyle name="40% - Accent2 2" xfId="188"/>
+    <cellStyle name="40% - Accent1" xfId="176"/>
+    <cellStyle name="常规 63" xfId="177"/>
+    <cellStyle name="常规 58" xfId="178"/>
+    <cellStyle name="常规 83" xfId="179"/>
+    <cellStyle name="常规 78" xfId="180"/>
+    <cellStyle name="40% - Accent1 2" xfId="181"/>
+    <cellStyle name="常规 63 2" xfId="182"/>
+    <cellStyle name="常规 58 2" xfId="183"/>
+    <cellStyle name="40% - Accent2" xfId="184"/>
+    <cellStyle name="常规 64" xfId="185"/>
+    <cellStyle name="常规 59" xfId="186"/>
+    <cellStyle name="40% - Accent2 2" xfId="187"/>
+    <cellStyle name="常规 59 2" xfId="188"/>
     <cellStyle name="40% - Accent3" xfId="189"/>
     <cellStyle name="40% - Accent3 2" xfId="190"/>
     <cellStyle name="40% - Accent4" xfId="191"/>
@@ -5437,105 +5437,105 @@
     <cellStyle name="40% - Accent5 2" xfId="193"/>
     <cellStyle name="40% - Accent6" xfId="194"/>
     <cellStyle name="40% - Accent6 2" xfId="195"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="196"/>
-    <cellStyle name="60% - Accent1" xfId="197"/>
-    <cellStyle name="常规 2 2" xfId="198"/>
-    <cellStyle name="60% - Accent2" xfId="199"/>
-    <cellStyle name="常规 2 3" xfId="200"/>
+    <cellStyle name="60% - Accent1" xfId="196"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="197"/>
+    <cellStyle name="60% - Accent2" xfId="198"/>
+    <cellStyle name="常规 2 2" xfId="199"/>
+    <cellStyle name="60% - Accent3" xfId="200"/>
     <cellStyle name="常规 10 2 4 2" xfId="201"/>
-    <cellStyle name="60% - Accent3" xfId="202"/>
-    <cellStyle name="常规 2 4" xfId="203"/>
-    <cellStyle name="60% - Accent4" xfId="204"/>
-    <cellStyle name="常规 2 5" xfId="205"/>
-    <cellStyle name="60% - Accent5" xfId="206"/>
-    <cellStyle name="常规 2 6" xfId="207"/>
-    <cellStyle name="60% - Accent6" xfId="208"/>
+    <cellStyle name="常规 2 3" xfId="202"/>
+    <cellStyle name="60% - Accent4" xfId="203"/>
+    <cellStyle name="常规 2 4" xfId="204"/>
+    <cellStyle name="60% - Accent5" xfId="205"/>
+    <cellStyle name="常规 2 5" xfId="206"/>
+    <cellStyle name="60% - Accent6" xfId="207"/>
+    <cellStyle name="常规 2 6" xfId="208"/>
     <cellStyle name="Accent1" xfId="209"/>
     <cellStyle name="Accent2" xfId="210"/>
-    <cellStyle name="常规 102 2" xfId="211"/>
-    <cellStyle name="Accent3" xfId="212"/>
-    <cellStyle name="常规 102 3" xfId="213"/>
-    <cellStyle name="Accent4" xfId="214"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="215"/>
-    <cellStyle name="Accent5" xfId="216"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="217"/>
-    <cellStyle name="Accent6" xfId="218"/>
-    <cellStyle name="常规 2 3 2" xfId="219"/>
-    <cellStyle name="Bad" xfId="220"/>
-    <cellStyle name="常规 36 2" xfId="221"/>
+    <cellStyle name="Accent3" xfId="211"/>
+    <cellStyle name="常规 102 2" xfId="212"/>
+    <cellStyle name="Accent4" xfId="213"/>
+    <cellStyle name="常规 102 3" xfId="214"/>
+    <cellStyle name="Accent5" xfId="215"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="216"/>
+    <cellStyle name="Accent6" xfId="217"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="218"/>
+    <cellStyle name="Bad" xfId="219"/>
+    <cellStyle name="常规 2 3 2" xfId="220"/>
+    <cellStyle name="Calculation" xfId="221"/>
     <cellStyle name="常规 106" xfId="222"/>
     <cellStyle name="常规 111" xfId="223"/>
-    <cellStyle name="Calculation" xfId="224"/>
-    <cellStyle name="常规 15" xfId="225"/>
-    <cellStyle name="常规 20" xfId="226"/>
-    <cellStyle name="Check Cell" xfId="227"/>
+    <cellStyle name="常规 36 2" xfId="224"/>
+    <cellStyle name="Check Cell" xfId="225"/>
+    <cellStyle name="常规 15" xfId="226"/>
+    <cellStyle name="常规 20" xfId="227"/>
     <cellStyle name="Explanatory Text" xfId="228"/>
-    <cellStyle name="常规 16 2" xfId="229"/>
-    <cellStyle name="Good" xfId="230"/>
-    <cellStyle name="常规 10" xfId="231"/>
+    <cellStyle name="Good" xfId="229"/>
+    <cellStyle name="常规 10" xfId="230"/>
+    <cellStyle name="常规 16 2" xfId="231"/>
     <cellStyle name="Heading 1" xfId="232"/>
     <cellStyle name="Heading 2" xfId="233"/>
     <cellStyle name="Heading 4" xfId="234"/>
     <cellStyle name="Linked Cell" xfId="235"/>
     <cellStyle name="Neutral" xfId="236"/>
-    <cellStyle name="常规 115" xfId="237"/>
-    <cellStyle name="常规 120" xfId="238"/>
-    <cellStyle name="Normal 2" xfId="239"/>
-    <cellStyle name="常规 120 2" xfId="240"/>
-    <cellStyle name="Normal 2 2" xfId="241"/>
+    <cellStyle name="Normal 2" xfId="237"/>
+    <cellStyle name="常规 115" xfId="238"/>
+    <cellStyle name="常规 120" xfId="239"/>
+    <cellStyle name="Normal 2 2" xfId="240"/>
+    <cellStyle name="常规 120 2" xfId="241"/>
     <cellStyle name="Normal 2 3" xfId="242"/>
-    <cellStyle name="Normal 3" xfId="243"/>
-    <cellStyle name="常规 3 7 2" xfId="244"/>
-    <cellStyle name="常规 116" xfId="245"/>
-    <cellStyle name="常规 121" xfId="246"/>
+    <cellStyle name="常规 116" xfId="243"/>
+    <cellStyle name="常规 121" xfId="244"/>
+    <cellStyle name="Normal 3" xfId="245"/>
+    <cellStyle name="常规 3 7 2" xfId="246"/>
     <cellStyle name="Normal 3 2" xfId="247"/>
     <cellStyle name="Normal_CEB EDW_任务跟踪管理" xfId="248"/>
-    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="249"/>
-    <cellStyle name="Note" xfId="250"/>
+    <cellStyle name="Note" xfId="249"/>
+    <cellStyle name="常规 10 2 2_ITDM3.2期数据库设计汇总" xfId="250"/>
     <cellStyle name="Note 2" xfId="251"/>
     <cellStyle name="Output" xfId="252"/>
     <cellStyle name="常规 4 2 3 4" xfId="253"/>
-    <cellStyle name="常规 2" xfId="254"/>
-    <cellStyle name="Title" xfId="255"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="256"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="257"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="258"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="259"/>
-    <cellStyle name="Total" xfId="260"/>
+    <cellStyle name="Title" xfId="254"/>
+    <cellStyle name="常规 2" xfId="255"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="256"/>
+    <cellStyle name="Total" xfId="257"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="258"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="259"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="260"/>
     <cellStyle name="Warning Text" xfId="261"/>
-    <cellStyle name="常规 10 2 2 3 2" xfId="262"/>
-    <cellStyle name="百分比 2" xfId="263"/>
+    <cellStyle name="百分比 2" xfId="262"/>
+    <cellStyle name="常规 10 2 2 3 2" xfId="263"/>
     <cellStyle name="差_RDM_RWA_P-F_数据映射_V0.0" xfId="264"/>
     <cellStyle name="差_RDM_零售_P-F_数据映射_V1.0" xfId="265"/>
     <cellStyle name="差_Sheet1" xfId="266"/>
     <cellStyle name="差_Sheet1 2" xfId="267"/>
     <cellStyle name="差_Sheet2" xfId="268"/>
-    <cellStyle name="差_Sheet3" xfId="269"/>
-    <cellStyle name="常规 3 2" xfId="270"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="271"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="269"/>
+    <cellStyle name="差_Sheet3" xfId="270"/>
+    <cellStyle name="常规 3 2" xfId="271"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="272"/>
     <cellStyle name="常规 96" xfId="273"/>
     <cellStyle name="差_保函明细" xfId="274"/>
     <cellStyle name="差_对公资产监管经济资本表" xfId="275"/>
-    <cellStyle name="常规 45 2 2" xfId="276"/>
-    <cellStyle name="常规 50 2 2" xfId="277"/>
-    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="278"/>
+    <cellStyle name="差_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="276"/>
+    <cellStyle name="常规 45 2 2" xfId="277"/>
+    <cellStyle name="常规 50 2 2" xfId="278"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="279"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="280"/>
-    <cellStyle name="常规 51 2" xfId="281"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="282"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="281"/>
+    <cellStyle name="常规 51 2" xfId="282"/>
     <cellStyle name="常规 10 2" xfId="283"/>
-    <cellStyle name="常规 2 7" xfId="284"/>
-    <cellStyle name="常规 10 2 2" xfId="285"/>
+    <cellStyle name="常规 10 2 2" xfId="284"/>
+    <cellStyle name="常规 2 7" xfId="285"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="286"/>
     <cellStyle name="常规 10 2 2 2" xfId="287"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="288"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="289"/>
-    <cellStyle name="常规 10 2 2 2 3 3" xfId="290"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="291"/>
-    <cellStyle name="常规 47" xfId="292"/>
-    <cellStyle name="常规 52" xfId="293"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="294"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2" xfId="290"/>
+    <cellStyle name="常规 10 2 2 2 3 3" xfId="291"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="292"/>
+    <cellStyle name="常规 47" xfId="293"/>
+    <cellStyle name="常规 52" xfId="294"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="295"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="296"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="297"/>
@@ -5556,8 +5556,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="312"/>
     <cellStyle name="常规 10 2 2 6" xfId="313"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="314"/>
-    <cellStyle name="常规 2 8" xfId="315"/>
-    <cellStyle name="常规 10 2 3" xfId="316"/>
+    <cellStyle name="常规 10 2 3" xfId="315"/>
+    <cellStyle name="常规 2 8" xfId="316"/>
     <cellStyle name="常规 10 2 3 2" xfId="317"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="318"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="319"/>
@@ -5570,14 +5570,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="326"/>
     <cellStyle name="常规 10 2 3 4" xfId="327"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="328"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="329"/>
+    <cellStyle name="常规 10 2 3 5" xfId="329"/>
     <cellStyle name="常规 2 10" xfId="330"/>
-    <cellStyle name="常规 10 2 3 5" xfId="331"/>
-    <cellStyle name="常规 2 9" xfId="332"/>
-    <cellStyle name="常规 10 2 4" xfId="333"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="331"/>
+    <cellStyle name="常规 10 2 4" xfId="332"/>
+    <cellStyle name="常规 2 9" xfId="333"/>
     <cellStyle name="常规 10 2 5" xfId="334"/>
-    <cellStyle name="常规 3 3" xfId="335"/>
-    <cellStyle name="常规 10 2 5 2" xfId="336"/>
+    <cellStyle name="常规 10 2 5 2" xfId="335"/>
+    <cellStyle name="常规 3 3" xfId="336"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="337"/>
     <cellStyle name="常规 100" xfId="338"/>
     <cellStyle name="常规 4 2 3" xfId="339"/>
@@ -5596,8 +5596,8 @@
     <cellStyle name="常规 101 2" xfId="352"/>
     <cellStyle name="常规 4 6 2" xfId="353"/>
     <cellStyle name="常规 101 2 2" xfId="354"/>
-    <cellStyle name="常规 101 3" xfId="355"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="356"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="355"/>
+    <cellStyle name="常规 101 3" xfId="356"/>
     <cellStyle name="常规 102" xfId="357"/>
     <cellStyle name="常规 4 2 5" xfId="358"/>
     <cellStyle name="常规 4 7" xfId="359"/>
@@ -5632,23 +5632,23 @@
     <cellStyle name="常规 21" xfId="388"/>
     <cellStyle name="常规 17" xfId="389"/>
     <cellStyle name="常规 22" xfId="390"/>
-    <cellStyle name="常规 55" xfId="391"/>
-    <cellStyle name="常规 60" xfId="392"/>
-    <cellStyle name="常规 17 2" xfId="393"/>
+    <cellStyle name="常规 17 2" xfId="391"/>
+    <cellStyle name="常规 55" xfId="392"/>
+    <cellStyle name="常规 60" xfId="393"/>
     <cellStyle name="常规 18" xfId="394"/>
     <cellStyle name="常规 23" xfId="395"/>
     <cellStyle name="常规 18 2" xfId="396"/>
-    <cellStyle name="常规 51 2 2" xfId="397"/>
-    <cellStyle name="常规 19" xfId="398"/>
-    <cellStyle name="常规 24" xfId="399"/>
+    <cellStyle name="常规 19" xfId="397"/>
+    <cellStyle name="常规 24" xfId="398"/>
+    <cellStyle name="常规 51 2 2" xfId="399"/>
     <cellStyle name="常规 2 11" xfId="400"/>
     <cellStyle name="常规 2 12" xfId="401"/>
     <cellStyle name="常规 2 13" xfId="402"/>
     <cellStyle name="常规 2 14" xfId="403"/>
-    <cellStyle name="常规 62 2 2" xfId="404"/>
-    <cellStyle name="常规 57 2 2" xfId="405"/>
-    <cellStyle name="常规 2 15" xfId="406"/>
-    <cellStyle name="常规 2 20" xfId="407"/>
+    <cellStyle name="常规 2 15" xfId="404"/>
+    <cellStyle name="常规 2 20" xfId="405"/>
+    <cellStyle name="常规 62 2 2" xfId="406"/>
+    <cellStyle name="常规 57 2 2" xfId="407"/>
     <cellStyle name="常规 2 16" xfId="408"/>
     <cellStyle name="常规 2 21" xfId="409"/>
     <cellStyle name="常规 2 16 2" xfId="410"/>
@@ -5664,12 +5664,12 @@
     <cellStyle name="常规 2 25" xfId="420"/>
     <cellStyle name="常规 2 3 3" xfId="421"/>
     <cellStyle name="常规 2 3 4" xfId="422"/>
-    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="423"/>
-    <cellStyle name="常规 2 3 4 2" xfId="424"/>
+    <cellStyle name="常规 2 3 4 2" xfId="423"/>
+    <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="424"/>
     <cellStyle name="常规 2 4 2" xfId="425"/>
-    <cellStyle name="常规 56 3" xfId="426"/>
-    <cellStyle name="常规 61 3" xfId="427"/>
-    <cellStyle name="常规 2 4 2 2" xfId="428"/>
+    <cellStyle name="常规 2 4 2 2" xfId="426"/>
+    <cellStyle name="常规 56 3" xfId="427"/>
+    <cellStyle name="常规 61 3" xfId="428"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="429"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="430"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="431"/>
@@ -5681,22 +5681,22 @@
     <cellStyle name="常规 2 4 3" xfId="437"/>
     <cellStyle name="常规 2 4 4" xfId="438"/>
     <cellStyle name="常规 2 4 5" xfId="439"/>
-    <cellStyle name="常规 59 3" xfId="440"/>
+    <cellStyle name="常规 2 4 5 2" xfId="440"/>
     <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="441"/>
-    <cellStyle name="常规 2 4 5 2" xfId="442"/>
+    <cellStyle name="常规 59 3" xfId="442"/>
     <cellStyle name="常规 25" xfId="443"/>
     <cellStyle name="常规 30" xfId="444"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="445"/>
-    <cellStyle name="常规 3" xfId="446"/>
+    <cellStyle name="常规 3" xfId="445"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="446"/>
     <cellStyle name="常规 3 2 2" xfId="447"/>
     <cellStyle name="常规 3 4" xfId="448"/>
     <cellStyle name="常规 3 5" xfId="449"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="450"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="451"/>
-    <cellStyle name="常规 3 6" xfId="452"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="453"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="454"/>
-    <cellStyle name="常规 3 7" xfId="455"/>
+    <cellStyle name="常规 3 6" xfId="450"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="451"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="452"/>
+    <cellStyle name="常规 3 7" xfId="453"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="454"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="455"/>
     <cellStyle name="常规 3 8" xfId="456"/>
     <cellStyle name="常规 35 2" xfId="457"/>
     <cellStyle name="常规 4 2" xfId="458"/>
@@ -5738,10 +5738,10 @@
     <cellStyle name="常规 53" xfId="494"/>
     <cellStyle name="常规 48 2 2" xfId="495"/>
     <cellStyle name="常规 53 2 2" xfId="496"/>
-    <cellStyle name="常规 49" xfId="497"/>
-    <cellStyle name="常规 54" xfId="498"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="499"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="500"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="497"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="498"/>
+    <cellStyle name="常规 49" xfId="499"/>
+    <cellStyle name="常规 54" xfId="500"/>
     <cellStyle name="常规 49 2 2" xfId="501"/>
     <cellStyle name="常规 54 2 2" xfId="502"/>
     <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="503"/>
@@ -5752,220 +5752,220 @@
     <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="508"/>
     <cellStyle name="常规 5 3" xfId="509"/>
     <cellStyle name="常规 5 4" xfId="510"/>
-    <cellStyle name="常规 51 3" xfId="511"/>
-    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="512"/>
+    <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="511"/>
+    <cellStyle name="常规 51 3" xfId="512"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="513"/>
-    <cellStyle name="常规 55 2" xfId="514"/>
-    <cellStyle name="常规 60 2" xfId="515"/>
-    <cellStyle name="常规 55 2 2" xfId="516"/>
-    <cellStyle name="常规 60 2 2" xfId="517"/>
-    <cellStyle name="常规 55 3" xfId="518"/>
-    <cellStyle name="常规 60 3" xfId="519"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="520"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="521"/>
-    <cellStyle name="常规 56" xfId="522"/>
-    <cellStyle name="常规 61" xfId="523"/>
-    <cellStyle name="常规 56 2" xfId="524"/>
-    <cellStyle name="常规 61 2" xfId="525"/>
-    <cellStyle name="常规 56 2 2" xfId="526"/>
-    <cellStyle name="常规 61 2 2" xfId="527"/>
-    <cellStyle name="常规 62" xfId="528"/>
-    <cellStyle name="常规 57" xfId="529"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="531"/>
-    <cellStyle name="常规 63 2 2" xfId="532"/>
-    <cellStyle name="常规 58 2 2" xfId="533"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="534"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="535"/>
-    <cellStyle name="常规 63 3" xfId="536"/>
-    <cellStyle name="常规 58 3" xfId="537"/>
+    <cellStyle name="常规 60 2" xfId="514"/>
+    <cellStyle name="常规 55 2" xfId="515"/>
+    <cellStyle name="常规 60 2 2" xfId="516"/>
+    <cellStyle name="常规 55 2 2" xfId="517"/>
+    <cellStyle name="常规 60 3" xfId="518"/>
+    <cellStyle name="常规 55 3" xfId="519"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="520"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="521"/>
+    <cellStyle name="常规 61" xfId="522"/>
+    <cellStyle name="常规 56" xfId="523"/>
+    <cellStyle name="常规 61 2" xfId="524"/>
+    <cellStyle name="常规 56 2" xfId="525"/>
+    <cellStyle name="常规 61 2 2" xfId="526"/>
+    <cellStyle name="常规 56 2 2" xfId="527"/>
+    <cellStyle name="常规 57" xfId="528"/>
+    <cellStyle name="常规 62" xfId="529"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="531"/>
+    <cellStyle name="常规 58 2 2" xfId="532"/>
+    <cellStyle name="常规 63 2 2" xfId="533"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="534"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="535"/>
+    <cellStyle name="常规 58 3" xfId="536"/>
+    <cellStyle name="常规 63 3" xfId="537"/>
     <cellStyle name="常规 6 2" xfId="538"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="539"/>
+    <cellStyle name="常规 6 3" xfId="539"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="540"/>
-    <cellStyle name="常规 6 3" xfId="541"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="541"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="542"/>
-    <cellStyle name="常规 70" xfId="543"/>
-    <cellStyle name="常规 65" xfId="544"/>
-    <cellStyle name="常规 70 2" xfId="545"/>
-    <cellStyle name="常规 65 2" xfId="546"/>
-    <cellStyle name="常规 97 3" xfId="547"/>
+    <cellStyle name="常规 65" xfId="543"/>
+    <cellStyle name="常规 70" xfId="544"/>
+    <cellStyle name="常规 65 2" xfId="545"/>
+    <cellStyle name="常规 70 2" xfId="546"/>
+    <cellStyle name="常规 65 2 2" xfId="547"/>
     <cellStyle name="常规 70 2 2" xfId="548"/>
-    <cellStyle name="常规 65 2 2" xfId="549"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="550"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="551"/>
-    <cellStyle name="常规 70 3" xfId="552"/>
-    <cellStyle name="常规 65 3" xfId="553"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 71" xfId="556"/>
-    <cellStyle name="常规 66" xfId="557"/>
-    <cellStyle name="常规 71 2" xfId="558"/>
-    <cellStyle name="常规 66 2" xfId="559"/>
-    <cellStyle name="常规 71 2 2" xfId="560"/>
-    <cellStyle name="常规 66 2 2" xfId="561"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="563"/>
-    <cellStyle name="样式 1" xfId="564"/>
+    <cellStyle name="常规 97 3" xfId="549"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="550"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="551"/>
+    <cellStyle name="常规 65 3" xfId="552"/>
+    <cellStyle name="常规 70 3" xfId="553"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 66" xfId="556"/>
+    <cellStyle name="常规 71" xfId="557"/>
+    <cellStyle name="常规 66 2" xfId="558"/>
+    <cellStyle name="常规 71 2" xfId="559"/>
+    <cellStyle name="常规 66 2 2" xfId="560"/>
+    <cellStyle name="常规 71 2 2" xfId="561"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="常规 66 3" xfId="564"/>
     <cellStyle name="常规 71 3" xfId="565"/>
-    <cellStyle name="常规 66 3" xfId="566"/>
-    <cellStyle name="常规 72" xfId="567"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="568"/>
-    <cellStyle name="常规 67" xfId="569"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="570"/>
-    <cellStyle name="常规 72 2" xfId="571"/>
-    <cellStyle name="常规 67 2" xfId="572"/>
-    <cellStyle name="常规 72 2 2" xfId="573"/>
-    <cellStyle name="常规 67 2 2" xfId="574"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 72 3" xfId="577"/>
-    <cellStyle name="常规 67 3" xfId="578"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="579"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="580"/>
-    <cellStyle name="常规 73" xfId="581"/>
-    <cellStyle name="常规 68" xfId="582"/>
-    <cellStyle name="常规 73 2" xfId="583"/>
-    <cellStyle name="常规 68 2" xfId="584"/>
-    <cellStyle name="常规 73 2 2" xfId="585"/>
-    <cellStyle name="常规 68 2 2" xfId="586"/>
-    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="587"/>
-    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="588"/>
-    <cellStyle name="常规 73 3" xfId="589"/>
-    <cellStyle name="常规 68 3" xfId="590"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 74" xfId="593"/>
-    <cellStyle name="常规 69" xfId="594"/>
-    <cellStyle name="常规 74 2" xfId="595"/>
-    <cellStyle name="常规 69 2" xfId="596"/>
-    <cellStyle name="常规 74 2 2" xfId="597"/>
-    <cellStyle name="常规 69 2 2" xfId="598"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="599"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="600"/>
-    <cellStyle name="常规 74 3" xfId="601"/>
-    <cellStyle name="常规 69 3" xfId="602"/>
-    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="603"/>
-    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="604"/>
+    <cellStyle name="样式 1" xfId="566"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="567"/>
+    <cellStyle name="常规 67" xfId="568"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="569"/>
+    <cellStyle name="常规 72" xfId="570"/>
+    <cellStyle name="常规 67 2" xfId="571"/>
+    <cellStyle name="常规 72 2" xfId="572"/>
+    <cellStyle name="常规 67 2 2" xfId="573"/>
+    <cellStyle name="常规 72 2 2" xfId="574"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 67 3" xfId="577"/>
+    <cellStyle name="常规 72 3" xfId="578"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="579"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="580"/>
+    <cellStyle name="常规 68" xfId="581"/>
+    <cellStyle name="常规 73" xfId="582"/>
+    <cellStyle name="常规 68 2" xfId="583"/>
+    <cellStyle name="常规 73 2" xfId="584"/>
+    <cellStyle name="常规 68 2 2" xfId="585"/>
+    <cellStyle name="常规 73 2 2" xfId="586"/>
+    <cellStyle name="常规 68 2_ITDM3.2期数据库设计汇总" xfId="587"/>
+    <cellStyle name="常规 73 2_ITDM3.2期数据库设计汇总" xfId="588"/>
+    <cellStyle name="常规 68 3" xfId="589"/>
+    <cellStyle name="常规 73 3" xfId="590"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 69" xfId="593"/>
+    <cellStyle name="常规 74" xfId="594"/>
+    <cellStyle name="常规 69 2" xfId="595"/>
+    <cellStyle name="常规 74 2" xfId="596"/>
+    <cellStyle name="常规 69 2 2" xfId="597"/>
+    <cellStyle name="常规 74 2 2" xfId="598"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="599"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="600"/>
+    <cellStyle name="常规 69 3" xfId="601"/>
+    <cellStyle name="常规 74 3" xfId="602"/>
+    <cellStyle name="常规 69_ITDM3.2期数据库设计汇总" xfId="603"/>
+    <cellStyle name="常规 74_ITDM3.2期数据库设计汇总" xfId="604"/>
     <cellStyle name="常规 7" xfId="605"/>
     <cellStyle name="常规 7 2" xfId="606"/>
     <cellStyle name="常规 7 3" xfId="607"/>
     <cellStyle name="常规 7_ITDM3.2期数据库设计汇总" xfId="608"/>
-    <cellStyle name="常规 80" xfId="609"/>
-    <cellStyle name="常规 75" xfId="610"/>
-    <cellStyle name="常规 80 2" xfId="611"/>
-    <cellStyle name="常规 75 2" xfId="612"/>
-    <cellStyle name="常规 80 2 2" xfId="613"/>
-    <cellStyle name="常规 75 2 2" xfId="614"/>
-    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="615"/>
-    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="616"/>
-    <cellStyle name="常规 80 3" xfId="617"/>
-    <cellStyle name="常规 75 3" xfId="618"/>
-    <cellStyle name="常规 81" xfId="619"/>
-    <cellStyle name="常规 76" xfId="620"/>
-    <cellStyle name="常规 81 2" xfId="621"/>
-    <cellStyle name="常规 76 2" xfId="622"/>
-    <cellStyle name="常规 81 2 2" xfId="623"/>
-    <cellStyle name="常规 76 2 2" xfId="624"/>
-    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="625"/>
-    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="626"/>
-    <cellStyle name="常规 81 3" xfId="627"/>
-    <cellStyle name="常规 76 3" xfId="628"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="630"/>
-    <cellStyle name="常规 82" xfId="631"/>
-    <cellStyle name="常规 77" xfId="632"/>
-    <cellStyle name="常规 82 2" xfId="633"/>
-    <cellStyle name="常规 77 2" xfId="634"/>
-    <cellStyle name="常规 82 2 2" xfId="635"/>
-    <cellStyle name="常规 77 2 2" xfId="636"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="637"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="638"/>
-    <cellStyle name="常规 82 3" xfId="639"/>
-    <cellStyle name="常规 77 3" xfId="640"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="641"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="642"/>
-    <cellStyle name="常规 83 2" xfId="643"/>
-    <cellStyle name="常规 78 2" xfId="644"/>
-    <cellStyle name="常规 83 2 2" xfId="645"/>
-    <cellStyle name="常规 78 2 2" xfId="646"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="647"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="648"/>
-    <cellStyle name="常规 83 3" xfId="649"/>
-    <cellStyle name="常规 78 3" xfId="650"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="651"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="652"/>
-    <cellStyle name="常规 84" xfId="653"/>
-    <cellStyle name="常规 79" xfId="654"/>
-    <cellStyle name="常规 84 2" xfId="655"/>
-    <cellStyle name="常规 79 2" xfId="656"/>
-    <cellStyle name="常规 84 2 2" xfId="657"/>
-    <cellStyle name="常规 79 2 2" xfId="658"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="659"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="660"/>
-    <cellStyle name="常规 84 3" xfId="661"/>
-    <cellStyle name="常规 79 3" xfId="662"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 75" xfId="609"/>
+    <cellStyle name="常规 80" xfId="610"/>
+    <cellStyle name="常规 75 2" xfId="611"/>
+    <cellStyle name="常规 80 2" xfId="612"/>
+    <cellStyle name="常规 75 2 2" xfId="613"/>
+    <cellStyle name="常规 80 2 2" xfId="614"/>
+    <cellStyle name="常规 75 2_ITDM3.2期数据库设计汇总" xfId="615"/>
+    <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="616"/>
+    <cellStyle name="常规 75 3" xfId="617"/>
+    <cellStyle name="常规 80 3" xfId="618"/>
+    <cellStyle name="常规 76" xfId="619"/>
+    <cellStyle name="常规 81" xfId="620"/>
+    <cellStyle name="常规 76 2" xfId="621"/>
+    <cellStyle name="常规 81 2" xfId="622"/>
+    <cellStyle name="常规 76 2 2" xfId="623"/>
+    <cellStyle name="常规 81 2 2" xfId="624"/>
+    <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="625"/>
+    <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="626"/>
+    <cellStyle name="常规 76 3" xfId="627"/>
+    <cellStyle name="常规 81 3" xfId="628"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="630"/>
+    <cellStyle name="常规 77" xfId="631"/>
+    <cellStyle name="常规 82" xfId="632"/>
+    <cellStyle name="常规 77 2" xfId="633"/>
+    <cellStyle name="常规 82 2" xfId="634"/>
+    <cellStyle name="常规 77 2 2" xfId="635"/>
+    <cellStyle name="常规 82 2 2" xfId="636"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="637"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="638"/>
+    <cellStyle name="常规 77 3" xfId="639"/>
+    <cellStyle name="常规 82 3" xfId="640"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="641"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="642"/>
+    <cellStyle name="常规 78 2" xfId="643"/>
+    <cellStyle name="常规 83 2" xfId="644"/>
+    <cellStyle name="常规 78 2 2" xfId="645"/>
+    <cellStyle name="常规 83 2 2" xfId="646"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="647"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="648"/>
+    <cellStyle name="常规 78 3" xfId="649"/>
+    <cellStyle name="常规 83 3" xfId="650"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="651"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="652"/>
+    <cellStyle name="常规 79" xfId="653"/>
+    <cellStyle name="常规 84" xfId="654"/>
+    <cellStyle name="常规 79 2" xfId="655"/>
+    <cellStyle name="常规 84 2" xfId="656"/>
+    <cellStyle name="常规 79 2 2" xfId="657"/>
+    <cellStyle name="常规 84 2 2" xfId="658"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="659"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="660"/>
+    <cellStyle name="常规 79 3" xfId="661"/>
+    <cellStyle name="常规 84 3" xfId="662"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="664"/>
     <cellStyle name="常规 8" xfId="665"/>
     <cellStyle name="常规 8 2" xfId="666"/>
-    <cellStyle name="常规 90 2" xfId="667"/>
-    <cellStyle name="常规 85 2" xfId="668"/>
-    <cellStyle name="常规 90 2 2" xfId="669"/>
-    <cellStyle name="常规 85 2 2" xfId="670"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 90 3" xfId="673"/>
-    <cellStyle name="常规 85 3" xfId="674"/>
-    <cellStyle name="常规 96 3" xfId="675"/>
+    <cellStyle name="常规 85 2" xfId="667"/>
+    <cellStyle name="常规 90 2" xfId="668"/>
+    <cellStyle name="常规 85 2 2" xfId="669"/>
+    <cellStyle name="常规 90 2 2" xfId="670"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 85 3" xfId="673"/>
+    <cellStyle name="常规 90 3" xfId="674"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="675"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="676"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="677"/>
-    <cellStyle name="常规 91" xfId="678"/>
-    <cellStyle name="常规 86" xfId="679"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="680"/>
-    <cellStyle name="常规 91 2" xfId="681"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="682"/>
-    <cellStyle name="常规 86 2" xfId="683"/>
-    <cellStyle name="常规 91 2 2" xfId="684"/>
-    <cellStyle name="常规 86 2 2" xfId="685"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="686"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="687"/>
-    <cellStyle name="常规 91 3" xfId="688"/>
-    <cellStyle name="常规 86 3" xfId="689"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="690"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="691"/>
-    <cellStyle name="常规 92" xfId="692"/>
-    <cellStyle name="常规 87" xfId="693"/>
-    <cellStyle name="常规 92 2" xfId="694"/>
-    <cellStyle name="常规 87 2" xfId="695"/>
-    <cellStyle name="常规 92 2 2" xfId="696"/>
-    <cellStyle name="常规 87 2 2" xfId="697"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="698"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="699"/>
-    <cellStyle name="常规 92 3" xfId="700"/>
-    <cellStyle name="常规 87 3" xfId="701"/>
-    <cellStyle name="常规 93" xfId="702"/>
-    <cellStyle name="常规 88" xfId="703"/>
-    <cellStyle name="常规 93 2" xfId="704"/>
-    <cellStyle name="常规 88 2" xfId="705"/>
-    <cellStyle name="常规 93 2 2" xfId="706"/>
-    <cellStyle name="常规 88 2 2" xfId="707"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="708"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="709"/>
-    <cellStyle name="常规 93 3" xfId="710"/>
-    <cellStyle name="常规 88 3" xfId="711"/>
-    <cellStyle name="常规 94" xfId="712"/>
-    <cellStyle name="常规 89" xfId="713"/>
-    <cellStyle name="常规 94 2" xfId="714"/>
-    <cellStyle name="常规 89 2" xfId="715"/>
-    <cellStyle name="常规 98" xfId="716"/>
+    <cellStyle name="常规 96 3" xfId="677"/>
+    <cellStyle name="常规 86" xfId="678"/>
+    <cellStyle name="常规 91" xfId="679"/>
+    <cellStyle name="常规 86 2" xfId="680"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="681"/>
+    <cellStyle name="常规 91 2" xfId="682"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="683"/>
+    <cellStyle name="常规 86 2 2" xfId="684"/>
+    <cellStyle name="常规 91 2 2" xfId="685"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="686"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="687"/>
+    <cellStyle name="常规 86 3" xfId="688"/>
+    <cellStyle name="常规 91 3" xfId="689"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="690"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="691"/>
+    <cellStyle name="常规 87" xfId="692"/>
+    <cellStyle name="常规 92" xfId="693"/>
+    <cellStyle name="常规 87 2" xfId="694"/>
+    <cellStyle name="常规 92 2" xfId="695"/>
+    <cellStyle name="常规 87 2 2" xfId="696"/>
+    <cellStyle name="常规 92 2 2" xfId="697"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="698"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="699"/>
+    <cellStyle name="常规 87 3" xfId="700"/>
+    <cellStyle name="常规 92 3" xfId="701"/>
+    <cellStyle name="常规 88" xfId="702"/>
+    <cellStyle name="常规 93" xfId="703"/>
+    <cellStyle name="常规 88 2" xfId="704"/>
+    <cellStyle name="常规 93 2" xfId="705"/>
+    <cellStyle name="常规 88 2 2" xfId="706"/>
+    <cellStyle name="常规 93 2 2" xfId="707"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="708"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="709"/>
+    <cellStyle name="常规 88 3" xfId="710"/>
+    <cellStyle name="常规 93 3" xfId="711"/>
+    <cellStyle name="常规 89" xfId="712"/>
+    <cellStyle name="常规 94" xfId="713"/>
+    <cellStyle name="常规 89 2" xfId="714"/>
+    <cellStyle name="常规 94 2" xfId="715"/>
+    <cellStyle name="常规 89 2 2" xfId="716"/>
     <cellStyle name="常规 94 2 2" xfId="717"/>
-    <cellStyle name="常规 89 2 2" xfId="718"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="719"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="720"/>
-    <cellStyle name="常规 94 3" xfId="721"/>
-    <cellStyle name="常规 89 3" xfId="722"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="724"/>
+    <cellStyle name="常规 98" xfId="718"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="719"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="720"/>
+    <cellStyle name="常规 89 3" xfId="721"/>
+    <cellStyle name="常规 94 3" xfId="722"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="724"/>
     <cellStyle name="常规 9" xfId="725"/>
     <cellStyle name="常规 9 2" xfId="726"/>
     <cellStyle name="常规 95" xfId="727"/>
@@ -5996,12 +5996,12 @@
     <cellStyle name="超链接 12" xfId="752"/>
     <cellStyle name="超链接 13" xfId="753"/>
     <cellStyle name="超链接 14" xfId="754"/>
-    <cellStyle name="超链接 20" xfId="755"/>
-    <cellStyle name="超链接 15" xfId="756"/>
-    <cellStyle name="超链接 21" xfId="757"/>
-    <cellStyle name="超链接 16" xfId="758"/>
-    <cellStyle name="超链接 22" xfId="759"/>
-    <cellStyle name="超链接 17" xfId="760"/>
+    <cellStyle name="超链接 15" xfId="755"/>
+    <cellStyle name="超链接 20" xfId="756"/>
+    <cellStyle name="超链接 16" xfId="757"/>
+    <cellStyle name="超链接 21" xfId="758"/>
+    <cellStyle name="超链接 17" xfId="759"/>
+    <cellStyle name="超链接 22" xfId="760"/>
     <cellStyle name="超链接 18" xfId="761"/>
     <cellStyle name="超链接 19" xfId="762"/>
     <cellStyle name="超链接 2" xfId="763"/>
@@ -10554,7 +10554,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="C25:D25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="11.25"/>
@@ -14026,10 +14026,10 @@
   </sheetPr>
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16118,7 +16118,7 @@
     <row r="156" ht="20" customHeight="1"/>
     <row r="157" ht="20" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:M98">
+  <autoFilter ref="A1:M99">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -16726,8 +16726,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -16951,7 +16951,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/sql/华夏ERP数据库设计汇总.xlsx
+++ b/sql/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12780" tabRatio="772" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="18195" windowHeight="12780" tabRatio="772" firstSheet="26" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">目录!$A$1:$K$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">修订记录!$A$1:$M$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">修订记录!$A$1:$M$101</definedName>
     <definedName name="押品与债项拆分信息_对公_go" localSheetId="0">'[1]押品与债项拆分信息(对公)'!#REF!</definedName>
     <definedName name="押品与债项拆分信息_对公_go">'[1]押品与债项拆分信息(对公)'!#REF!</definedName>
     <definedName name="押品与债项关系_对公_go" localSheetId="0">'[1]押品与债项关系(对公)'!#REF!</definedName>
@@ -2097,10 +2097,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
   <fonts count="64">
     <font>
@@ -2227,7 +2227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2258,21 +2258,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2280,7 +2265,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2294,22 +2286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2323,11 +2301,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2337,7 +2332,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2348,44 +2362,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2393,6 +2378,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2414,11 +2413,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2469,45 +2500,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Helv"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2572,7 +2572,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2584,13 +2674,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2602,7 +2698,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,127 +2758,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2746,61 +2788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2825,6 +2819,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2883,6 +2883,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2898,11 +2907,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2924,6 +2989,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2934,49 +3008,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3022,47 +3063,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3072,15 +3072,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -3088,57 +3088,57 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3156,26 +3156,26 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -3185,156 +3185,153 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -3350,181 +3347,185 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -3532,409 +3533,408 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="49" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="52" fillId="49" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3963,79 +3963,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -4055,7 +4053,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4064,84 +4064,84 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -4166,37 +4166,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4224,805 +4224,801 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -5030,106 +5026,110 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0"